--- a/map.xlsx
+++ b/map.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="0"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dostavka\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC46DCD-FAEA-4D59-A0B3-1046980BFC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="605">
   <si>
     <t>широта</t>
   </si>
@@ -40,7 +43,7 @@
     <t>37.694046</t>
   </si>
   <si>
-    <t xml:space="preserve">г.Донецк, ул. Петровского, 111в</t>
+    <t>г.Донецк, ул. Петровского, 111в</t>
   </si>
   <si>
     <t>https://ozon.ru/point/517053</t>
@@ -55,7 +58,7 @@
     <t>37.790642</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Донецк, пр-т. Ленинский, 4</t>
+    <t>г. Донецк, пр-т. Ленинский, 4</t>
   </si>
   <si>
     <t>https://ozon.ru/point/517054</t>
@@ -70,7 +73,7 @@
     <t>37.7964</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Донецк, пр-т. Гурова, 7</t>
+    <t>г. Донецк, пр-т. Гурова, 7</t>
   </si>
   <si>
     <t>https://ozon.ru/point/517061</t>
@@ -85,7 +88,7 @@
     <t>37.960468</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Макеевка, ул.Рябцева, 1</t>
+    <t>г. Макеевка, ул.Рябцева, 1</t>
   </si>
   <si>
     <t>https://ozon.ru/point/517062</t>
@@ -100,7 +103,7 @@
     <t>37.781488</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Донецк, ул. Артема, 148а</t>
+    <t>г. Донецк, ул. Артема, 148а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/517055</t>
@@ -115,7 +118,7 @@
     <t>37.84543</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Донецк, ул. Харитонова, 3А</t>
+    <t>г. Донецк, ул. Харитонова, 3А</t>
   </si>
   <si>
     <t>https://ozon.ru/point/517058</t>
@@ -130,7 +133,7 @@
     <t>37.835405</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Донецк, пр. Ильича, 32</t>
+    <t>г. Донецк, пр. Ильича, 32</t>
   </si>
   <si>
     <t>https://ozon.ru/point/514844</t>
@@ -145,7 +148,7 @@
     <t>37.807934</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Донецк, ул. Челюскинцев, 167</t>
+    <t>г. Донецк, ул. Челюскинцев, 167</t>
   </si>
   <si>
     <t>https://ozon.ru/point/517059</t>
@@ -160,7 +163,7 @@
     <t>37.899868</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Донецк, ул. Полоцкая, 9</t>
+    <t>г. Донецк, ул. Полоцкая, 9</t>
   </si>
   <si>
     <t>https://ozon.ru/point/517056</t>
@@ -175,7 +178,7 @@
     <t>37.798637</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Донецк, ул. Университетская, 34</t>
+    <t>г. Донецк, ул. Университетская, 34</t>
   </si>
   <si>
     <t>https://ozon.ru/point/514822</t>
@@ -190,7 +193,7 @@
     <t>37.551447</t>
   </si>
   <si>
-    <t xml:space="preserve">г.Мариуполь, пр. Металлургов, 94</t>
+    <t>г.Мариуполь, пр. Металлургов, 94</t>
   </si>
   <si>
     <t>https://ozon.ru/point/516734</t>
@@ -205,7 +208,7 @@
     <t>37.525568</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Мариуполь ул. Урицкого 63</t>
+    <t>г. Мариуполь ул. Урицкого 63</t>
   </si>
   <si>
     <t>https://ozon.ru/point/518290</t>
@@ -220,7 +223,7 @@
     <t>37.798565</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, Университетская улица, 26</t>
+    <t>Донецк, Университетская улица, 26</t>
   </si>
   <si>
     <t>https://ozon.ru/point/524639</t>
@@ -235,7 +238,7 @@
     <t>37.964861</t>
   </si>
   <si>
-    <t xml:space="preserve">Макеевка, улица Ленина, 50А</t>
+    <t>Макеевка, улица Ленина, 50А</t>
   </si>
   <si>
     <t>https://ozon.ru/point/524695</t>
@@ -250,7 +253,7 @@
     <t>37.964385</t>
   </si>
   <si>
-    <t xml:space="preserve">Макеевка, улица Ленина, 108</t>
+    <t>Макеевка, улица Ленина, 108</t>
   </si>
   <si>
     <t>https://ozon.ru/point/533299</t>
@@ -265,7 +268,7 @@
     <t>38.084633</t>
   </si>
   <si>
-    <t xml:space="preserve">Новоазовск, улица Ленина, 48</t>
+    <t>Новоазовск, улица Ленина, 48</t>
   </si>
   <si>
     <t>https://ozon.ru/point/533305</t>
@@ -280,7 +283,7 @@
     <t>37.907342</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, Прожекторная улица, 3</t>
+    <t>Донецк, Прожекторная улица, 3</t>
   </si>
   <si>
     <t>https://ozon.ru/point/533308</t>
@@ -295,7 +298,7 @@
     <t>37.811483</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, улица 50-летия СССР, 150</t>
+    <t>Донецк, улица 50-летия СССР, 150</t>
   </si>
   <si>
     <t>https://ozon.ru/point/533314</t>
@@ -310,7 +313,7 @@
     <t>37.811995</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, улица 50-летия СССР, 157А</t>
+    <t>Донецк, улица 50-летия СССР, 157А</t>
   </si>
   <si>
     <t>https://ozon.ru/point/533323</t>
@@ -325,7 +328,7 @@
     <t>37.81151</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, улица 50-летия СССР, 100</t>
+    <t>Донецк, улица 50-летия СССР, 100</t>
   </si>
   <si>
     <t>https://ozon.ru/point/533329</t>
@@ -340,7 +343,7 @@
     <t>37.747963</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, улица Куйбышева, 217Б</t>
+    <t>Донецк, улица Куйбышева, 217Б</t>
   </si>
   <si>
     <t>https://ozon.ru/point/533332</t>
@@ -355,7 +358,7 @@
     <t>37.700397</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, Кировский район, улица Островского, 20</t>
+    <t>Донецк, Кировский район, улица Островского, 20</t>
   </si>
   <si>
     <t>https://ozon.ru/point/533345</t>
@@ -370,7 +373,7 @@
     <t>37.799246872352064</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Павших Коммунаров 1. ТЦ «Южный»</t>
+    <t>Донецк, ул. Павших Коммунаров 1. ТЦ «Южный»</t>
   </si>
   <si>
     <t>https://ozon.ru/point/533347</t>
@@ -385,7 +388,7 @@
     <t>37.920403</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, Раздольная улица, 6</t>
+    <t>Донецк, Раздольная улица, 6</t>
   </si>
   <si>
     <t>https://ozon.ru/point/533348</t>
@@ -400,7 +403,7 @@
     <t>38.63568014484321</t>
   </si>
   <si>
-    <t xml:space="preserve">Чистяково / Торез, 4-й микрорайон, (Торговые павильоны в районе дома 23)</t>
+    <t>Чистяково / Торез, 4-й микрорайон, (Торговые павильоны в районе дома 23)</t>
   </si>
   <si>
     <t>https://ozon.ru/point/533350</t>
@@ -415,7 +418,7 @@
     <t>37.778362</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Воровского 9</t>
+    <t>Донецк, ул. Воровского 9</t>
   </si>
   <si>
     <t>https://ozon.ru/point/534899</t>
@@ -430,7 +433,7 @@
     <t>38.02274</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Макеевка, пр. генерала Данилова 71б</t>
+    <t>г. Макеевка, пр. генерала Данилова 71б</t>
   </si>
   <si>
     <t>https://ozon.ru/point/534902</t>
@@ -445,7 +448,7 @@
     <t>38.208529</t>
   </si>
   <si>
-    <t xml:space="preserve">Енакиево, пр. Ленина 98В</t>
+    <t>Енакиево, пр. Ленина 98В</t>
   </si>
   <si>
     <t>https://ozon.ru/point/534903</t>
@@ -460,7 +463,7 @@
     <t>38.761523</t>
   </si>
   <si>
-    <t xml:space="preserve">Снежное, ул. Дзержинского, 2</t>
+    <t>Снежное, ул. Дзержинского, 2</t>
   </si>
   <si>
     <t>https://ozon.ru/point/534920</t>
@@ -475,7 +478,7 @@
     <t>38.145171</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Харцызск, ул. Октябрьская 84</t>
+    <t>г. Харцызск, ул. Октябрьская 84</t>
   </si>
   <si>
     <t>https://ozon.ru/point/535038</t>
@@ -490,7 +493,7 @@
     <t>38.140113</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Харцызск, м-н Юбилейный 4</t>
+    <t>г. Харцызск, м-н Юбилейный 4</t>
   </si>
   <si>
     <t>https://ozon.ru/point/534940</t>
@@ -505,7 +508,7 @@
     <t>37.854225</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, бул. Шахтостроителей 20</t>
+    <t>Донецк, бул. Шахтостроителей 20</t>
   </si>
   <si>
     <t>https://ozon.ru/point/534949</t>
@@ -520,7 +523,7 @@
     <t>37.775974</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, пр - кт Ленинский, остановка ‘ Звездный’</t>
+    <t>Донецк, пр - кт Ленинский, остановка ‘ Звездный’</t>
   </si>
   <si>
     <t>https://ozon.ru/point/534953</t>
@@ -535,7 +538,7 @@
     <t>37.955132</t>
   </si>
   <si>
-    <t xml:space="preserve">Макеевка, кв. Северный 17</t>
+    <t>Макеевка, кв. Северный 17</t>
   </si>
   <si>
     <t>https://ozon.ru/point/534957</t>
@@ -550,7 +553,7 @@
     <t>37.70346</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, улица Коммунаров, 38</t>
+    <t>Донецк, улица Коммунаров, 38</t>
   </si>
   <si>
     <t>https://ozon.ru/point/535056</t>
@@ -565,7 +568,7 @@
     <t>37.800029</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Артема 147б</t>
+    <t>Донецк, ул. Артема 147б</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536823</t>
@@ -580,7 +583,7 @@
     <t>37.914115</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Независимости 16Д</t>
+    <t>Донецк, ул. Независимости 16Д</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536826</t>
@@ -595,7 +598,7 @@
     <t>38.616993</t>
   </si>
   <si>
-    <t xml:space="preserve">Торез, Пионерская 1</t>
+    <t>Торез, Пионерская 1</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536825</t>
@@ -610,7 +613,7 @@
     <t>38.266246</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Зугрес, ул. Рыночная 1</t>
+    <t>г. Зугрес, ул. Рыночная 1</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536839</t>
@@ -625,7 +628,7 @@
     <t>38.15684</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Харцызск, ул. Шалимова 14Б</t>
+    <t>г. Харцызск, ул. Шалимова 14Б</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536623</t>
@@ -640,7 +643,7 @@
     <t>38.010271</t>
   </si>
   <si>
-    <t xml:space="preserve">Горловка, проспект Победы 55</t>
+    <t>Горловка, проспект Победы 55</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536824</t>
@@ -655,7 +658,7 @@
     <t>38.142934</t>
   </si>
   <si>
-    <t xml:space="preserve">Горловка, ул. 40 лет Украины 9</t>
+    <t>Горловка, ул. 40 лет Украины 9</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536836</t>
@@ -670,7 +673,7 @@
     <t>38.059606</t>
   </si>
   <si>
-    <t xml:space="preserve">Горловка, ул. Бессонова 29а</t>
+    <t>Горловка, ул. Бессонова 29а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536827</t>
@@ -685,7 +688,7 @@
     <t>38.020943</t>
   </si>
   <si>
-    <t xml:space="preserve">Горловка, ул. Гагарина 32</t>
+    <t>Горловка, ул. Гагарина 32</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536832</t>
@@ -700,7 +703,7 @@
     <t>38.211377</t>
   </si>
   <si>
-    <t xml:space="preserve">Енакиево, 50 лет Октября 58а</t>
+    <t>Енакиево, 50 лет Октября 58а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536666</t>
@@ -715,7 +718,7 @@
     <t>38.20826</t>
   </si>
   <si>
-    <t xml:space="preserve">Енакиево, ул. Ленина 91а</t>
+    <t>Енакиево, ул. Ленина 91а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536668</t>
@@ -730,7 +733,7 @@
     <t>37.554403</t>
   </si>
   <si>
-    <t xml:space="preserve">Мариуполь, пр. Металлургов 97</t>
+    <t>Мариуполь, пр. Металлургов 97</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536829</t>
@@ -745,7 +748,7 @@
     <t>37.567455</t>
   </si>
   <si>
-    <t xml:space="preserve">Мариуполь, пр. Металлургов 227</t>
+    <t>Мариуполь, пр. Металлургов 227</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536828</t>
@@ -760,7 +763,7 @@
     <t>37.65426</t>
   </si>
   <si>
-    <t xml:space="preserve">Мариуполь, пр. Победы 89</t>
+    <t>Мариуполь, пр. Победы 89</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536673</t>
@@ -775,7 +778,7 @@
     <t>37.687749</t>
   </si>
   <si>
-    <t xml:space="preserve">Мариуполь, ул. Киевская 51</t>
+    <t>Мариуполь, ул. Киевская 51</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536837</t>
@@ -790,7 +793,7 @@
     <t>37.675083</t>
   </si>
   <si>
-    <t xml:space="preserve">Мариуполь, ул. Февральская 44а</t>
+    <t>Мариуполь, ул. Февральская 44а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536835</t>
@@ -805,7 +808,7 @@
     <t>37.539257</t>
   </si>
   <si>
-    <t xml:space="preserve">Мариуполь, Казанцева 22а</t>
+    <t>Мариуполь, Казанцева 22а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536831</t>
@@ -817,7 +820,7 @@
     <t>37.810324</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Речная 24Б</t>
+    <t>Донецк, ул. Речная 24Б</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536838</t>
@@ -832,7 +835,7 @@
     <t>37.793471</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Пилотная 28</t>
+    <t>Донецк, ул. Пилотная 28</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536830</t>
@@ -847,7 +850,7 @@
     <t>37.849239</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, бул. Шевченко, 66</t>
+    <t>Донецк, бул. Шевченко, 66</t>
   </si>
   <si>
     <t>https://ozon.ru/point/536833</t>
@@ -862,7 +865,7 @@
     <t>37.795933</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Университетская 76</t>
+    <t>Донецк, ул. Университетская 76</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538086</t>
@@ -877,7 +880,7 @@
     <t>36.792245</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Бердянск проспект Победы 11 б</t>
+    <t>г. Бердянск проспект Победы 11 б</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538187</t>
@@ -892,7 +895,7 @@
     <t>37.864259</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Донецк, пр.Шевченко 129</t>
+    <t>г. Донецк, пр.Шевченко 129</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538180</t>
@@ -907,7 +910,7 @@
     <t>38.48274</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Шахтёрск, улица Крупская,1( района автовокзала)</t>
+    <t>г. Шахтёрск, улица Крупская,1( района автовокзала)</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538091</t>
@@ -922,7 +925,7 @@
     <t>38.144865</t>
   </si>
   <si>
-    <t xml:space="preserve">г.Харцызск, ул.Вокзальная, 67</t>
+    <t>г.Харцызск, ул.Вокзальная, 67</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538092</t>
@@ -937,7 +940,7 @@
     <t>38.150597</t>
   </si>
   <si>
-    <t xml:space="preserve">г.Харцызск, ул.Первомайская,1а</t>
+    <t>г.Харцызск, ул.Первомайская,1а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538093</t>
@@ -952,7 +955,7 @@
     <t>37.806057</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Донецк, Куприна 3а</t>
+    <t>г. Донецк, Куприна 3а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538181</t>
@@ -961,7 +964,7 @@
     <t>https://7telecom.ru/public/upload/img/20c58c2c97eb451c3d9e0699765cea54.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Донецк, бул. Шевченко 66</t>
+    <t>г. Донецк, бул. Шевченко 66</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538177</t>
@@ -976,7 +979,7 @@
     <t>37.807773</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, пр. Гурова 22</t>
+    <t>Донецк, пр. Гурова 22</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538094</t>
@@ -991,7 +994,7 @@
     <t>37.830563</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, пр. Ильича 27</t>
+    <t>Донецк, пр. Ильича 27</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538179</t>
@@ -1006,7 +1009,7 @@
     <t>37.778856</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, пр. Киевский 24</t>
+    <t>Донецк, пр. Киевский 24</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538182</t>
@@ -1021,7 +1024,7 @@
     <t>37.921544</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Буденновских партизан</t>
+    <t>Донецк, ул. Буденновских партизан</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538369</t>
@@ -1036,7 +1039,7 @@
     <t>37.769504</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Кольцова 15</t>
+    <t>Донецк, ул. Кольцова 15</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538095</t>
@@ -1051,7 +1054,7 @@
     <t>37.753595</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Куйбышева 169 Б</t>
+    <t>Донецк, ул. Куйбышева 169 Б</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538096</t>
@@ -1066,7 +1069,7 @@
     <t>37.68995</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Ляшенко 1а</t>
+    <t>Донецк, ул. Ляшенко 1а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538097</t>
@@ -1081,7 +1084,7 @@
     <t>37.798996</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Первомайская</t>
+    <t>Донецк, ул. Первомайская</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538186</t>
@@ -1096,7 +1099,7 @@
     <t>37.806093</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Постышева 43</t>
+    <t>Донецк, ул. Постышева 43</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538183</t>
@@ -1111,7 +1114,7 @@
     <t>37.964035</t>
   </si>
   <si>
-    <t xml:space="preserve">Макеевка, ул. 50 лет образования СССР 24а</t>
+    <t>Макеевка, ул. 50 лет образования СССР 24а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538184</t>
@@ -1126,7 +1129,7 @@
     <t>37.995841</t>
   </si>
   <si>
-    <t xml:space="preserve">пгт. Тельманово ул. Ленина 251</t>
+    <t>пгт. Тельманово ул. Ленина 251</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538178</t>
@@ -1141,7 +1144,7 @@
     <t>38.400337</t>
   </si>
   <si>
-    <t xml:space="preserve">Шахтерск Ленинградская 12</t>
+    <t>Шахтерск Ленинградская 12</t>
   </si>
   <si>
     <t>https://ozon.ru/point/538185</t>
@@ -1156,7 +1159,7 @@
     <t>37.799733</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, проспект Мира, 11а</t>
+    <t>Донецк, проспект Мира, 11а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539192</t>
@@ -1171,7 +1174,7 @@
     <t>36.803223</t>
   </si>
   <si>
-    <t xml:space="preserve">Бердянск, Восточный проспект, 119</t>
+    <t>Бердянск, Восточный проспект, 119</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539207</t>
@@ -1186,7 +1189,7 @@
     <t>36.783711</t>
   </si>
   <si>
-    <t xml:space="preserve">г Бердянск Гайдара (бул Шевченко) 12 а</t>
+    <t>г Бердянск Гайдара (бул Шевченко) 12 а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539203</t>
@@ -1201,7 +1204,7 @@
     <t>38.482084</t>
   </si>
   <si>
-    <t xml:space="preserve">г.Шахтерск мкн Журавлёва дом 451</t>
+    <t>г.Шахтерск мкн Журавлёва дом 451</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539197</t>
@@ -1216,7 +1219,7 @@
     <t>38.355736</t>
   </si>
   <si>
-    <t xml:space="preserve">г.Кировское, Ул.Чапаева,7</t>
+    <t>г.Кировское, Ул.Чапаева,7</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539205</t>
@@ -1231,7 +1234,7 @@
     <t>37.902734</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк Багратиона 43</t>
+    <t>Донецк Багратиона 43</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539206</t>
@@ -1246,7 +1249,7 @@
     <t>37.747670</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк ЖД Вокзал Павильон</t>
+    <t>Донецк ЖД Вокзал Павильон</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539196</t>
@@ -1261,7 +1264,7 @@
     <t>37.835486</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк Шевченко д.42Б</t>
+    <t>Донецк Шевченко д.42Б</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539204</t>
@@ -1276,7 +1279,7 @@
     <t>37.785782</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, переулок Россини д.2</t>
+    <t>Донецк, переулок Россини д.2</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539198</t>
@@ -1291,7 +1294,7 @@
     <t>37.754521</t>
   </si>
   <si>
-    <t xml:space="preserve">Донецк, ул. Артёма 194Б</t>
+    <t>Донецк, ул. Артёма 194Б</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539200</t>
@@ -1306,7 +1309,7 @@
     <t>37.513080</t>
   </si>
   <si>
-    <t xml:space="preserve">Мариуполь ул. кронштадтская 14</t>
+    <t>Мариуполь ул. кронштадтская 14</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539199</t>
@@ -1321,7 +1324,7 @@
     <t>36.356562</t>
   </si>
   <si>
-    <t xml:space="preserve">Приморск улица Шевченко, 1</t>
+    <t>Приморск улица Шевченко, 1</t>
   </si>
   <si>
     <t>https://ozon.ru/point/539194</t>
@@ -1351,7 +1354,7 @@
     <t>38.002824</t>
   </si>
   <si>
-    <t xml:space="preserve">Горловка, проспект Победы 67г</t>
+    <t>Горловка, проспект Победы 67г</t>
   </si>
   <si>
     <t>https://ozon.ru/point/541464</t>
@@ -1366,7 +1369,7 @@
     <t>37.969999</t>
   </si>
   <si>
-    <t xml:space="preserve">Горловка, ул. Болотникова 29а</t>
+    <t>Горловка, ул. Болотникова 29а</t>
   </si>
   <si>
     <t>https://ozon.ru/point/541472</t>
@@ -1381,38 +1384,484 @@
     <t>38.206068</t>
   </si>
   <si>
-    <t xml:space="preserve">Енакиево, ул. Айвазовского 68</t>
+    <t>Енакиево, ул. Айвазовского 68</t>
   </si>
   <si>
     <t>https://ozon.ru/point/541466</t>
   </si>
   <si>
     <t>https://7telecom.ru/public/upload/img/a9d969cf21cf82077e31e8b94da210e7.jpg</t>
+  </si>
+  <si>
+    <t>Мелитополь, ул.Гагарина,3</t>
+  </si>
+  <si>
+    <t>Бердянск, Волонтеров 49Б</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Демехина,23</t>
+  </si>
+  <si>
+    <t>Макеевка, Горняцкий район ул. Кирова 14а</t>
+  </si>
+  <si>
+    <t>Мелитополь, ул. Богдана Хмельницкого,89</t>
+  </si>
+  <si>
+    <t>Приморск, Дружбы 15 Б</t>
+  </si>
+  <si>
+    <t>Луганск, Волкова 2 А</t>
+  </si>
+  <si>
+    <t>Луганск Победоносная 15 А</t>
+  </si>
+  <si>
+    <t>Волноваха, Ленина 145</t>
+  </si>
+  <si>
+    <t>г.Мелитополь 50 лет Победы, 29</t>
+  </si>
+  <si>
+    <t>г.Мелитополь Ул. Ивана Алексеева, 10А</t>
+  </si>
+  <si>
+    <t>г.Мелитополь Ул. Кирова, 501, ТЦ Феникс, 1</t>
+  </si>
+  <si>
+    <t>Мариуполь Пос.Сартана ул.Партизанская 25</t>
+  </si>
+  <si>
+    <t>Мариуполь Ул.Седьмой проезд 8а</t>
+  </si>
+  <si>
+    <t>Бердянск Ул Университетская 16</t>
+  </si>
+  <si>
+    <t>Горловка, ул. Нестерова 117</t>
+  </si>
+  <si>
+    <t>Донецк, пр. Дзержинского, д. 69Б</t>
+  </si>
+  <si>
+    <t>Донецк, ул Петровского 231 Б </t>
+  </si>
+  <si>
+    <t>Донецк, улица Газеты Комсомолец Донбасса 21</t>
+  </si>
+  <si>
+    <t>с. Азовское ул. Центральная 95 а</t>
+  </si>
+  <si>
+    <t>Луганск, Оборонная 18</t>
+  </si>
+  <si>
+    <t>Луганск, Ватутина 18</t>
+  </si>
+  <si>
+    <t>Донецк, Шевченко 27</t>
+  </si>
+  <si>
+    <t>Донецк, Проспект Гринкевича 9</t>
+  </si>
+  <si>
+    <t>Донецк, Первомайская 19</t>
+  </si>
+  <si>
+    <t>Донецк, Аристова 20</t>
+  </si>
+  <si>
+    <t>Горловка, Минская 61</t>
+  </si>
+  <si>
+    <t>Свердловск,ул.Энгельса 52</t>
+  </si>
+  <si>
+    <t>Стаханов, ул Олимпийская, дом 15</t>
+  </si>
+  <si>
+    <t>Луганск, Мирный 2В</t>
+  </si>
+  <si>
+    <t>Свердловск , кВ 60лет ссср 23 дом 1</t>
+  </si>
+  <si>
+    <t>Геническ. Проспект Мира 87</t>
+  </si>
+  <si>
+    <t>Чаплынка, ул.Грушевского 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новотроицкое, ул.Соборная 94 </t>
+  </si>
+  <si>
+    <t>Скадовск, ул.Гагарина 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каланчак, ул.Херсонская 16 </t>
+  </si>
+  <si>
+    <t>Геническ, ул.Центральная 2</t>
+  </si>
+  <si>
+    <t>46.859837</t>
+  </si>
+  <si>
+    <t>35.338924</t>
+  </si>
+  <si>
+    <t>46.773365</t>
+  </si>
+  <si>
+    <t>36.778744</t>
+  </si>
+  <si>
+    <t>48.571625</t>
+  </si>
+  <si>
+    <t>39.304240</t>
+  </si>
+  <si>
+    <t>47.997238</t>
+  </si>
+  <si>
+    <t>38.031633</t>
+  </si>
+  <si>
+    <t>46.827151</t>
+  </si>
+  <si>
+    <t>35.357151</t>
+  </si>
+  <si>
+    <t>46.735388</t>
+  </si>
+  <si>
+    <t>36.347516</t>
+  </si>
+  <si>
+    <t>48.567034</t>
+  </si>
+  <si>
+    <t>39.396048</t>
+  </si>
+  <si>
+    <t>48.530617</t>
+  </si>
+  <si>
+    <t>39.272242</t>
+  </si>
+  <si>
+    <t>47.615835</t>
+  </si>
+  <si>
+    <t>37.490227</t>
+  </si>
+  <si>
+    <t>46.863337</t>
+  </si>
+  <si>
+    <t>35.380309</t>
+  </si>
+  <si>
+    <t>46.839444</t>
+  </si>
+  <si>
+    <t>35.363313</t>
+  </si>
+  <si>
+    <t>46.8438994</t>
+  </si>
+  <si>
+    <t>35.3601899</t>
+  </si>
+  <si>
+    <t>47.174247</t>
+  </si>
+  <si>
+    <t>37.693687</t>
+  </si>
+  <si>
+    <t>47.115759</t>
+  </si>
+  <si>
+    <t>37.563593</t>
+  </si>
+  <si>
+    <t>46.754673</t>
+  </si>
+  <si>
+    <t>36.787960</t>
+  </si>
+  <si>
+    <t>48.293415</t>
+  </si>
+  <si>
+    <t>38.012409</t>
+  </si>
+  <si>
+    <t>47.997817</t>
+  </si>
+  <si>
+    <t>37.839133</t>
+  </si>
+  <si>
+    <t>47.944665</t>
+  </si>
+  <si>
+    <t>37.610745</t>
+  </si>
+  <si>
+    <t>47.961598</t>
+  </si>
+  <si>
+    <t>37.739096</t>
+  </si>
+  <si>
+    <t>46.802661</t>
+  </si>
+  <si>
+    <t>36.677755</t>
+  </si>
+  <si>
+    <t>48.552896</t>
+  </si>
+  <si>
+    <t>39.325404</t>
+  </si>
+  <si>
+    <t>48.567601</t>
+  </si>
+  <si>
+    <t>39.382025</t>
+  </si>
+  <si>
+    <t>48.008801</t>
+  </si>
+  <si>
+    <t>37.829260</t>
+  </si>
+  <si>
+    <t>48.001742</t>
+  </si>
+  <si>
+    <t>37.800487</t>
+  </si>
+  <si>
+    <t>47.987542</t>
+  </si>
+  <si>
+    <t>37.799239</t>
+  </si>
+  <si>
+    <t>48.059351</t>
+  </si>
+  <si>
+    <t>37.780167</t>
+  </si>
+  <si>
+    <t>48.324834</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38.026090</t>
+  </si>
+  <si>
+    <t>48.075036</t>
+  </si>
+  <si>
+    <t>39.654664</t>
+  </si>
+  <si>
+    <t>48.532210</t>
+  </si>
+  <si>
+    <t>38.617918</t>
+  </si>
+  <si>
+    <t>48.525068</t>
+  </si>
+  <si>
+    <t>39.269556</t>
+  </si>
+  <si>
+    <t>48.076228</t>
+  </si>
+  <si>
+    <t>39.677113</t>
+  </si>
+  <si>
+    <t>46.173364</t>
+  </si>
+  <si>
+    <t>34.813391</t>
+  </si>
+  <si>
+    <t>46.373760</t>
+  </si>
+  <si>
+    <t>33.536876</t>
+  </si>
+  <si>
+    <t>46.350077</t>
+  </si>
+  <si>
+    <t>34.328732</t>
+  </si>
+  <si>
+    <t>46.113245</t>
+  </si>
+  <si>
+    <t>32.907292</t>
+  </si>
+  <si>
+    <t>46.256858</t>
+  </si>
+  <si>
+    <t>33.290451</t>
+  </si>
+  <si>
+    <t>46.166518</t>
+  </si>
+  <si>
+    <t>34.810948</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/543202</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/543419</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/543409</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/543417</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/543415</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/543418</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/545540</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/544418</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/544421</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/544430</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/544427</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/544417</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/544431</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/544415</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/547801</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/547819</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/547816</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/547809</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/547815</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/547803</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/549252</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/549315</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/549324</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/549337</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/549338</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/549325</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/549331</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/804588</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/804607</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/804615</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/804584</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/565080</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/804561</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/804569</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/804609</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/804614</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/804623</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.000000"/>
+      <sz val="14"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1425,57 +1874,45 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="0" locked="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1483,295 +1920,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -1823,7 +1980,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1938,31 +2095,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK129"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="C60" zoomScale="55" workbookViewId="0">
-      <selection activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="21.43"/>
-    <col customWidth="1" min="2" max="2" style="1" width="25.710000000000001"/>
-    <col customWidth="1" min="3" max="3" style="2" width="67.709999999999994"/>
-    <col customWidth="1" min="4" max="4" style="3" width="28.300000000000001"/>
-    <col customWidth="1" min="5" max="5" style="3" width="19.309999999999999"/>
-    <col customWidth="1" min="6" max="1025" style="3" width="11.42"/>
+    <col min="1" max="1" width="21.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="3" customWidth="1"/>
+    <col min="6" max="1025" width="11.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +2134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1996,7 +2151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2013,7 +2168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="16.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2030,7 +2185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="16.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="16.5">
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,7 +2219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="16.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2081,7 +2236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="16.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2098,7 +2253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="16.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -2115,7 +2270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" ht="16.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -2132,7 +2287,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" ht="16.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -2149,7 +2304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" ht="16.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -2166,7 +2321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" ht="16.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2183,7 +2338,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" ht="16.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -2200,7 +2355,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" ht="16.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -2217,7 +2372,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" ht="16.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -2234,7 +2389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" ht="16.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -2251,7 +2406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" ht="16.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -2268,7 +2423,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" ht="16.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -2285,7 +2440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" ht="16.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -2302,7 +2457,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" ht="16.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>100</v>
       </c>
@@ -2319,7 +2474,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" ht="16.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
@@ -2336,7 +2491,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" ht="16.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -2353,7 +2508,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" ht="16.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>115</v>
       </c>
@@ -2370,7 +2525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" ht="16.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -2387,7 +2542,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" ht="16.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
@@ -2404,7 +2559,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" ht="16.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -2421,7 +2576,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" ht="16.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>135</v>
       </c>
@@ -2438,7 +2593,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" ht="16.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>140</v>
       </c>
@@ -2455,7 +2610,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" ht="16.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>145</v>
       </c>
@@ -2472,7 +2627,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" ht="16.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>150</v>
       </c>
@@ -2489,7 +2644,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" ht="16.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>155</v>
       </c>
@@ -2506,7 +2661,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" ht="16.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -2523,7 +2678,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" ht="16.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>165</v>
       </c>
@@ -2540,7 +2695,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" ht="16.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -2557,7 +2712,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" ht="16.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
@@ -2574,7 +2729,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" ht="16.5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>180</v>
       </c>
@@ -2591,7 +2746,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" ht="16.5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>185</v>
       </c>
@@ -2608,7 +2763,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" ht="16.5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>190</v>
       </c>
@@ -2625,7 +2780,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" ht="16.5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>195</v>
       </c>
@@ -2642,7 +2797,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" ht="16.5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>200</v>
       </c>
@@ -2659,7 +2814,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" ht="16.5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>205</v>
       </c>
@@ -2676,7 +2831,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" ht="16.5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>210</v>
       </c>
@@ -2693,7 +2848,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" ht="16.5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>215</v>
       </c>
@@ -2710,7 +2865,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" ht="16.5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>220</v>
       </c>
@@ -2727,7 +2882,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" ht="16.5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>225</v>
       </c>
@@ -2744,7 +2899,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" ht="16.5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>230</v>
       </c>
@@ -2761,7 +2916,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" ht="16.5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>235</v>
       </c>
@@ -2778,7 +2933,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" ht="16.5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>240</v>
       </c>
@@ -2795,7 +2950,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" ht="16.5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>245</v>
       </c>
@@ -2812,7 +2967,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" ht="16.5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>250</v>
       </c>
@@ -2829,7 +2984,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" ht="16.5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>255</v>
       </c>
@@ -2846,7 +3001,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" ht="16.5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>260</v>
       </c>
@@ -2863,7 +3018,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="54" ht="16.5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>264</v>
       </c>
@@ -2880,7 +3035,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" ht="16.5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>269</v>
       </c>
@@ -2897,7 +3052,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="56" ht="16.5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>274</v>
       </c>
@@ -2914,7 +3069,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" ht="16.5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>279</v>
       </c>
@@ -2931,7 +3086,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" ht="16.5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>284</v>
       </c>
@@ -2948,7 +3103,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="59" ht="16.5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>289</v>
       </c>
@@ -2965,7 +3120,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" ht="16.5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>294</v>
       </c>
@@ -2982,7 +3137,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="61" ht="16.5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>299</v>
       </c>
@@ -2999,7 +3154,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="62" ht="16.5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>304</v>
       </c>
@@ -3016,7 +3171,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="63" ht="16.5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>309</v>
       </c>
@@ -3033,7 +3188,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="64" ht="16.5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>274</v>
       </c>
@@ -3050,7 +3205,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="65" ht="17.350000000000001">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>317</v>
       </c>
@@ -3067,7 +3222,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="66" ht="17.350000000000001">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>322</v>
       </c>
@@ -3084,7 +3239,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="67" ht="17.350000000000001">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>327</v>
       </c>
@@ -3101,7 +3256,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="68" ht="17.350000000000001">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>332</v>
       </c>
@@ -3118,7 +3273,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="69" ht="17.350000000000001">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>337</v>
       </c>
@@ -3135,7 +3290,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="70" ht="17.350000000000001">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>342</v>
       </c>
@@ -3152,7 +3307,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="71" ht="17.350000000000001">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>347</v>
       </c>
@@ -3169,7 +3324,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" ht="17.350000000000001">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>352</v>
       </c>
@@ -3186,7 +3341,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="73" ht="17.350000000000001">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>357</v>
       </c>
@@ -3203,7 +3358,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="74" ht="17.350000000000001">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>362</v>
       </c>
@@ -3220,7 +3375,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="75" ht="17.350000000000001">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>367</v>
       </c>
@@ -3237,7 +3392,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="76" ht="17.350000000000001">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>372</v>
       </c>
@@ -3254,7 +3409,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" ht="17.350000000000001">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>377</v>
       </c>
@@ -3271,7 +3426,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" ht="17.350000000000001">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>382</v>
       </c>
@@ -3288,7 +3443,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="79" ht="17.350000000000001">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>387</v>
       </c>
@@ -3305,7 +3460,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="80" ht="17.350000000000001">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>392</v>
       </c>
@@ -3322,7 +3477,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="81" ht="17.350000000000001">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>397</v>
       </c>
@@ -3339,7 +3494,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="82" ht="17.350000000000001">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>402</v>
       </c>
@@ -3356,7 +3511,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="83" ht="17.350000000000001">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>407</v>
       </c>
@@ -3373,7 +3528,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84" ht="17.350000000000001">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>412</v>
       </c>
@@ -3390,7 +3545,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="85" ht="17.350000000000001">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>417</v>
       </c>
@@ -3407,7 +3562,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="86" ht="17.350000000000001">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>422</v>
       </c>
@@ -3424,7 +3579,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="87" ht="17.350000000000001">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>427</v>
       </c>
@@ -3441,7 +3596,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="88" ht="17.350000000000001">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>432</v>
       </c>
@@ -3458,7 +3613,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="89" ht="17.350000000000001">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>437</v>
       </c>
@@ -3475,7 +3630,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="90" ht="17.350000000000001">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>442</v>
       </c>
@@ -3492,7 +3647,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="91" ht="17.350000000000001">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>447</v>
       </c>
@@ -3509,7 +3664,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="92" ht="17.350000000000001">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>452</v>
       </c>
@@ -3526,196 +3681,748 @@
         <v>456</v>
       </c>
     </row>
-    <row r="93" ht="17.350000000000001"/>
-    <row r="94" ht="17.350000000000001"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="E2"/>
-    <hyperlink r:id="rId3" ref="D3"/>
-    <hyperlink r:id="rId4" ref="E3"/>
-    <hyperlink r:id="rId5" ref="D4"/>
-    <hyperlink r:id="rId6" ref="E4"/>
-    <hyperlink r:id="rId7" ref="D5"/>
-    <hyperlink r:id="rId8" ref="E5"/>
-    <hyperlink r:id="rId9" ref="D6"/>
-    <hyperlink r:id="rId10" ref="E6"/>
-    <hyperlink r:id="rId11" ref="D7"/>
-    <hyperlink r:id="rId12" ref="E7"/>
-    <hyperlink r:id="rId13" ref="D8"/>
-    <hyperlink r:id="rId14" ref="E8"/>
-    <hyperlink r:id="rId15" ref="D9"/>
-    <hyperlink r:id="rId16" ref="E9"/>
-    <hyperlink r:id="rId17" ref="D10"/>
-    <hyperlink r:id="rId18" ref="E10"/>
-    <hyperlink r:id="rId19" ref="D11"/>
-    <hyperlink r:id="rId20" ref="E11"/>
-    <hyperlink r:id="rId21" ref="D12"/>
-    <hyperlink r:id="rId22" ref="E12"/>
-    <hyperlink r:id="rId23" ref="D13"/>
-    <hyperlink r:id="rId24" ref="E13"/>
-    <hyperlink r:id="rId25" ref="D14"/>
-    <hyperlink r:id="rId26" ref="E14"/>
-    <hyperlink r:id="rId27" ref="D15"/>
-    <hyperlink r:id="rId28" ref="E15"/>
-    <hyperlink r:id="rId29" ref="D16"/>
-    <hyperlink r:id="rId30" ref="E16"/>
-    <hyperlink r:id="rId31" ref="D17"/>
-    <hyperlink r:id="rId32" ref="E17"/>
-    <hyperlink r:id="rId33" ref="D18"/>
-    <hyperlink r:id="rId34" ref="E18"/>
-    <hyperlink r:id="rId35" ref="D19"/>
-    <hyperlink r:id="rId36" ref="E19"/>
-    <hyperlink r:id="rId37" ref="D20"/>
-    <hyperlink r:id="rId38" ref="E20"/>
-    <hyperlink r:id="rId39" ref="D21"/>
-    <hyperlink r:id="rId40" ref="E21"/>
-    <hyperlink r:id="rId41" ref="D22"/>
-    <hyperlink r:id="rId42" ref="E22"/>
-    <hyperlink r:id="rId43" ref="D23"/>
-    <hyperlink r:id="rId44" ref="E23"/>
-    <hyperlink r:id="rId45" ref="D24"/>
-    <hyperlink r:id="rId46" ref="E24"/>
-    <hyperlink r:id="rId47" ref="D25"/>
-    <hyperlink r:id="rId48" ref="E25"/>
-    <hyperlink r:id="rId49" ref="D26"/>
-    <hyperlink r:id="rId50" ref="E26"/>
-    <hyperlink r:id="rId51" ref="D27"/>
-    <hyperlink r:id="rId52" ref="E27"/>
-    <hyperlink r:id="rId53" ref="D28"/>
-    <hyperlink r:id="rId54" ref="E28"/>
-    <hyperlink r:id="rId55" ref="D29"/>
-    <hyperlink r:id="rId56" ref="E29"/>
-    <hyperlink r:id="rId57" ref="D30"/>
-    <hyperlink r:id="rId58" ref="E30"/>
-    <hyperlink r:id="rId59" ref="D31"/>
-    <hyperlink r:id="rId60" ref="E31"/>
-    <hyperlink r:id="rId61" ref="D32"/>
-    <hyperlink r:id="rId62" ref="E32"/>
-    <hyperlink r:id="rId63" ref="D33"/>
-    <hyperlink r:id="rId64" ref="E33"/>
-    <hyperlink r:id="rId65" ref="D34"/>
-    <hyperlink r:id="rId66" ref="E34"/>
-    <hyperlink r:id="rId67" ref="D35"/>
-    <hyperlink r:id="rId68" ref="E35"/>
-    <hyperlink r:id="rId69" ref="D36"/>
-    <hyperlink r:id="rId70" ref="E36"/>
-    <hyperlink r:id="rId71" ref="D37"/>
-    <hyperlink r:id="rId72" ref="E37"/>
-    <hyperlink r:id="rId73" ref="D38"/>
-    <hyperlink r:id="rId74" ref="E38"/>
-    <hyperlink r:id="rId75" ref="D39"/>
-    <hyperlink r:id="rId76" ref="E39"/>
-    <hyperlink r:id="rId77" ref="D40"/>
-    <hyperlink r:id="rId78" ref="E40"/>
-    <hyperlink r:id="rId79" ref="D41"/>
-    <hyperlink r:id="rId80" ref="E41"/>
-    <hyperlink r:id="rId81" ref="D42"/>
-    <hyperlink r:id="rId82" ref="E42"/>
-    <hyperlink r:id="rId83" ref="D43"/>
-    <hyperlink r:id="rId84" ref="E43"/>
-    <hyperlink r:id="rId85" ref="D44"/>
-    <hyperlink r:id="rId86" ref="E44"/>
-    <hyperlink r:id="rId87" ref="D45"/>
-    <hyperlink r:id="rId88" ref="E45"/>
-    <hyperlink r:id="rId89" ref="D46"/>
-    <hyperlink r:id="rId90" ref="E46"/>
-    <hyperlink r:id="rId91" ref="D47"/>
-    <hyperlink r:id="rId92" ref="E47"/>
-    <hyperlink r:id="rId93" ref="D48"/>
-    <hyperlink r:id="rId94" ref="E48"/>
-    <hyperlink r:id="rId95" ref="D49"/>
-    <hyperlink r:id="rId96" ref="E49"/>
-    <hyperlink r:id="rId97" ref="D50"/>
-    <hyperlink r:id="rId98" ref="E50"/>
-    <hyperlink r:id="rId99" ref="D51"/>
-    <hyperlink r:id="rId100" ref="E51"/>
-    <hyperlink r:id="rId101" ref="D52"/>
-    <hyperlink r:id="rId102" ref="E52"/>
-    <hyperlink r:id="rId103" ref="D53"/>
-    <hyperlink r:id="rId102" ref="E53"/>
-    <hyperlink r:id="rId104" ref="D54"/>
-    <hyperlink r:id="rId105" ref="E54"/>
-    <hyperlink r:id="rId106" ref="D55"/>
-    <hyperlink r:id="rId107" ref="E55"/>
-    <hyperlink r:id="rId108" ref="D56"/>
-    <hyperlink r:id="rId109" ref="E56"/>
-    <hyperlink r:id="rId110" ref="D57"/>
-    <hyperlink r:id="rId111" ref="E57"/>
-    <hyperlink r:id="rId112" ref="D58"/>
-    <hyperlink r:id="rId113" ref="E58"/>
-    <hyperlink r:id="rId114" ref="D59"/>
-    <hyperlink r:id="rId115" ref="E59"/>
-    <hyperlink r:id="rId116" ref="D60"/>
-    <hyperlink r:id="rId117" ref="E60"/>
-    <hyperlink r:id="rId118" ref="D61"/>
-    <hyperlink r:id="rId119" ref="E61"/>
-    <hyperlink r:id="rId120" ref="D62"/>
-    <hyperlink r:id="rId121" ref="E62"/>
-    <hyperlink r:id="rId122" ref="D63"/>
-    <hyperlink r:id="rId123" ref="E63"/>
-    <hyperlink r:id="rId124" ref="D64"/>
-    <hyperlink r:id="rId125" ref="E64"/>
-    <hyperlink r:id="rId126" ref="D65"/>
-    <hyperlink r:id="rId127" ref="E65"/>
-    <hyperlink r:id="rId128" ref="D66"/>
-    <hyperlink r:id="rId129" ref="E66"/>
-    <hyperlink r:id="rId130" ref="D67"/>
-    <hyperlink r:id="rId131" ref="E67"/>
-    <hyperlink r:id="rId132" ref="D68"/>
-    <hyperlink r:id="rId133" ref="E68"/>
-    <hyperlink r:id="rId134" ref="D69"/>
-    <hyperlink r:id="rId135" ref="E69"/>
-    <hyperlink r:id="rId136" ref="D70"/>
-    <hyperlink r:id="rId137" ref="E70"/>
-    <hyperlink r:id="rId138" ref="D71"/>
-    <hyperlink r:id="rId139" ref="E71"/>
-    <hyperlink r:id="rId140" ref="D72"/>
-    <hyperlink r:id="rId141" ref="E72"/>
-    <hyperlink r:id="rId142" ref="D73"/>
-    <hyperlink r:id="rId143" ref="E73"/>
-    <hyperlink r:id="rId144" ref="D74"/>
-    <hyperlink r:id="rId145" ref="E74"/>
-    <hyperlink r:id="rId146" ref="D75"/>
-    <hyperlink r:id="rId147" ref="E75"/>
-    <hyperlink r:id="rId148" ref="D76"/>
-    <hyperlink r:id="rId149" ref="E76"/>
-    <hyperlink r:id="rId150" ref="D77"/>
-    <hyperlink r:id="rId151" ref="E77"/>
-    <hyperlink r:id="rId152" ref="D78"/>
-    <hyperlink r:id="rId153" ref="E78"/>
-    <hyperlink r:id="rId154" ref="D79"/>
-    <hyperlink r:id="rId155" ref="E79"/>
-    <hyperlink r:id="rId156" ref="D80"/>
-    <hyperlink r:id="rId157" ref="E80"/>
-    <hyperlink r:id="rId158" ref="D81"/>
-    <hyperlink r:id="rId159" ref="E81"/>
-    <hyperlink r:id="rId160" ref="D82"/>
-    <hyperlink r:id="rId161" ref="E82"/>
-    <hyperlink r:id="rId162" ref="D83"/>
-    <hyperlink r:id="rId163" ref="E83"/>
-    <hyperlink r:id="rId164" ref="D84"/>
-    <hyperlink r:id="rId165" ref="E84"/>
-    <hyperlink r:id="rId166" ref="D85"/>
-    <hyperlink r:id="rId167" ref="E85"/>
-    <hyperlink r:id="rId168" ref="D86"/>
-    <hyperlink r:id="rId169" ref="E86"/>
-    <hyperlink r:id="rId170" ref="D87"/>
-    <hyperlink r:id="rId171" ref="E87"/>
-    <hyperlink r:id="rId172" ref="D88"/>
-    <hyperlink r:id="rId173" ref="E88"/>
-    <hyperlink r:id="rId174" ref="D89"/>
-    <hyperlink r:id="rId175" ref="E89"/>
-    <hyperlink r:id="rId176" ref="D90"/>
-    <hyperlink r:id="rId177" ref="E90"/>
-    <hyperlink r:id="rId178" ref="D91"/>
-    <hyperlink r:id="rId179" ref="E91"/>
-    <hyperlink r:id="rId180" ref="D92"/>
-    <hyperlink r:id="rId181" ref="E92"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D52" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D53" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E83" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E85" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E86" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E87" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E89" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E90" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D91" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E92" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D93" r:id="rId183" xr:uid="{0B8ACA0B-336A-4F94-9F86-BA8947C7F889}"/>
+    <hyperlink ref="D94" r:id="rId184" xr:uid="{E31A38C0-36AC-4A45-9FF3-D66FD5EC50B6}"/>
+    <hyperlink ref="D95" r:id="rId185" xr:uid="{12BA60FD-1798-4384-96D7-B15763E49649}"/>
+    <hyperlink ref="D96" r:id="rId186" xr:uid="{58D42DFA-9445-4C5A-AB7C-7893E5EBC6A8}"/>
+    <hyperlink ref="D97" r:id="rId187" xr:uid="{0613DAEC-4796-4E53-A077-B167C394A712}"/>
+    <hyperlink ref="D98" r:id="rId188" xr:uid="{12BEE245-7293-4670-A494-921F37FDA215}"/>
+    <hyperlink ref="D99" r:id="rId189" xr:uid="{D44182BF-3773-4B5B-8E0F-A3ED9CDC4D27}"/>
+    <hyperlink ref="D100" r:id="rId190" xr:uid="{43E2B09F-2E33-4573-8947-972479BF3416}"/>
+    <hyperlink ref="D101" r:id="rId191" xr:uid="{B81A3934-F621-45F4-90F4-CD2BE8F0A72C}"/>
+    <hyperlink ref="D102" r:id="rId192" xr:uid="{486F4CBE-C0D2-42A7-8E5D-BB891483ABE5}"/>
+    <hyperlink ref="D103" r:id="rId193" xr:uid="{1F326FF8-62A9-4C66-864F-4455D3331B38}"/>
+    <hyperlink ref="D104" r:id="rId194" xr:uid="{816E6162-9D84-4ABA-A01C-A373ACBF0839}"/>
+    <hyperlink ref="D105" r:id="rId195" xr:uid="{568F07C7-70B3-4371-A042-B996932870DC}"/>
+    <hyperlink ref="D106" r:id="rId196" xr:uid="{09DB4B50-2672-49E7-B0C2-DC6B211CCCB7}"/>
+    <hyperlink ref="D107" r:id="rId197" xr:uid="{D29BDC30-EE4B-4BDB-B202-CD9F00A74DBA}"/>
+    <hyperlink ref="D108" r:id="rId198" xr:uid="{9518E40A-69E2-4517-8E39-4D429FA65F6F}"/>
+    <hyperlink ref="D109" r:id="rId199" xr:uid="{79D76B32-E4B0-4108-8DCF-ED720149C3F8}"/>
+    <hyperlink ref="D110" r:id="rId200" xr:uid="{6D80B3A5-F55D-4A9D-BEE7-FD46F0B05090}"/>
+    <hyperlink ref="D111" r:id="rId201" xr:uid="{B0DD4065-7526-4FF9-98FE-82E324E5B692}"/>
+    <hyperlink ref="D112" r:id="rId202" xr:uid="{36F04864-1E12-46E9-B3F2-E4015C328483}"/>
+    <hyperlink ref="D113" r:id="rId203" xr:uid="{DE3E53DE-5387-4789-B874-097D2C2B5A19}"/>
+    <hyperlink ref="D114" r:id="rId204" xr:uid="{F93BBF11-CFFF-40C1-A23A-F3DBADD5C8F4}"/>
+    <hyperlink ref="D115" r:id="rId205" xr:uid="{D41F7172-10A0-41BB-953B-F71DE9BFC56B}"/>
+    <hyperlink ref="D116" r:id="rId206" xr:uid="{2A46ED8B-BCB9-40C3-8C3C-B8E3A3C106D7}"/>
+    <hyperlink ref="D117" r:id="rId207" xr:uid="{B564EFFB-DFD7-4778-AC34-54B7560997B8}"/>
+    <hyperlink ref="D118" r:id="rId208" xr:uid="{019095F1-45BE-427A-B83A-265141471B08}"/>
+    <hyperlink ref="D119" r:id="rId209" xr:uid="{8E732119-629A-435A-9696-9D6F11C236BC}"/>
+    <hyperlink ref="D120" r:id="rId210" xr:uid="{E24FDFD2-ECBE-4CD6-958C-93550421E7A2}"/>
+    <hyperlink ref="D121" r:id="rId211" xr:uid="{C5D45BA4-E0D6-4A41-8CED-938B6E817BD2}"/>
+    <hyperlink ref="D122" r:id="rId212" xr:uid="{B1387441-1386-442B-B71F-90296EA12AD6}"/>
+    <hyperlink ref="D123" r:id="rId213" xr:uid="{DC7D060B-D086-440C-8EF6-7217FE024454}"/>
+    <hyperlink ref="D124" r:id="rId214" xr:uid="{B1096C30-E694-4752-B005-F6DBAA686D92}"/>
+    <hyperlink ref="D125" r:id="rId215" xr:uid="{AE3B9085-2F28-49EB-8D95-5BCC261FEE1B}"/>
+    <hyperlink ref="D126" r:id="rId216" xr:uid="{A5ECBDAD-9427-4DF6-9EBC-09F50C9F3338}"/>
+    <hyperlink ref="D127" r:id="rId217" xr:uid="{8CF15575-84CE-4EF9-8EBA-DA9DF69F479F}"/>
+    <hyperlink ref="D128" r:id="rId218" xr:uid="{177D137B-36FD-41E5-B62E-E81D80B58378}"/>
+    <hyperlink ref="D129" r:id="rId219" xr:uid="{E896A3FE-B40C-4339-9597-EE52DB5E76FA}"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>

--- a/map.xlsx
+++ b/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dostavka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dostavka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC46DCD-FAEA-4D59-A0B3-1046980BFC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A412D7B-FA5B-459E-A06B-81C88A710E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="824">
   <si>
     <t>широта</t>
   </si>
@@ -1835,6 +1835,673 @@
   </si>
   <si>
     <t>https://ozon.ru/point/804623</t>
+  </si>
+  <si>
+    <t>Аскания-Нова, ул.Соборная(Красноармейская) 22</t>
+  </si>
+  <si>
+    <t>Геническ - 2, ул.Дружбы народов 64</t>
+  </si>
+  <si>
+    <t>Геническая горка, ул.Азовская 38</t>
+  </si>
+  <si>
+    <t>Железный Порт, ул.Школьная 54</t>
+  </si>
+  <si>
+    <t>Приморское,ул.Соборная 62Г</t>
+  </si>
+  <si>
+    <t>Дебальцево, ул.346-й Дебальцевской Стрелковой Дивизии 5</t>
+  </si>
+  <si>
+    <t>Антрацит , Вокзальная 10 В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красный Луч, 1-й Микрорайон 2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Луганск, улица Оборонная 3/68
+</t>
+  </si>
+  <si>
+    <t>Новоазовск, Советская 20</t>
+  </si>
+  <si>
+    <t>Суходольск, Ленина 15</t>
+  </si>
+  <si>
+    <t>Тельмановский р-н с. Гранитное, Бейды 21а</t>
+  </si>
+  <si>
+    <t>Ивановка, улица Щорса (Соборная) д.9</t>
+  </si>
+  <si>
+    <t>Новотроицкое, улица Белошкуры д.12</t>
+  </si>
+  <si>
+    <t>Бердянск, Военный городок 10а</t>
+  </si>
+  <si>
+    <t>Ровеньки, Энгельса 9</t>
+  </si>
+  <si>
+    <t>Стаханов, Богдана Хмельницкого 4</t>
+  </si>
+  <si>
+    <t>Громовка, ул. Власенко (Ленина), 2</t>
+  </si>
+  <si>
+    <t>Ивановка, Соборная 3</t>
+  </si>
+  <si>
+    <t>Мирное, Шевченко 37</t>
+  </si>
+  <si>
+    <t>Нижние Серогозы, Мира 13</t>
+  </si>
+  <si>
+    <t>Ровное, ( Центральная) Ленина 24</t>
+  </si>
+  <si>
+    <t>Рубановка, Ивана Франка 12</t>
+  </si>
+  <si>
+    <t>Сивашское, Белинского 9</t>
+  </si>
+  <si>
+    <t>Ясиноватая, Ул.Некрасова, 4а</t>
+  </si>
+  <si>
+    <t>Горловка, ул. Пушкинская 25</t>
+  </si>
+  <si>
+    <t>Енакиево, ул. Коммунистическая 49</t>
+  </si>
+  <si>
+    <t>Брянка ул.Московская 6</t>
+  </si>
+  <si>
+    <t>Энергодар. ул. Украинская д.20</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Артема 275</t>
+  </si>
+  <si>
+    <t>Снежное, ул. Крестьянская 43</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Университетская 107</t>
+  </si>
+  <si>
+    <t>Алчевск, ул. Московская, д. 21</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Артема, д. 99</t>
+  </si>
+  <si>
+    <t>Кировск, ул. Борисова, д. 3, пом 81</t>
+  </si>
+  <si>
+    <t>Юбилейный, квартал Шахтерский, район домов 9 и 11</t>
+  </si>
+  <si>
+    <t>Горловка, ул. Интернациональная, 2Г</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Северская, 23 а</t>
+  </si>
+  <si>
+    <t>Комсомольское, ул. Горького, 69 Б</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Ленина 152</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Октября 24</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Пролетарская 10а</t>
+  </si>
+  <si>
+    <t>Донецк, Мушкетовская 5</t>
+  </si>
+  <si>
+    <t>Донецк, Ул.230 Стрелковой дивизии 22а</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Шутова 16 А</t>
+  </si>
+  <si>
+    <t>Донецк, Артема 102</t>
+  </si>
+  <si>
+    <t>46.701111</t>
+  </si>
+  <si>
+    <t>35.163240</t>
+  </si>
+  <si>
+    <t>46.8699838</t>
+  </si>
+  <si>
+    <t>35.3864325</t>
+  </si>
+  <si>
+    <t>46.142393</t>
+  </si>
+  <si>
+    <t>32.947916</t>
+  </si>
+  <si>
+    <t>46.454910</t>
+  </si>
+  <si>
+    <t>33.869352</t>
+  </si>
+  <si>
+    <t>46.172551</t>
+  </si>
+  <si>
+    <t>34.811172</t>
+  </si>
+  <si>
+    <t>46.082842</t>
+  </si>
+  <si>
+    <t>34.830037</t>
+  </si>
+  <si>
+    <t>46.121579</t>
+  </si>
+  <si>
+    <t>32.288065</t>
+  </si>
+  <si>
+    <t>46.179171</t>
+  </si>
+  <si>
+    <t>33.026784</t>
+  </si>
+  <si>
+    <t>48.336161</t>
+  </si>
+  <si>
+    <t>38.399960</t>
+  </si>
+  <si>
+    <t>48.109707</t>
+  </si>
+  <si>
+    <t>39.085869</t>
+  </si>
+  <si>
+    <t>48.149620</t>
+  </si>
+  <si>
+    <t>38.926085</t>
+  </si>
+  <si>
+    <t>48.563857</t>
+  </si>
+  <si>
+    <t>39.315271</t>
+  </si>
+  <si>
+    <t>48.578790</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38.948876</t>
+  </si>
+  <si>
+    <t>47.110718</t>
+  </si>
+  <si>
+    <t>38.093787</t>
+  </si>
+  <si>
+    <t>48.350809</t>
+  </si>
+  <si>
+    <t>39.733689</t>
+  </si>
+  <si>
+    <t>47.460022</t>
+  </si>
+  <si>
+    <t>37.864741</t>
+  </si>
+  <si>
+    <t>46.756797</t>
+  </si>
+  <si>
+    <t>36.787763</t>
+  </si>
+  <si>
+    <t>46.712884</t>
+  </si>
+  <si>
+    <t>34.549042</t>
+  </si>
+  <si>
+    <t>46.353048</t>
+  </si>
+  <si>
+    <t>34.330552</t>
+  </si>
+  <si>
+    <t>46.789175</t>
+  </si>
+  <si>
+    <t>36.790907</t>
+  </si>
+  <si>
+    <t>48.088568</t>
+  </si>
+  <si>
+    <t>39.360412</t>
+  </si>
+  <si>
+    <t>48.575142</t>
+  </si>
+  <si>
+    <t>38.647275</t>
+  </si>
+  <si>
+    <t>46.311545</t>
+  </si>
+  <si>
+    <t>34.0996768</t>
+  </si>
+  <si>
+    <t>46.130687</t>
+  </si>
+  <si>
+    <t>32.765128</t>
+  </si>
+  <si>
+    <t>46.251064</t>
+  </si>
+  <si>
+    <t>33.464122</t>
+  </si>
+  <si>
+    <t>46.852702</t>
+  </si>
+  <si>
+    <t>34.377334</t>
+  </si>
+  <si>
+    <t>34.760470</t>
+  </si>
+  <si>
+    <t>46.993789</t>
+  </si>
+  <si>
+    <t>34.172280</t>
+  </si>
+  <si>
+    <t>46.383279</t>
+  </si>
+  <si>
+    <t>34.546135</t>
+  </si>
+  <si>
+    <t>48.128095</t>
+  </si>
+  <si>
+    <t>37.854925</t>
+  </si>
+  <si>
+    <t>48.299769</t>
+  </si>
+  <si>
+    <t>38.016182</t>
+  </si>
+  <si>
+    <t>48.237948</t>
+  </si>
+  <si>
+    <t>38.178705</t>
+  </si>
+  <si>
+    <t>48.499474</t>
+  </si>
+  <si>
+    <t>38.679192</t>
+  </si>
+  <si>
+    <t>47.493694</t>
+  </si>
+  <si>
+    <t>34.649332</t>
+  </si>
+  <si>
+    <t>48.042661</t>
+  </si>
+  <si>
+    <t>37.749131</t>
+  </si>
+  <si>
+    <t>48.022760</t>
+  </si>
+  <si>
+    <t>38.762718</t>
+  </si>
+  <si>
+    <t>48.035311</t>
+  </si>
+  <si>
+    <t>37.781820</t>
+  </si>
+  <si>
+    <t>48.466168</t>
+  </si>
+  <si>
+    <t>38.805558</t>
+  </si>
+  <si>
+    <t>48.591068</t>
+  </si>
+  <si>
+    <t>39.319044</t>
+  </si>
+  <si>
+    <t>48.634647</t>
+  </si>
+  <si>
+    <t>38.647868</t>
+  </si>
+  <si>
+    <t>48.557482</t>
+  </si>
+  <si>
+    <t>39.189974</t>
+  </si>
+  <si>
+    <t>48.304402</t>
+  </si>
+  <si>
+    <t>38.040805</t>
+  </si>
+  <si>
+    <t>48.054088</t>
+  </si>
+  <si>
+    <t>37.963765</t>
+  </si>
+  <si>
+    <t>48.032287</t>
+  </si>
+  <si>
+    <t>37.810225</t>
+  </si>
+  <si>
+    <t>47.665934</t>
+  </si>
+  <si>
+    <t>38.070413</t>
+  </si>
+  <si>
+    <t>48.084373</t>
+  </si>
+  <si>
+    <t>37.958366</t>
+  </si>
+  <si>
+    <t>47.959625</t>
+  </si>
+  <si>
+    <t>37.882153</t>
+  </si>
+  <si>
+    <t>47.963022</t>
+  </si>
+  <si>
+    <t>37.881542</t>
+  </si>
+  <si>
+    <t>47.991136</t>
+  </si>
+  <si>
+    <t>37.828003</t>
+  </si>
+  <si>
+    <t>47.990503</t>
+  </si>
+  <si>
+    <t>37.916083</t>
+  </si>
+  <si>
+    <t>47.942046</t>
+  </si>
+  <si>
+    <t>37.766495</t>
+  </si>
+  <si>
+    <t>48.019060</t>
+  </si>
+  <si>
+    <t>37.800901</t>
+  </si>
+  <si>
+    <t>46.359981</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/929130</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/929133</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/929134</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/929128</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/929126</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/929125</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1161398</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203800</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203575</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203577</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203613</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203585</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203797</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203609</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203805</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203799</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203803</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203796</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203801</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203599</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203602</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203802</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203804</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203798</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203806</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203795</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1203807</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1205176</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1205150</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1205177</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1205163</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1205147</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1205149</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1205170</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1205158</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1215785</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1215789</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1215795</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1215803</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1215821</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1215819</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1215783</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1217145</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1217160</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1217171</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1217174</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1217165</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1217155</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1222868</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224261</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224270</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224271</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224266</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224263</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224465</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224462</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224283</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224463</t>
+  </si>
+  <si>
+    <t>Антоновка, ул.Студенческая 6Г (Соборная 6Г)</t>
+  </si>
+  <si>
+    <t>Алчевск , улица Ленина 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бердянск,ул Итальянская 55
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стаханов, ул Фестивальная, 61
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красное, Садовая 61 (Кобзаря 3)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Луганск, улица Черноморская 2В
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижние Серогозы, улица Независимости д. 12а
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПГТ Зимогорье , улица Мира(Победы) 8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПГТ Лутугино , ул. Ленина 114а
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Станица Луганская, улица Центральная 24Б
+</t>
+  </si>
+  <si>
+    <t>Краснодон, ул. Титова 5</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +2581,48 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2101,10 +2809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK129"/>
+  <dimension ref="A1:AMK187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4197,6 +4905,818 @@
       </c>
       <c r="D129" s="10" t="s">
         <v>604</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A185" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/map.xlsx
+++ b/map.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dostavka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A412D7B-FA5B-459E-A06B-81C88A710E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD2D2D-45F8-4931-826C-38CC666378C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="942">
   <si>
     <t>широта</t>
   </si>
@@ -2502,13 +2502,367 @@
   </si>
   <si>
     <t>Краснодон, ул. Титова 5</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Ленина 85</t>
+  </si>
+  <si>
+    <t>Торез, м-он 1, торговые ряды в районе супер маркета Кураж</t>
+  </si>
+  <si>
+    <t>г. Красный Луч, 3-й Микрорайон, д.36</t>
+  </si>
+  <si>
+    <t>Донецк, пл. Конституции, д.4</t>
+  </si>
+  <si>
+    <t>Мариуполь, пр. Строителей 154</t>
+  </si>
+  <si>
+    <t>48.042619</t>
+  </si>
+  <si>
+    <t>38.632453</t>
+  </si>
+  <si>
+    <t>48.159418</t>
+  </si>
+  <si>
+    <t>38.935383</t>
+  </si>
+  <si>
+    <t>48.002389</t>
+  </si>
+  <si>
+    <t>37.813280</t>
+  </si>
+  <si>
+    <t>47.118531</t>
+  </si>
+  <si>
+    <t>37.525288</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224455</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229363</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229566</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230244</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230392</t>
+  </si>
+  <si>
+    <t>Донецк, бул. Шевченко, 77</t>
+  </si>
+  <si>
+    <t>Мариуполь, ул. Приазовская 47</t>
+  </si>
+  <si>
+    <t>Торез, ул. Ленина 277</t>
+  </si>
+  <si>
+    <t>Приазовское, Горького, 99</t>
+  </si>
+  <si>
+    <t>Мелитополь, ул. Красноармейская, 3</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Кольцевая 25-1</t>
+  </si>
+  <si>
+    <t>Луганск, улица Чапаева 59А</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Панфилова 118</t>
+  </si>
+  <si>
+    <t>Г. Донецк, ул. Ивана Ткаченко, 121 А</t>
+  </si>
+  <si>
+    <t>Донецк, пр. Ильича 84</t>
+  </si>
+  <si>
+    <t>Мариуполь, ул. Мамина Сибиряка, 47</t>
+  </si>
+  <si>
+    <t>Донецк, Артёма 50а</t>
+  </si>
+  <si>
+    <t>Донецк, Раздольная 34б</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Кронштадская 69</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Репина 24б</t>
+  </si>
+  <si>
+    <t>Мелитополь ул.М.Грушевского 17</t>
+  </si>
+  <si>
+    <t>Бердянск улица Химиков, 13</t>
+  </si>
+  <si>
+    <t>Донецк ул Розы Люксембург 84Б</t>
+  </si>
+  <si>
+    <t>Донецк, Щорсе 2а</t>
+  </si>
+  <si>
+    <t>Мелитополь, улица Чайковского, 44</t>
+  </si>
+  <si>
+    <t>Стаханов, ул Фестивальная, 61</t>
+  </si>
+  <si>
+    <t>Луганск, улица Черноморская 2В</t>
+  </si>
+  <si>
+    <t>Нижние Серогозы, улица Независимости д. 12а</t>
+  </si>
+  <si>
+    <t>ПГТ Лутугино , ул. Ленина 114а</t>
+  </si>
+  <si>
+    <t>Станица Луганская, улица Центральная 24Б</t>
+  </si>
+  <si>
+    <t>Макеевка, Бульвар Горбачева 32-131</t>
+  </si>
+  <si>
+    <t>47.159918</t>
+  </si>
+  <si>
+    <t>37.612335</t>
+  </si>
+  <si>
+    <t>48.011720</t>
+  </si>
+  <si>
+    <t>38.668250</t>
+  </si>
+  <si>
+    <t>46.730521</t>
+  </si>
+  <si>
+    <t>35.643192</t>
+  </si>
+  <si>
+    <t>46.833618</t>
+  </si>
+  <si>
+    <t>35.367239</t>
+  </si>
+  <si>
+    <t>48.069648</t>
+  </si>
+  <si>
+    <t>37.908995</t>
+  </si>
+  <si>
+    <t>48.564196</t>
+  </si>
+  <si>
+    <t>39.276186</t>
+  </si>
+  <si>
+    <t>48.007909</t>
+  </si>
+  <si>
+    <t>37.769091</t>
+  </si>
+  <si>
+    <t>47.978170</t>
+  </si>
+  <si>
+    <t>37.801502</t>
+  </si>
+  <si>
+    <t>48.003370</t>
+  </si>
+  <si>
+    <t>37.858608</t>
+  </si>
+  <si>
+    <t>47.150175</t>
+  </si>
+  <si>
+    <t>37.605894</t>
+  </si>
+  <si>
+    <t>47.993253</t>
+  </si>
+  <si>
+    <t>37.804125</t>
+  </si>
+  <si>
+    <t>47.974376</t>
+  </si>
+  <si>
+    <t>37.914870</t>
+  </si>
+  <si>
+    <t>48.036089</t>
+  </si>
+  <si>
+    <t>37.859363</t>
+  </si>
+  <si>
+    <t>48.015699</t>
+  </si>
+  <si>
+    <t>37.983014</t>
+  </si>
+  <si>
+    <t>46.845460</t>
+  </si>
+  <si>
+    <t>35.381908</t>
+  </si>
+  <si>
+    <t>46.765927</t>
+  </si>
+  <si>
+    <t>36.770991</t>
+  </si>
+  <si>
+    <t>48.020886</t>
+  </si>
+  <si>
+    <t>37.787543</t>
+  </si>
+  <si>
+    <t>47.999378</t>
+  </si>
+  <si>
+    <t>37.795538</t>
+  </si>
+  <si>
+    <t>46.866867</t>
+  </si>
+  <si>
+    <t>35.360959</t>
+  </si>
+  <si>
+    <t>48.469239</t>
+  </si>
+  <si>
+    <t>38.813670</t>
+  </si>
+  <si>
+    <t>48.584530</t>
+  </si>
+  <si>
+    <t>38.668934</t>
+  </si>
+  <si>
+    <t>48.541642</t>
+  </si>
+  <si>
+    <t>39.261426</t>
+  </si>
+  <si>
+    <t>46.850788</t>
+  </si>
+  <si>
+    <t>34.376928</t>
+  </si>
+  <si>
+    <t>48.400351</t>
+  </si>
+  <si>
+    <t>39.198562</t>
+  </si>
+  <si>
+    <t>48.641612</t>
+  </si>
+  <si>
+    <t>39.498734</t>
+  </si>
+  <si>
+    <t>48.289638</t>
+  </si>
+  <si>
+    <t>39.747083</t>
+  </si>
+  <si>
+    <t>48.040450</t>
+  </si>
+  <si>
+    <t>37.963433</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/565133</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/569380</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/569378</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/569389</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/569386</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/569383</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/565085</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/565090</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/620816</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/620809</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/620808</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/620819</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/622517</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/622515</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/624721</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/701428</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/701431</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/701438</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/701445</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224265</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2530,6 +2884,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2539,7 +2900,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2547,12 +2908,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2576,53 +2952,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2809,10 +3147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK187"/>
+  <dimension ref="A1:AMK229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -5717,6 +6055,594 @@
       </c>
       <c r="D187" s="3" t="s">
         <v>812</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D229" s="10" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -5940,6 +6866,43 @@
     <hyperlink ref="D127" r:id="rId217" xr:uid="{8CF15575-84CE-4EF9-8EBA-DA9DF69F479F}"/>
     <hyperlink ref="D128" r:id="rId218" xr:uid="{177D137B-36FD-41E5-B62E-E81D80B58378}"/>
     <hyperlink ref="D129" r:id="rId219" xr:uid="{E896A3FE-B40C-4339-9597-EE52DB5E76FA}"/>
+    <hyperlink ref="D193" r:id="rId220" xr:uid="{BBC9D339-EF3C-478A-84C8-5F91181DF6B2}"/>
+    <hyperlink ref="D194" r:id="rId221" xr:uid="{25F86735-E962-403E-9BB6-36F054CBA0B2}"/>
+    <hyperlink ref="D195" r:id="rId222" xr:uid="{2C51C0A0-5861-4E64-87E3-5753169F33D6}"/>
+    <hyperlink ref="D196" r:id="rId223" xr:uid="{E3F40683-34E5-4CE7-B9AF-7664AE81108E}"/>
+    <hyperlink ref="D197" r:id="rId224" xr:uid="{55149883-E188-43C5-B40D-5E15FAA77E21}"/>
+    <hyperlink ref="D198" r:id="rId225" xr:uid="{EEB94B2F-2214-470F-A94A-6AB55B1E2497}"/>
+    <hyperlink ref="D199" r:id="rId226" xr:uid="{FA9F961D-7E25-4F7E-B6D4-87B07E4AB551}"/>
+    <hyperlink ref="D200" r:id="rId227" xr:uid="{E2B64A28-5A8F-400F-BA8A-B107059342A8}"/>
+    <hyperlink ref="D201" r:id="rId228" xr:uid="{728ADC62-8073-4634-868A-9E78A927CE5C}"/>
+    <hyperlink ref="D202" r:id="rId229" xr:uid="{EB81FDEA-0B0D-4C03-8495-B98DE1316391}"/>
+    <hyperlink ref="D203" r:id="rId230" xr:uid="{70300743-BFB2-4F7C-9357-60B012DA9151}"/>
+    <hyperlink ref="D204" r:id="rId231" xr:uid="{39C4EC30-2CC3-4A66-801F-7850FD943DB0}"/>
+    <hyperlink ref="D205" r:id="rId232" xr:uid="{D187415A-96E1-4B95-8099-84822FA8A6CC}"/>
+    <hyperlink ref="D206" r:id="rId233" xr:uid="{F413F0AC-396C-47AE-BD48-0F842E8EAB60}"/>
+    <hyperlink ref="D207" r:id="rId234" xr:uid="{5A8A942B-A743-4FA0-B895-7B9246E102C7}"/>
+    <hyperlink ref="D208" r:id="rId235" xr:uid="{3A0F935C-E9F9-472B-BA2A-F95CBC19464B}"/>
+    <hyperlink ref="D209" r:id="rId236" xr:uid="{809BB884-8DEE-4F94-8498-7EFA967B2B19}"/>
+    <hyperlink ref="D210" r:id="rId237" xr:uid="{4018E302-7F8D-4859-82B5-F336A01336B5}"/>
+    <hyperlink ref="D211" r:id="rId238" xr:uid="{25A88E6E-8433-492D-AAC3-0AC061A23294}"/>
+    <hyperlink ref="D212" r:id="rId239" xr:uid="{70BEB403-AAEF-463A-8EA3-719CD3004786}"/>
+    <hyperlink ref="D213" r:id="rId240" xr:uid="{DC0FEF17-32F4-46F4-8790-62F61F259DA3}"/>
+    <hyperlink ref="D214" r:id="rId241" xr:uid="{59DEBE45-8351-4127-9F93-119D114F8E19}"/>
+    <hyperlink ref="D215" r:id="rId242" xr:uid="{A56BA95C-2547-44BB-86CC-A8BEF8D9884B}"/>
+    <hyperlink ref="D216" r:id="rId243" xr:uid="{E840A238-B60D-46AD-A413-193C94F38B8E}"/>
+    <hyperlink ref="D217" r:id="rId244" xr:uid="{D04468D8-8885-4970-AB5C-5CE904D0321F}"/>
+    <hyperlink ref="D218" r:id="rId245" xr:uid="{6643FA9D-9B37-4929-94A7-F997BB598422}"/>
+    <hyperlink ref="D219" r:id="rId246" xr:uid="{F2047D26-5326-4CAE-AE0A-BCFAE7688C6D}"/>
+    <hyperlink ref="D220" r:id="rId247" xr:uid="{1F0C35E5-7792-4166-88E3-DD68EF9AD32E}"/>
+    <hyperlink ref="D221" r:id="rId248" xr:uid="{6D91BC07-DA69-44EA-A6D4-1C9D7CE67DBF}"/>
+    <hyperlink ref="D222" r:id="rId249" xr:uid="{18519871-3540-4F68-AC4A-780291B29600}"/>
+    <hyperlink ref="D223" r:id="rId250" xr:uid="{5FF7EBC9-BAD3-405B-B056-2BB892CABFD4}"/>
+    <hyperlink ref="D224" r:id="rId251" xr:uid="{637C4239-0119-4E7A-ABF8-72E24B5C225F}"/>
+    <hyperlink ref="D225" r:id="rId252" xr:uid="{DD94C1B5-A808-460E-A185-B21339A890F8}"/>
+    <hyperlink ref="D226" r:id="rId253" xr:uid="{ECC44739-79B3-4692-BA0E-D82217CFC05A}"/>
+    <hyperlink ref="D227" r:id="rId254" xr:uid="{29925296-00A1-4FA3-9C89-171BEBFFD862}"/>
+    <hyperlink ref="D228" r:id="rId255" xr:uid="{82A8D8F4-A8D5-4413-8E6D-1FC3718B4F34}"/>
+    <hyperlink ref="D229" r:id="rId256" xr:uid="{EB66FBCA-BE76-4E42-AE7A-BAECE50CF050}"/>
   </hyperlinks>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/map.xlsx
+++ b/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dostavka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD2D2D-45F8-4931-826C-38CC666378C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A780AFB9-A6BB-4B42-886C-2E3ECAFE85D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3528" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="1006">
   <si>
     <t>широта</t>
   </si>
@@ -2856,6 +2856,198 @@
   </si>
   <si>
     <t>https://ozon.ru/point/1224265</t>
+  </si>
+  <si>
+    <t>48.038182</t>
+  </si>
+  <si>
+    <t>38.155744</t>
+  </si>
+  <si>
+    <t>48.0010838</t>
+  </si>
+  <si>
+    <t>37.8417739</t>
+  </si>
+  <si>
+    <t>47.992637</t>
+  </si>
+  <si>
+    <t>37.806416</t>
+  </si>
+  <si>
+    <t>46.791063</t>
+  </si>
+  <si>
+    <t>36.732031</t>
+  </si>
+  <si>
+    <t>47.980486</t>
+  </si>
+  <si>
+    <t>37.920942</t>
+  </si>
+  <si>
+    <t>47.207064</t>
+  </si>
+  <si>
+    <t>35.599247</t>
+  </si>
+  <si>
+    <t>46.374027</t>
+  </si>
+  <si>
+    <t>35.369547</t>
+  </si>
+  <si>
+    <t>46.760020</t>
+  </si>
+  <si>
+    <t>36.790673</t>
+  </si>
+  <si>
+    <t>47.097330</t>
+  </si>
+  <si>
+    <t>36.582303</t>
+  </si>
+  <si>
+    <t>48.539614</t>
+  </si>
+  <si>
+    <t>39.276602</t>
+  </si>
+  <si>
+    <t>48.580912</t>
+  </si>
+  <si>
+    <t>39.397207</t>
+  </si>
+  <si>
+    <t>48.222711</t>
+  </si>
+  <si>
+    <t>38.207189</t>
+  </si>
+  <si>
+    <t>47.955685</t>
+  </si>
+  <si>
+    <t>37.966101</t>
+  </si>
+  <si>
+    <t>48.008719</t>
+  </si>
+  <si>
+    <t>37.742315</t>
+  </si>
+  <si>
+    <t>48.318125</t>
+  </si>
+  <si>
+    <t>37.970291</t>
+  </si>
+  <si>
+    <t>46.872542</t>
+  </si>
+  <si>
+    <t>35.374255</t>
+  </si>
+  <si>
+    <t>Харцызск, ул. Краснознаменская, 59Б ( ТК Триумф)</t>
+  </si>
+  <si>
+    <t>Донецк, Ильича 91</t>
+  </si>
+  <si>
+    <t>Донецк, Горького 66</t>
+  </si>
+  <si>
+    <t>Бердянск, Мелитопольское шоссе, 114 В</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Щетинина, д. 23</t>
+  </si>
+  <si>
+    <t>Молочанск, ул. Вокзальная, д. 40</t>
+  </si>
+  <si>
+    <t>Пгт. Кирилловка, ул. Центральная, д. 28</t>
+  </si>
+  <si>
+    <t>Бердянск, Азовский 7</t>
+  </si>
+  <si>
+    <t>пгт. Андреевка, пр-т Труда 23</t>
+  </si>
+  <si>
+    <t>г. Луганск, ул. Щербакова, 7В</t>
+  </si>
+  <si>
+    <t>г. Луганск, квартал Норинского, д. 1</t>
+  </si>
+  <si>
+    <t>г. Енакиево, ул. Ленина, д. 99</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Палладина, 22</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. 60-летия СССР, 24а</t>
+  </si>
+  <si>
+    <t>г. Горловка, ул. Жукова, д. 6</t>
+  </si>
+  <si>
+    <t>Мелитополь, б-р 30-летия Победы, д. 40</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224268</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224278</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224277</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229374</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229358</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229354</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229563</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230234</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230241</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230966</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230957</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230960</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230956</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230959</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230954</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230955</t>
   </si>
 </sst>
 </file>
@@ -3147,10 +3339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK229"/>
+  <dimension ref="A1:AMK245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D230" sqref="D230:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -6015,7 +6207,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
         <v>730</v>
       </c>
@@ -6643,6 +6835,230 @@
       </c>
       <c r="D229" s="10" t="s">
         <v>807</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="D232" s="10" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -6903,6 +7319,22 @@
     <hyperlink ref="D227" r:id="rId254" xr:uid="{29925296-00A1-4FA3-9C89-171BEBFFD862}"/>
     <hyperlink ref="D228" r:id="rId255" xr:uid="{82A8D8F4-A8D5-4413-8E6D-1FC3718B4F34}"/>
     <hyperlink ref="D229" r:id="rId256" xr:uid="{EB66FBCA-BE76-4E42-AE7A-BAECE50CF050}"/>
+    <hyperlink ref="D230" r:id="rId257" xr:uid="{A351CFAA-E2A3-4078-9EE4-4097268938CE}"/>
+    <hyperlink ref="D231" r:id="rId258" xr:uid="{4F62FB53-9C5F-4251-ADE9-6038E733BD9D}"/>
+    <hyperlink ref="D232" r:id="rId259" xr:uid="{95D717C8-D0A8-41A8-9659-A1DE808328AC}"/>
+    <hyperlink ref="D233" r:id="rId260" xr:uid="{D642B4DB-B367-409B-97D4-AD4185959D88}"/>
+    <hyperlink ref="D234" r:id="rId261" xr:uid="{51B2EDC6-3F46-482B-BF16-B28E23E86372}"/>
+    <hyperlink ref="D235" r:id="rId262" xr:uid="{E300F9B5-8D14-4D44-9514-59A1ED5AFE7B}"/>
+    <hyperlink ref="D236" r:id="rId263" xr:uid="{6FD96891-B11B-4BA8-B590-669C048990ED}"/>
+    <hyperlink ref="D237" r:id="rId264" xr:uid="{F2C90812-0FE8-4D18-95EE-0C8EE59252EF}"/>
+    <hyperlink ref="D238" r:id="rId265" xr:uid="{0A4B3237-8F0F-4C8A-A96B-F469918F5815}"/>
+    <hyperlink ref="D239" r:id="rId266" xr:uid="{36B0AB64-5BFE-485D-A411-3664007D860B}"/>
+    <hyperlink ref="D240" r:id="rId267" xr:uid="{74ED5435-F0DD-4B25-9C68-3B7B3D392E59}"/>
+    <hyperlink ref="D241" r:id="rId268" xr:uid="{63556D66-B13F-4A37-B6CA-0E0681FFD19D}"/>
+    <hyperlink ref="D242" r:id="rId269" xr:uid="{BA6C7150-956F-42A3-90B1-5435BAFB2314}"/>
+    <hyperlink ref="D243" r:id="rId270" xr:uid="{9C9CB447-513E-418C-9092-D9558BE8391B}"/>
+    <hyperlink ref="D244" r:id="rId271" xr:uid="{BA6C3345-C281-4756-877A-48A93335F2A4}"/>
+    <hyperlink ref="D245" r:id="rId272" xr:uid="{1A13F42C-C65C-40D6-8FD4-8E342F3CFBCC}"/>
   </hyperlinks>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/map.xlsx
+++ b/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dostavka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dostavka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A780AFB9-A6BB-4B42-886C-2E3ECAFE85D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01411D9-1517-4146-8484-B643242E854E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1538">
   <si>
     <t>широта</t>
   </si>
@@ -3048,13 +3048,1609 @@
   </si>
   <si>
     <t>https://ozon.ru/point/1230955</t>
+  </si>
+  <si>
+    <t>Донецк, улица Куйбышева, 246 А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ждановка, рынок </t>
+  </si>
+  <si>
+    <t>г. Донецк, Щетинина 23а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пгт Ирмино, ул. Кириченко, д. 17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Мариуполь, ул. Михаила Грушевского, 15А </t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Щорса, 38</t>
+  </si>
+  <si>
+    <t>Ровеньки, квартал Шахтерский, д. 4</t>
+  </si>
+  <si>
+    <t>Пгт. Петровское , ул. Ленина, д. 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с. Ботиево, Тараса Шевченко, 59 </t>
+  </si>
+  <si>
+    <t>пос. Мирный, Варшавская 26</t>
+  </si>
+  <si>
+    <t>пгт. Приазовское, ул. Горького, 101</t>
+  </si>
+  <si>
+    <t>пгт. Нововасильевка, ул. Кооперативная, 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> пгт. Веселое ул. Пушкина, 29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> пгт. Веселое ул. Московская улица, 21 </t>
+  </si>
+  <si>
+    <t>пгт. Акимовка, ул. Ленина, 54</t>
+  </si>
+  <si>
+    <t>г. Шахтерск, улица 50-летия СССР, 16</t>
+  </si>
+  <si>
+    <t>г. Мелитополь, ул. Фрунзе, 264</t>
+  </si>
+  <si>
+    <t>г. Мелитополь, проспект Богдана Хмельницкого, 15</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, ул. Азовстальская, 57</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, Левый берег, Владимирская 23/53</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, бул. Шевченко, 295а</t>
+  </si>
+  <si>
+    <t>г. Макеевка, проспект 250-летия Донбасса, 2</t>
+  </si>
+  <si>
+    <t>пгт. Мирное, ул. Олексенка (Победы), 14</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. 60-летия СССР, 32</t>
+  </si>
+  <si>
+    <t>г. Бердянск, ул. Мазина, 19а</t>
+  </si>
+  <si>
+    <t>с. Вознесенка, ул. Мира, 205</t>
+  </si>
+  <si>
+    <t>Снежное, ул. Советская, д. 73</t>
+  </si>
+  <si>
+    <t>Макеевка, мкрн Калининсий, д. 4 пом. 148а</t>
+  </si>
+  <si>
+    <t>Мариуполь, Пашковского 14</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, ул. Олимпийская, 175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с. Новое (Новый), ул. Продольная, 1в </t>
+  </si>
+  <si>
+    <t>г. Донецк, пр-кт Павших Коммунаров, 96</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Актюбинская, 5а</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Артема, 41</t>
+  </si>
+  <si>
+    <t>г. Кировское, ул. Донецкая, 4</t>
+  </si>
+  <si>
+    <t>г. Скадовск, ул. Гуманенко 10</t>
+  </si>
+  <si>
+    <t>г. Харцызск, ул. Маяковского, 44</t>
+  </si>
+  <si>
+    <t>г. Шахтерск, ул. Крупской, 4г</t>
+  </si>
+  <si>
+    <t>г.Горловка,ул.Ленина, 197</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Суходольская, д.6</t>
+  </si>
+  <si>
+    <t>Луганск, кв. Заречный. д,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Луганск, кв. Молодежный, д.6 </t>
+  </si>
+  <si>
+    <t>Луганск, ул. Почтовая, д.22</t>
+  </si>
+  <si>
+    <t>пгт Брилевка ул. Мелиораторов, 7</t>
+  </si>
+  <si>
+    <t>пгт Лазурное, ул. Металлургов, 8</t>
+  </si>
+  <si>
+    <t>пгт Новониколаевка, ул. Мира, 11</t>
+  </si>
+  <si>
+    <t>пгт. Кирилловка ул. Центральная, 2</t>
+  </si>
+  <si>
+    <t>с. Виноградово ул. Ларионова, 3а</t>
+  </si>
+  <si>
+    <t>с. Шелюги ул. Зои Космодемьянской, 13</t>
+  </si>
+  <si>
+    <t>с. Широкое, ул. Ладычука, 29</t>
+  </si>
+  <si>
+    <t>с.Новобогдановка, ул.Шевченко, 33</t>
+  </si>
+  <si>
+    <t>с.Терпение ул. Таврическая, 16</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Степана Щипачева 33</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, ул. Нахимова, 204</t>
+  </si>
+  <si>
+    <t>г. Антрацит, ул. Коммунальная 37 а</t>
+  </si>
+  <si>
+    <t>г. Волноваха, ул. Ленина, д. 64</t>
+  </si>
+  <si>
+    <t>г. Горловка, ул. Бессонова 13</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Куйбышева, 252</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Майская, 18Б</t>
+  </si>
+  <si>
+    <t>г. Кировское, микрорайон Молодежный, 9</t>
+  </si>
+  <si>
+    <t>Макеевка, Ул.Менделеева,31</t>
+  </si>
+  <si>
+    <t>г. Макеевка, ул. Коккинаки, 60</t>
+  </si>
+  <si>
+    <t>г. Мелитополь, ул. Гоголя, 103</t>
+  </si>
+  <si>
+    <t>г. Мелитополь, ул. Ивана Алексеева 10А</t>
+  </si>
+  <si>
+    <t>г. Мелитополь, ул. Шмидта, 66</t>
+  </si>
+  <si>
+    <t>г. Харцызск, микрорайон Юбилейный, 10</t>
+  </si>
+  <si>
+    <t>г.Алмазная, ул Серго, 2А</t>
+  </si>
+  <si>
+    <t>г.Первомайск, ул Кима, 20</t>
+  </si>
+  <si>
+    <t>пгт Еленовка ул. Ленина, 7</t>
+  </si>
+  <si>
+    <t>пгт Ялта, Мангушский р-н, ул.Матросова, д. 30</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Днепродзержинская, 5</t>
+  </si>
+  <si>
+    <t>с. Зеленовка, ул. Итальянская, 102А</t>
+  </si>
+  <si>
+    <t>пгт. Черниговка Соборная улица, 441</t>
+  </si>
+  <si>
+    <t>пгт Успенка ул. Советская 99</t>
+  </si>
+  <si>
+    <t>пгт. Мангуш, ул. Мира 107</t>
+  </si>
+  <si>
+    <t>г. Мариуполь,пр. Никопольский (бывший пр.Ильича), 50</t>
+  </si>
+  <si>
+    <t>г. Амвросиевка ул. Артема, 3</t>
+  </si>
+  <si>
+    <t>г. Бердянск, ул. Верещагина, 12</t>
+  </si>
+  <si>
+    <t>г. Мариуполь ул. Белякова, 24</t>
+  </si>
+  <si>
+    <t>г. Перевальск ул. Ленина, 34</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, ул. Нахимова, 190</t>
+  </si>
+  <si>
+    <t>г. Шахтерск, ул. Герцена, 7</t>
+  </si>
+  <si>
+    <t>г. Ясиноватая, ул. Ленинградская, 15</t>
+  </si>
+  <si>
+    <t>Зугрэс-2 , ул. 60 лет Октября, дом 13а, 70кв</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Прожекторная, 1А</t>
+  </si>
+  <si>
+    <t>г Старобельск, ул. Октябрьская( Гимнастическая), 49</t>
+  </si>
+  <si>
+    <t>г. Старобельск, ул. Пролетарская (Мира), 6</t>
+  </si>
+  <si>
+    <t>г. Луганск, ул.Кирова,50Г</t>
+  </si>
+  <si>
+    <t>г. Антрацит, ул. 9 мая 2а</t>
+  </si>
+  <si>
+    <t>г. Бердянск, ул. Лютеранская, 36</t>
+  </si>
+  <si>
+    <t>г. Луганск, кв. Обороны Луганска 3</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Бессарабская, 19</t>
+  </si>
+  <si>
+    <t>г. Луганск, улица 50-летия образования СССР, 22А</t>
+  </si>
+  <si>
+    <t>г. Макеевка, ул. Героев Сталинграда, 19</t>
+  </si>
+  <si>
+    <t>г. Макеевка, ул. Клубная,7</t>
+  </si>
+  <si>
+    <t>г. Макеевка, ул. Монтажная, 48/11</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, квартал Азовье, 1</t>
+  </si>
+  <si>
+    <t>г. Торез, пр-кт Гагарина 25</t>
+  </si>
+  <si>
+    <t>г. Торез, ул. Ильича 22</t>
+  </si>
+  <si>
+    <t>Пгт. Беловодск, Политотделовская 48</t>
+  </si>
+  <si>
+    <t>г. Ровеньки, Ленина 19</t>
+  </si>
+  <si>
+    <t>Горловка, ул. Уманская 33</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Очаковская,24</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Петровского 26а</t>
+  </si>
+  <si>
+    <t>Енакиево, ул. Магистральная 12</t>
+  </si>
+  <si>
+    <t>Харцызск, ул. Адамца 52</t>
+  </si>
+  <si>
+    <t>г. Геническ, ул. Вокзальная 9</t>
+  </si>
+  <si>
+    <t>Мелитополь, ул. Молодежная, 60</t>
+  </si>
+  <si>
+    <t>Бердянск, Софиевская улица, 40</t>
+  </si>
+  <si>
+    <t>пгт Булавинское ул. Октябрьская 53, 47</t>
+  </si>
+  <si>
+    <t>Горловка, ул. Битумная 8</t>
+  </si>
+  <si>
+    <t>Донецк, ул.Шутова, 12/1</t>
+  </si>
+  <si>
+    <t>Харцызск, ул. Патона 7</t>
+  </si>
+  <si>
+    <t>Геническая городская община, село Стрелковое, улица Центральная 105б</t>
+  </si>
+  <si>
+    <t>г. Алчевск, ул. Чапаева, 45</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Лавренева, 31</t>
+  </si>
+  <si>
+    <t>г. Макеевка, ул. Николаева, 14</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Панфилова 21</t>
+  </si>
+  <si>
+    <t>Шахтёрск, ул. Вентиляционная 51</t>
+  </si>
+  <si>
+    <t>пгт Старобешево ул. Советская, 49Б</t>
+  </si>
+  <si>
+    <t>Мелитополь, ул. Довженко, д. 3</t>
+  </si>
+  <si>
+    <t>с. Малая Белозерка, ул. Первомайская</t>
+  </si>
+  <si>
+    <t>пгт. Тельманово, пер. Мира 9, кв32</t>
+  </si>
+  <si>
+    <t>Алчевск, пр. Металлургов, 41</t>
+  </si>
+  <si>
+    <t>Александровск, ул. Красная Площадь, 10</t>
+  </si>
+  <si>
+    <t>Луганск, кв. Луганский, д.12, кв. 4</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Артема, 183</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Ульянова, 34</t>
+  </si>
+  <si>
+    <t>Луганск, пгт Юбилейный, ул. Артема, 3</t>
+  </si>
+  <si>
+    <t>Луганск, пос. Тельмана, ул. Успенская, д. 66А</t>
+  </si>
+  <si>
+    <t>Счастье ул. Донецкая, 105</t>
+  </si>
+  <si>
+    <t>Счастье, ул. Донецкая, 30</t>
+  </si>
+  <si>
+    <t>пгт Новоайдар ул. Кирова, 2</t>
+  </si>
+  <si>
+    <t>пгт. Белое, ул. Ленина, 1Г</t>
+  </si>
+  <si>
+    <t>Геническая городская община, пгт Новоалексеевка, ул. Дружбы Народов, 22А</t>
+  </si>
+  <si>
+    <t>48.036883</t>
+  </si>
+  <si>
+    <t>37.7467960</t>
+  </si>
+  <si>
+    <t>48.155027</t>
+  </si>
+  <si>
+    <t>38.253381</t>
+  </si>
+  <si>
+    <t>48.601837</t>
+  </si>
+  <si>
+    <t>38.589403</t>
+  </si>
+  <si>
+    <t>47.120591</t>
+  </si>
+  <si>
+    <t>37.513979</t>
+  </si>
+  <si>
+    <t>48.011411</t>
+  </si>
+  <si>
+    <t>37.795304</t>
+  </si>
+  <si>
+    <t>48.070611</t>
+  </si>
+  <si>
+    <t>39.402336</t>
+  </si>
+  <si>
+    <t>48.291895</t>
+  </si>
+  <si>
+    <t>38.878148</t>
+  </si>
+  <si>
+    <t>46.682061</t>
+  </si>
+  <si>
+    <t>35.841576</t>
+  </si>
+  <si>
+    <t>47.172256</t>
+  </si>
+  <si>
+    <t>37.577651</t>
+  </si>
+  <si>
+    <t>46.730484</t>
+  </si>
+  <si>
+    <t>35.643785</t>
+  </si>
+  <si>
+    <t>46.849953</t>
+  </si>
+  <si>
+    <t>36.782427</t>
+  </si>
+  <si>
+    <t>47.011278</t>
+  </si>
+  <si>
+    <t>34.921980</t>
+  </si>
+  <si>
+    <t>47.021323</t>
+  </si>
+  <si>
+    <t>34.933459</t>
+  </si>
+  <si>
+    <t>46.700870</t>
+  </si>
+  <si>
+    <t>35.160438</t>
+  </si>
+  <si>
+    <t>48.037944</t>
+  </si>
+  <si>
+    <t>38.482848</t>
+  </si>
+  <si>
+    <t>46.867638</t>
+  </si>
+  <si>
+    <t>35.358480</t>
+  </si>
+  <si>
+    <t>46.844116</t>
+  </si>
+  <si>
+    <t>35.373383</t>
+  </si>
+  <si>
+    <t>47.101021</t>
+  </si>
+  <si>
+    <t>37.645097</t>
+  </si>
+  <si>
+    <t>47.106443</t>
+  </si>
+  <si>
+    <t>37.640947</t>
+  </si>
+  <si>
+    <t>47.11728</t>
+  </si>
+  <si>
+    <t>37.521381</t>
+  </si>
+  <si>
+    <t>48.037660</t>
+  </si>
+  <si>
+    <t>37.961578</t>
+  </si>
+  <si>
+    <t>46.950531</t>
+  </si>
+  <si>
+    <t>35.440442</t>
+  </si>
+  <si>
+    <t>46.749913</t>
+  </si>
+  <si>
+    <t>36.793934</t>
+  </si>
+  <si>
+    <t>46.865253</t>
+  </si>
+  <si>
+    <t>35.455507</t>
+  </si>
+  <si>
+    <t>48.043065</t>
+  </si>
+  <si>
+    <t>38.762637</t>
+  </si>
+  <si>
+    <t>48.032203</t>
+  </si>
+  <si>
+    <t>37.886393</t>
+  </si>
+  <si>
+    <t>47.109314</t>
+  </si>
+  <si>
+    <t>37.637695</t>
+  </si>
+  <si>
+    <t>47.123240</t>
+  </si>
+  <si>
+    <t>37.681182</t>
+  </si>
+  <si>
+    <t>46.782363</t>
+  </si>
+  <si>
+    <t>35.279446</t>
+  </si>
+  <si>
+    <t>47.991413</t>
+  </si>
+  <si>
+    <t>37.833752</t>
+  </si>
+  <si>
+    <t>47.957031</t>
+  </si>
+  <si>
+    <t>37.779979</t>
+  </si>
+  <si>
+    <t>47.990069</t>
+  </si>
+  <si>
+    <t>37.805042</t>
+  </si>
+  <si>
+    <t>48.148707</t>
+  </si>
+  <si>
+    <t>38.363111</t>
+  </si>
+  <si>
+    <t>46.113745</t>
+  </si>
+  <si>
+    <t>32.936353</t>
+  </si>
+  <si>
+    <t>48.051817</t>
+  </si>
+  <si>
+    <t>38.140291</t>
+  </si>
+  <si>
+    <t>48.043743</t>
+  </si>
+  <si>
+    <t>38.483689</t>
+  </si>
+  <si>
+    <t>48.3122018</t>
+  </si>
+  <si>
+    <t>37.9884592</t>
+  </si>
+  <si>
+    <t>48.586408</t>
+  </si>
+  <si>
+    <t>39.397557</t>
+  </si>
+  <si>
+    <t>48.528839</t>
+  </si>
+  <si>
+    <t>39.269089</t>
+  </si>
+  <si>
+    <t>48.570987</t>
+  </si>
+  <si>
+    <t>39.374857</t>
+  </si>
+  <si>
+    <t>48.577992</t>
+  </si>
+  <si>
+    <t>39.302228</t>
+  </si>
+  <si>
+    <t>46.419815</t>
+  </si>
+  <si>
+    <t>33.143345</t>
+  </si>
+  <si>
+    <t>46.080873</t>
+  </si>
+  <si>
+    <t>32.520118</t>
+  </si>
+  <si>
+    <t>46.229215</t>
+  </si>
+  <si>
+    <t>32.733762</t>
+  </si>
+  <si>
+    <t>46.372125</t>
+  </si>
+  <si>
+    <t>35.370724</t>
+  </si>
+  <si>
+    <t>46.370452</t>
+  </si>
+  <si>
+    <t>32.936191</t>
+  </si>
+  <si>
+    <t>46.555537</t>
+  </si>
+  <si>
+    <t>35.239822</t>
+  </si>
+  <si>
+    <t>46.199600</t>
+  </si>
+  <si>
+    <t>32.905954</t>
+  </si>
+  <si>
+    <t>47.081002</t>
+  </si>
+  <si>
+    <t>35.316690</t>
+  </si>
+  <si>
+    <t>46.974129</t>
+  </si>
+  <si>
+    <t>35.426977</t>
+  </si>
+  <si>
+    <t>47.941913</t>
+  </si>
+  <si>
+    <t>37.601412</t>
+  </si>
+  <si>
+    <t>47.095678</t>
+  </si>
+  <si>
+    <t>37.538260</t>
+  </si>
+  <si>
+    <t>48.105959</t>
+  </si>
+  <si>
+    <t>39.086758</t>
+  </si>
+  <si>
+    <t>47.599271</t>
+  </si>
+  <si>
+    <t>37.495425</t>
+  </si>
+  <si>
+    <t>48.334883</t>
+  </si>
+  <si>
+    <t>38.064113</t>
+  </si>
+  <si>
+    <t>48.038149</t>
+  </si>
+  <si>
+    <t>37.747280</t>
+  </si>
+  <si>
+    <t>47.978007</t>
+  </si>
+  <si>
+    <t>37.855374</t>
+  </si>
+  <si>
+    <t>48.157658</t>
+  </si>
+  <si>
+    <t>38.356194</t>
+  </si>
+  <si>
+    <t>48.057063</t>
+  </si>
+  <si>
+    <t>37.969227</t>
+  </si>
+  <si>
+    <t>48.071797</t>
+  </si>
+  <si>
+    <t>37.905976</t>
+  </si>
+  <si>
+    <t>46.862009</t>
+  </si>
+  <si>
+    <t>35.376075</t>
+  </si>
+  <si>
+    <t>46.835449</t>
+  </si>
+  <si>
+    <t>35.362756</t>
+  </si>
+  <si>
+    <t>46.838809</t>
+  </si>
+  <si>
+    <t>35.353566</t>
+  </si>
+  <si>
+    <t>48.055413</t>
+  </si>
+  <si>
+    <t>38.138074</t>
+  </si>
+  <si>
+    <t>48.521710</t>
+  </si>
+  <si>
+    <t>38.580980</t>
+  </si>
+  <si>
+    <t>48.628686</t>
+  </si>
+  <si>
+    <t>38.523389</t>
+  </si>
+  <si>
+    <t>47.833304</t>
+  </si>
+  <si>
+    <t>37.652912</t>
+  </si>
+  <si>
+    <t>46.943358</t>
+  </si>
+  <si>
+    <t>37.282501</t>
+  </si>
+  <si>
+    <t>47.966956</t>
+  </si>
+  <si>
+    <t>37.777041</t>
+  </si>
+  <si>
+    <t>46.970761</t>
+  </si>
+  <si>
+    <t>36.225971</t>
+  </si>
+  <si>
+    <t>47.187373</t>
+  </si>
+  <si>
+    <t>36.230897</t>
+  </si>
+  <si>
+    <t>48.390504</t>
+  </si>
+  <si>
+    <t>39.163914</t>
+  </si>
+  <si>
+    <t>47.055045</t>
+  </si>
+  <si>
+    <t>37.319035</t>
+  </si>
+  <si>
+    <t>47.135857</t>
+  </si>
+  <si>
+    <t>37.590479</t>
+  </si>
+  <si>
+    <t>47.801278</t>
+  </si>
+  <si>
+    <t>38.473667</t>
+  </si>
+  <si>
+    <t>46.789835</t>
+  </si>
+  <si>
+    <t>36.728851</t>
+  </si>
+  <si>
+    <t>47.157988</t>
+  </si>
+  <si>
+    <t>37.575504</t>
+  </si>
+  <si>
+    <t>48.435400</t>
+  </si>
+  <si>
+    <t>38.808738</t>
+  </si>
+  <si>
+    <t>47.092770</t>
+  </si>
+  <si>
+    <t>37.532646</t>
+  </si>
+  <si>
+    <t>48.043209</t>
+  </si>
+  <si>
+    <t>38.437743</t>
+  </si>
+  <si>
+    <t>48.129610</t>
+  </si>
+  <si>
+    <t>37.885100</t>
+  </si>
+  <si>
+    <t>48.019271</t>
+  </si>
+  <si>
+    <t>38.297022</t>
+  </si>
+  <si>
+    <t>47.976342</t>
+  </si>
+  <si>
+    <t>37.910729</t>
+  </si>
+  <si>
+    <t>49.280315</t>
+  </si>
+  <si>
+    <t>38.902945</t>
+  </si>
+  <si>
+    <t>49.282972</t>
+  </si>
+  <si>
+    <t>38.898759</t>
+  </si>
+  <si>
+    <t>48.572799</t>
+  </si>
+  <si>
+    <t>39.281971</t>
+  </si>
+  <si>
+    <t>48.108113</t>
+  </si>
+  <si>
+    <t>39.094430</t>
+  </si>
+  <si>
+    <t>46.751586</t>
+  </si>
+  <si>
+    <t>36.795299</t>
+  </si>
+  <si>
+    <t>48.514105</t>
+  </si>
+  <si>
+    <t>39.358714</t>
+  </si>
+  <si>
+    <t>47.981234</t>
+  </si>
+  <si>
+    <t>37.850371</t>
+  </si>
+  <si>
+    <t>48.568209</t>
+  </si>
+  <si>
+    <t>39.323725</t>
+  </si>
+  <si>
+    <t>48.067402</t>
+  </si>
+  <si>
+    <t>37.898197</t>
+  </si>
+  <si>
+    <t>48.018740</t>
+  </si>
+  <si>
+    <t>37.900533</t>
+  </si>
+  <si>
+    <t>48.085065</t>
+  </si>
+  <si>
+    <t>37.983923</t>
+  </si>
+  <si>
+    <t>47.065629</t>
+  </si>
+  <si>
+    <t>37.479151</t>
+  </si>
+  <si>
+    <t>48.023971</t>
+  </si>
+  <si>
+    <t>38.616131</t>
+  </si>
+  <si>
+    <t>48.023043</t>
+  </si>
+  <si>
+    <t>38.628042</t>
+  </si>
+  <si>
+    <t>49.218944</t>
+  </si>
+  <si>
+    <t>39.594881</t>
+  </si>
+  <si>
+    <t>48.089404</t>
+  </si>
+  <si>
+    <t>39.368371</t>
+  </si>
+  <si>
+    <t>48.317028</t>
+  </si>
+  <si>
+    <t>38.039394</t>
+  </si>
+  <si>
+    <t>48.042083</t>
+  </si>
+  <si>
+    <t>37.793669</t>
+  </si>
+  <si>
+    <t>47.958358</t>
+  </si>
+  <si>
+    <t>37.727921</t>
+  </si>
+  <si>
+    <t>48.2713716</t>
+  </si>
+  <si>
+    <t>38.144084</t>
+  </si>
+  <si>
+    <t>48.041691</t>
+  </si>
+  <si>
+    <t>38.159715</t>
+  </si>
+  <si>
+    <t>46.165513</t>
+  </si>
+  <si>
+    <t>34.810337</t>
+  </si>
+  <si>
+    <t>46.851875</t>
+  </si>
+  <si>
+    <t>35.328494</t>
+  </si>
+  <si>
+    <t>46.770026</t>
+  </si>
+  <si>
+    <t>36.790592</t>
+  </si>
+  <si>
+    <t>48.255078</t>
+  </si>
+  <si>
+    <t>38.333593</t>
+  </si>
+  <si>
+    <t>48.299027</t>
+  </si>
+  <si>
+    <t>38.193177</t>
+  </si>
+  <si>
+    <t>47.944296</t>
+  </si>
+  <si>
+    <t>37.769912</t>
+  </si>
+  <si>
+    <t>48.041023</t>
+  </si>
+  <si>
+    <t>38.127160</t>
+  </si>
+  <si>
+    <t>45.901119</t>
+  </si>
+  <si>
+    <t>34.875316</t>
+  </si>
+  <si>
+    <t>48.466228</t>
+  </si>
+  <si>
+    <t>38.806681</t>
+  </si>
+  <si>
+    <t>48.044143</t>
+  </si>
+  <si>
+    <t>37.795798</t>
+  </si>
+  <si>
+    <t>48.026767</t>
+  </si>
+  <si>
+    <t>37.931821</t>
+  </si>
+  <si>
+    <t>47.088482</t>
+  </si>
+  <si>
+    <t>37.520788</t>
+  </si>
+  <si>
+    <t>48.083547</t>
+  </si>
+  <si>
+    <t>38.422227</t>
+  </si>
+  <si>
+    <t>47.752970</t>
+  </si>
+  <si>
+    <t>38.036079</t>
+  </si>
+  <si>
+    <t>46.857588</t>
+  </si>
+  <si>
+    <t>35.393937</t>
+  </si>
+  <si>
+    <t>47.244101</t>
+  </si>
+  <si>
+    <t>34.930025</t>
+  </si>
+  <si>
+    <t>47.415169</t>
+  </si>
+  <si>
+    <t>38.015680</t>
+  </si>
+  <si>
+    <t>48.470846</t>
+  </si>
+  <si>
+    <t>38.839497</t>
+  </si>
+  <si>
+    <t>48.584643</t>
+  </si>
+  <si>
+    <t>39.187333</t>
+  </si>
+  <si>
+    <t>48.538462</t>
+  </si>
+  <si>
+    <t>39.277587</t>
+  </si>
+  <si>
+    <t>48.590633</t>
+  </si>
+  <si>
+    <t>39.306746</t>
+  </si>
+  <si>
+    <t>48.609890</t>
+  </si>
+  <si>
+    <t>39.383570</t>
+  </si>
+  <si>
+    <t>48.557924</t>
+  </si>
+  <si>
+    <t>39.187100</t>
+  </si>
+  <si>
+    <t>48.505426</t>
+  </si>
+  <si>
+    <t>39.296065</t>
+  </si>
+  <si>
+    <t>48.739790</t>
+  </si>
+  <si>
+    <t>39.226513</t>
+  </si>
+  <si>
+    <t>48.735871</t>
+  </si>
+  <si>
+    <t>39.234657</t>
+  </si>
+  <si>
+    <t>48.959417</t>
+  </si>
+  <si>
+    <t>38.994677</t>
+  </si>
+  <si>
+    <t>48.494650</t>
+  </si>
+  <si>
+    <t>39.048185</t>
+  </si>
+  <si>
+    <t>46.228847</t>
+  </si>
+  <si>
+    <t>34.629291</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224454</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229361</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229371</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229565</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229562</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229561</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229564</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1231128</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230858</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230984</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230981</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230986</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230980</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230987</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230985</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230988</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230963</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230993</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230962</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230965</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230982</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230958</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230983</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233421</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233424</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233435</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233402</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233439</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233432</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233413</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233419</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233441</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233427</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233412</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233405</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233430</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233401</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233440</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233404</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233426</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233422</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233420</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233400</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233411</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233403</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233416</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233425</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233444</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233418</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233442</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233436</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236303</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236307</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236297</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236300</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236293</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236294</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236269</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236281</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236267</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236274</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236278</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236318</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236301</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236187</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236181</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236177</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236298</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244316</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243356</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244257</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244315</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244308</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243366</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244320</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244318</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244312</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243410</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244321</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244311</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243374</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244309</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244313</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243372</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255461</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255503</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255469</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255353</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255466</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255360</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255463</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255364</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255473</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255363</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255354</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255361</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258322</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258317</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258316</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258310</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258323</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258313</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258318</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258320</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258314</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258311</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258315</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258312</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258324</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258319</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258309</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244314</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243408</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255309</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259977</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1260205</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259988</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259969</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259998</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259997</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259976</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259983</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259989</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259965</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259996</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259966</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259985</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259995</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259978</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259970</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259979</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -3079,6 +4675,24 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3120,7 +4734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3146,6 +4760,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3339,10 +4964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK245"/>
+  <dimension ref="A1:AMK381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D230" sqref="D230:D245"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E381" sqref="E381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -6207,7 +7832,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
         <v>730</v>
       </c>
@@ -7060,6 +8685,1900 @@
       <c r="D245" s="10" t="s">
         <v>1005</v>
       </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="8" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D263" s="10" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D266" s="10" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D267" s="10" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D268" s="10" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D269" s="10" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D270" s="10" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D271" s="10" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="14" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D272" s="10" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D273" s="10" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D274" s="10" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="15" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D275" s="10" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D284" s="10" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D286" s="10" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D287" s="10" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D288" s="10" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D290" s="10" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D291" s="10" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D292" s="10" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D293" s="10" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D298" s="10" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D299" s="10" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D301" s="10" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D305" s="10" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D306" s="10" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D307" s="10" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D308" s="10" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D309" s="10" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D310" s="10" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D311" s="10" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D312" s="10" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D313" s="10" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D314" s="10" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D315" s="10" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D316" s="10" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D318" s="10" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D319" s="10" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D320" s="10" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D321" s="10" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D322" s="10" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D323" s="10" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D324" s="10" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D325" s="10" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D326" s="10" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D327" s="10" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D328" s="10" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D329" s="10" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D330" s="10" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D331" s="10" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D332" s="10" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D333" s="10" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D334" s="10" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D335" s="10" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D336" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D337" s="10" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D338" s="10" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D339" s="10" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D340" s="10" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D341" s="10" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D342" s="10" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D343" s="10" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D344" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D345" s="10" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="12" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D346" s="10" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C347" s="12" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D347" s="10" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="12" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D348" s="10" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D349" s="10" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D350" s="10" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="12" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D351" s="10" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D352" s="10" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D353" s="10" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D354" s="10" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D355" s="10" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="12" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D356" s="10" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="12" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D357" s="10" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="12" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D358" s="10" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A359" s="12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D359" s="10" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="12" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D360" s="10" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D361" s="10" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="12" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B362" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D362" s="10" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A363" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B363" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C363" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D363" s="10" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="12" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B364" s="16" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D364" s="10" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="12" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B365" s="16" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D365" s="10" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="12" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B366" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D366" s="10" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="12" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B367" s="16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D367" s="10" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="12" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B368" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D368" s="10" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="12" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B369" s="16" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D369" s="10" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="12" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B370" s="16" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D370" s="10" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="12" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B371" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D371" s="10" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="12" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B372" s="16" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D372" s="10" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="12" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B373" s="16" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C373" s="12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D373" s="10" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="12" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B374" s="16" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D374" s="10" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="12" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B375" s="16" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C375" s="12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D375" s="10" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B376" s="16" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D376" s="10" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B377" s="16" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D377" s="10" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="12" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B378" s="16" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D378" s="10" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="12" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B379" s="16" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D379" s="10" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A380" s="12" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B380" s="16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D380" s="10" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="12"/>
+      <c r="B381" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7335,6 +10854,141 @@
     <hyperlink ref="D243" r:id="rId270" xr:uid="{9C9CB447-513E-418C-9092-D9558BE8391B}"/>
     <hyperlink ref="D244" r:id="rId271" xr:uid="{BA6C3345-C281-4756-877A-48A93335F2A4}"/>
     <hyperlink ref="D245" r:id="rId272" xr:uid="{1A13F42C-C65C-40D6-8FD4-8E342F3CFBCC}"/>
+    <hyperlink ref="D246" r:id="rId273" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1224454" xr:uid="{7EF8474F-5B04-4FFC-B2F0-A1F3FBB8AE45}"/>
+    <hyperlink ref="D247" r:id="rId274" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1229361" xr:uid="{47200A82-556B-457B-94A3-14A027D9FE95}"/>
+    <hyperlink ref="D248" r:id="rId275" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1229358" xr:uid="{CBF2388F-C420-4410-B9E3-6F7FB77DDCFF}"/>
+    <hyperlink ref="D249" r:id="rId276" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1229371" xr:uid="{8BD3EE00-19AE-4CDF-8CB8-A3543F06CDC1}"/>
+    <hyperlink ref="D250" r:id="rId277" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1229565" xr:uid="{4D4BB507-3459-474B-8093-C9D01BE780B2}"/>
+    <hyperlink ref="D251" r:id="rId278" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1229562" xr:uid="{8996411B-5E72-49C1-AECD-0219F0F2092D}"/>
+    <hyperlink ref="D252" r:id="rId279" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1229561" xr:uid="{5EB180BE-1896-4220-A42F-5FE1794CD003}"/>
+    <hyperlink ref="D253" r:id="rId280" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1229564" xr:uid="{236F8B58-F419-4DA8-8112-E9BE76CD5BB7}"/>
+    <hyperlink ref="D254" r:id="rId281" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1231128" xr:uid="{21B74C07-A2BB-4012-980A-B4683516920D}"/>
+    <hyperlink ref="D255" r:id="rId282" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230858" xr:uid="{096A2AD1-F5B6-4042-AF1F-783DBFF64E63}"/>
+    <hyperlink ref="D256" r:id="rId283" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230984" xr:uid="{97A0C13F-6A4C-4FA4-A6B6-FBDDB520086F}"/>
+    <hyperlink ref="D257" r:id="rId284" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230981" xr:uid="{D3944E84-BBFC-41CC-B8B3-60C212CD42C6}"/>
+    <hyperlink ref="D258" r:id="rId285" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230986" xr:uid="{27C9C166-2C98-43EE-8599-A4F2AA841C02}"/>
+    <hyperlink ref="D259" r:id="rId286" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230980" xr:uid="{BACCB2CD-5DBF-407A-A0E8-F8E55312BB7B}"/>
+    <hyperlink ref="D260" r:id="rId287" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230987" xr:uid="{20782477-9610-43AA-81E6-B93E9579A3E7}"/>
+    <hyperlink ref="D261" r:id="rId288" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230985" xr:uid="{0C8D7323-7561-44F2-A958-6DDF85D07225}"/>
+    <hyperlink ref="D262" r:id="rId289" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230985" xr:uid="{DFFD59CB-D89E-4BBD-8FF0-4CBA8221D838}"/>
+    <hyperlink ref="D263" r:id="rId290" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230988" xr:uid="{0F97A7D8-4E04-411F-9B4B-F900FFB69C69}"/>
+    <hyperlink ref="D264" r:id="rId291" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230963" xr:uid="{18343237-53B9-4122-A162-41D2E5045E2B}"/>
+    <hyperlink ref="D265" r:id="rId292" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230993" xr:uid="{A811A91D-E889-469E-9ECA-581922BF4E9F}"/>
+    <hyperlink ref="D266" r:id="rId293" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230962" xr:uid="{47FD7DA6-2B52-4A88-8BFB-DF90790C4BA3}"/>
+    <hyperlink ref="D267" r:id="rId294" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230965" xr:uid="{8D37FE3C-743D-45DA-AC2F-BAC01B73883E}"/>
+    <hyperlink ref="D268" r:id="rId295" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230982" xr:uid="{ECDFDF6A-8178-4B2E-ABF8-89A394EAB9D3}"/>
+    <hyperlink ref="D269" r:id="rId296" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230959" xr:uid="{5FF5FDEE-7095-4EED-98AC-A09DDB20E656}"/>
+    <hyperlink ref="D270" r:id="rId297" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230958" xr:uid="{05CAD6FE-8802-4A27-A4B8-3952D7EF19EE}"/>
+    <hyperlink ref="D271" r:id="rId298" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1230983" xr:uid="{4AA0FCE2-C907-4D4C-B985-54F9EF11D057}"/>
+    <hyperlink ref="D272" r:id="rId299" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233421" xr:uid="{5B340574-1E68-445A-9D61-C0D0CEF689D9}"/>
+    <hyperlink ref="D273" r:id="rId300" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233424" xr:uid="{B08AEC57-8F57-46C1-AB9B-8407528D80DA}"/>
+    <hyperlink ref="D274" r:id="rId301" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233435" xr:uid="{05327C99-9FD0-445F-9808-A18788EC8349}"/>
+    <hyperlink ref="D275" r:id="rId302" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233402" xr:uid="{C9C9CD30-C8B5-46C8-A3BF-63A0260897F7}"/>
+    <hyperlink ref="D276" r:id="rId303" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233439" xr:uid="{1F19117F-5B77-4714-BB3B-851138FA6374}"/>
+    <hyperlink ref="D277" r:id="rId304" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233432" xr:uid="{117CF39B-A461-41BB-BAB9-9E484A03E010}"/>
+    <hyperlink ref="D278" r:id="rId305" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233413" xr:uid="{8C503C87-6527-4113-9808-4557AF83CE48}"/>
+    <hyperlink ref="D279" r:id="rId306" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233419" xr:uid="{74EA61C1-FB47-4F4C-81BA-1F635D629175}"/>
+    <hyperlink ref="D280" r:id="rId307" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233441" xr:uid="{5B1008FC-E3DA-44F0-B62B-684D7BE308D6}"/>
+    <hyperlink ref="D281" r:id="rId308" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233427" xr:uid="{048B123C-DB46-43A6-A462-F54296E2552C}"/>
+    <hyperlink ref="D282" r:id="rId309" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233412" xr:uid="{43FBD59B-F48F-4256-822C-3D414EC72519}"/>
+    <hyperlink ref="D283" r:id="rId310" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233405" xr:uid="{3D8B23F2-3CE8-4DB9-A4C2-F57968B8477B}"/>
+    <hyperlink ref="D284" r:id="rId311" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233430" xr:uid="{CDCC8EA1-506E-41C1-BBAB-8A1C36352CB6}"/>
+    <hyperlink ref="D285" r:id="rId312" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233401" xr:uid="{62020F11-DE28-4D45-A5D3-BFA60DF501AF}"/>
+    <hyperlink ref="D286" r:id="rId313" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233440" xr:uid="{A9DC3229-6FB0-452B-9011-E575509DCE94}"/>
+    <hyperlink ref="D287" r:id="rId314" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233404" xr:uid="{B44A3DB1-E407-4FE1-AC22-5AE6B96412CC}"/>
+    <hyperlink ref="D288" r:id="rId315" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233426" xr:uid="{0DE9D7A9-A4F8-49D2-98F9-A9B773EF4567}"/>
+    <hyperlink ref="D289" r:id="rId316" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233422" xr:uid="{D2E6E533-5527-4717-8F1A-DE02615C6E04}"/>
+    <hyperlink ref="D290" r:id="rId317" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233420" xr:uid="{F2AF95CB-2C54-45F9-B50B-31D264C9BB6D}"/>
+    <hyperlink ref="D291" r:id="rId318" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233400" xr:uid="{34028EF4-4A98-4D37-9D19-6A44867C1E69}"/>
+    <hyperlink ref="D292" r:id="rId319" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233411" xr:uid="{071FAF77-4AA7-42F2-8981-09EA7B811AEB}"/>
+    <hyperlink ref="D293" r:id="rId320" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233403" xr:uid="{0128BC05-3352-431E-BB80-9EEE5A1168AF}"/>
+    <hyperlink ref="D294" r:id="rId321" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233416" xr:uid="{E894C6F0-72A0-4A04-A8F9-0D744C1A2703}"/>
+    <hyperlink ref="D295" r:id="rId322" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233425" xr:uid="{44BB8582-F667-4345-8494-8046808B984C}"/>
+    <hyperlink ref="D296" r:id="rId323" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233444" xr:uid="{4AF2338E-B01F-41AE-A3FE-26E99320D8A0}"/>
+    <hyperlink ref="D297" r:id="rId324" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233418" xr:uid="{E737E64A-FA42-415E-B130-27122EDD82F3}"/>
+    <hyperlink ref="D298" r:id="rId325" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233442" xr:uid="{0B86B5B2-E341-4208-93FB-617313A93536}"/>
+    <hyperlink ref="D299" r:id="rId326" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1233436" xr:uid="{3A46840A-AD7B-484D-9B03-4B33F747C0A0}"/>
+    <hyperlink ref="D300" r:id="rId327" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236303" xr:uid="{9D6D5101-207F-4C5D-BB9B-756E19429BF2}"/>
+    <hyperlink ref="D301" r:id="rId328" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236307" xr:uid="{346DA08E-9965-422B-894E-D5FB13F9DF80}"/>
+    <hyperlink ref="D302" r:id="rId329" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236297" xr:uid="{1CF7B1EC-8AFF-452B-A379-67D5A3399E52}"/>
+    <hyperlink ref="D303" r:id="rId330" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236300" xr:uid="{F252B811-BFB6-46E2-8F38-998971E45C4A}"/>
+    <hyperlink ref="D304" r:id="rId331" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236293" xr:uid="{BC716F9A-05BF-475B-9276-5CAE1ABCBA9F}"/>
+    <hyperlink ref="D305" r:id="rId332" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236294" xr:uid="{0A5FABDB-F674-4E8B-A8A4-D14106FED3C5}"/>
+    <hyperlink ref="D306" r:id="rId333" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236269" xr:uid="{E87A0696-E920-4EE0-9630-97498E9CDF60}"/>
+    <hyperlink ref="D307" r:id="rId334" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236281" xr:uid="{0540A3AA-117F-4075-95AA-B9E3C1878669}"/>
+    <hyperlink ref="D308" r:id="rId335" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236267" xr:uid="{19B7743C-D75F-4DFA-955E-A1354EE83B75}"/>
+    <hyperlink ref="D309" r:id="rId336" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236274" xr:uid="{32F45219-9F55-4D40-BD4B-D83C8ED010CB}"/>
+    <hyperlink ref="D310" r:id="rId337" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236278" xr:uid="{6BF05F65-D307-4825-9D4F-2F6BD5F87616}"/>
+    <hyperlink ref="D311" r:id="rId338" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236318" xr:uid="{253E313C-7804-42F8-8E1B-C090FA4D4303}"/>
+    <hyperlink ref="D312" r:id="rId339" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236301" xr:uid="{CECD0285-F8F8-4493-8634-3762F6B09E6C}"/>
+    <hyperlink ref="D313" r:id="rId340" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236187" xr:uid="{AFDD8373-2867-430A-81F5-C3DBEFC70200}"/>
+    <hyperlink ref="D314" r:id="rId341" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236181" xr:uid="{81E8AC1E-F218-4ACB-89F0-3CF9894A0271}"/>
+    <hyperlink ref="D315" r:id="rId342" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236177" xr:uid="{E90189A2-3883-4CF4-80D6-7D3B4852BA4F}"/>
+    <hyperlink ref="D316" r:id="rId343" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1236298" xr:uid="{6049AE6D-60C8-4B3B-BAC4-01DFF990B1FA}"/>
+    <hyperlink ref="D317" r:id="rId344" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244316" xr:uid="{980B6855-5695-42BF-8B5A-68622076A760}"/>
+    <hyperlink ref="D318" r:id="rId345" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1243356" xr:uid="{8AA938ED-AF1F-45A4-B466-0F9A8A4009F3}"/>
+    <hyperlink ref="D319" r:id="rId346" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244257" xr:uid="{E70BBF38-1462-4B2E-8453-3DD7EAD99625}"/>
+    <hyperlink ref="D320" r:id="rId347" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244315" xr:uid="{79827270-6C95-4FDD-8DC7-0C1E894ED4EE}"/>
+    <hyperlink ref="D321" r:id="rId348" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244308" xr:uid="{06A71F56-7AA4-47A3-B6CA-A54816ABA695}"/>
+    <hyperlink ref="D322" r:id="rId349" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1243366" xr:uid="{85A62719-9963-4685-9D24-819074460459}"/>
+    <hyperlink ref="D323" r:id="rId350" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244320" xr:uid="{6A1FFC3A-8370-4D82-8CDE-D6E8E4F47E5C}"/>
+    <hyperlink ref="D324" r:id="rId351" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244318" xr:uid="{665829F0-F981-4B88-A667-B54062770C5E}"/>
+    <hyperlink ref="D325" r:id="rId352" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244312" xr:uid="{3C047B17-EBB6-4314-A3B1-12B25923FAF4}"/>
+    <hyperlink ref="D326" r:id="rId353" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1243410" xr:uid="{DD01577D-D7A0-4E56-98AE-821B2207C667}"/>
+    <hyperlink ref="D327" r:id="rId354" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244321" xr:uid="{C8ABB52A-7700-4533-AC71-A5B3B1A0159A}"/>
+    <hyperlink ref="D328" r:id="rId355" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244311" xr:uid="{46B50CEB-2C90-47AF-96F7-F57D9E6452C6}"/>
+    <hyperlink ref="D329" r:id="rId356" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1243374" xr:uid="{419CC26F-E614-455C-946D-73CD239D0A13}"/>
+    <hyperlink ref="D330" r:id="rId357" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244309" xr:uid="{CF842F3E-50D8-4373-AED7-FBB4B18299BB}"/>
+    <hyperlink ref="D331" r:id="rId358" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244313" xr:uid="{AB446294-E6B2-499E-BFA0-917776DEB2A8}"/>
+    <hyperlink ref="D332" r:id="rId359" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1243372" xr:uid="{23FEF2D7-AD54-4BEB-B3DB-B24166D3C0EA}"/>
+    <hyperlink ref="D333" r:id="rId360" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255461" xr:uid="{355BB094-52BC-4E92-AEAB-164959800791}"/>
+    <hyperlink ref="D334" r:id="rId361" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F565085" xr:uid="{13E04E3C-69C8-4642-99F1-A7D209683A76}"/>
+    <hyperlink ref="D335" r:id="rId362" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255503" xr:uid="{F8D183A3-D361-4C8F-A093-C824410425B1}"/>
+    <hyperlink ref="D336" r:id="rId363" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255469" xr:uid="{266584EC-DD0E-4AA6-BE4C-CF8BDC38AE27}"/>
+    <hyperlink ref="D337" r:id="rId364" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255353" xr:uid="{C00A0441-B578-416D-8E5D-4CA0BE87873B}"/>
+    <hyperlink ref="D338" r:id="rId365" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255466" xr:uid="{EA602E81-8C0A-4835-B34D-0EF262FE2E94}"/>
+    <hyperlink ref="D339" r:id="rId366" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255360" xr:uid="{7D6334CD-B2BB-4E8F-B45F-9DF1FD878A89}"/>
+    <hyperlink ref="D340" r:id="rId367" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255463" xr:uid="{39EEAA13-5B5B-4108-BA18-46D7D192A526}"/>
+    <hyperlink ref="D341" r:id="rId368" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255364" xr:uid="{B5E39402-92A0-406D-A98B-D552DA261518}"/>
+    <hyperlink ref="D342" r:id="rId369" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255473" xr:uid="{AA4F7263-3ECE-48C9-A4E5-108AAE849784}"/>
+    <hyperlink ref="D343" r:id="rId370" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255363" xr:uid="{75992993-7074-464D-88F1-6C7190746D62}"/>
+    <hyperlink ref="D344" r:id="rId371" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255354" xr:uid="{F29F8C08-2CF0-4DB2-872C-836D0043ABDA}"/>
+    <hyperlink ref="D345" r:id="rId372" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255361" xr:uid="{C6486D0D-79F3-4FAC-BF7E-E1B5C0E1C14C}"/>
+    <hyperlink ref="D346" r:id="rId373" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258322" xr:uid="{0E604753-3B25-4937-B233-E11ACF0AA528}"/>
+    <hyperlink ref="D347" r:id="rId374" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258317" xr:uid="{97AC7CE2-307C-4293-B1C7-BAA3072C2350}"/>
+    <hyperlink ref="D348" r:id="rId375" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258316" xr:uid="{48E69189-9E5E-4423-94D8-4E5ADB158835}"/>
+    <hyperlink ref="D349" r:id="rId376" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258310" xr:uid="{FEB51861-052D-4608-80FD-6B01B7DE2178}"/>
+    <hyperlink ref="D350" r:id="rId377" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258323" xr:uid="{E3E9CABC-6D56-4E66-ACF4-7DC2C1E366FC}"/>
+    <hyperlink ref="D351" r:id="rId378" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258313" xr:uid="{5B41E333-55BE-46E9-B12E-BF300E51C63C}"/>
+    <hyperlink ref="D352" r:id="rId379" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258318" xr:uid="{C410B676-C199-45A2-A569-99C082B4EE8C}"/>
+    <hyperlink ref="D353" r:id="rId380" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258320" xr:uid="{CFF09BBF-D7CE-4FF4-840C-A26D5CCD9AC7}"/>
+    <hyperlink ref="D354" r:id="rId381" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258314" xr:uid="{7A32D28B-CD9D-4642-8E7E-8835F07CD56A}"/>
+    <hyperlink ref="D355" r:id="rId382" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258311" xr:uid="{29820E8D-3922-4CDD-A111-20FACE6D3435}"/>
+    <hyperlink ref="D356" r:id="rId383" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258315" xr:uid="{F2201D78-791C-403B-9FD3-60DB607DCCA9}"/>
+    <hyperlink ref="D357" r:id="rId384" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258312" xr:uid="{66DA2050-EFD5-44D2-A702-C77B3FB05DFE}"/>
+    <hyperlink ref="D358" r:id="rId385" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258324" xr:uid="{9FF5B509-D015-4904-A586-1268F33735B9}"/>
+    <hyperlink ref="D359" r:id="rId386" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258319" xr:uid="{8F79E6E5-64C8-49E4-8EC1-0DE701170B18}"/>
+    <hyperlink ref="D360" r:id="rId387" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1258309" xr:uid="{8467BEE3-5035-4D0D-8395-5B25A94E29CD}"/>
+    <hyperlink ref="D361" r:id="rId388" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1244314" xr:uid="{33B302C7-40F7-4849-9AD4-7F34323AB542}"/>
+    <hyperlink ref="D362" r:id="rId389" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1243408" xr:uid="{A218857E-1F86-452C-ADCF-A9BF18D37F35}"/>
+    <hyperlink ref="D363" r:id="rId390" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1255309" xr:uid="{3CCB179C-6AE9-4569-8BF2-5DBC53CF3B56}"/>
+    <hyperlink ref="D364" r:id="rId391" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259977" xr:uid="{94103A07-7ED9-4EBD-A57C-803AB66A0F09}"/>
+    <hyperlink ref="D365" r:id="rId392" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1260205" xr:uid="{617A5C44-B09D-4938-A688-E9EC87D8480D}"/>
+    <hyperlink ref="D366" r:id="rId393" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259988" xr:uid="{6144BC02-996F-42EB-A55B-588146135977}"/>
+    <hyperlink ref="D367" r:id="rId394" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259969" xr:uid="{BECE3151-A652-4AA5-91F5-108D4CA76007}"/>
+    <hyperlink ref="D368" r:id="rId395" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259998" xr:uid="{002E1ED3-5341-4FAE-891C-F92607D5786F}"/>
+    <hyperlink ref="D369" r:id="rId396" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259997" xr:uid="{7DFBFCC2-F39D-46D7-A3AC-0FE7070D9907}"/>
+    <hyperlink ref="D370" r:id="rId397" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259976" xr:uid="{34C4A45E-A3D6-44AA-9E5B-6D38B90682E2}"/>
+    <hyperlink ref="D371" r:id="rId398" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259983" xr:uid="{8782A456-7201-4064-8480-E686E49CD0F4}"/>
+    <hyperlink ref="D372" r:id="rId399" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259989" xr:uid="{C3ACE997-AF00-4C60-A106-894BCCC73C9A}"/>
+    <hyperlink ref="D373" r:id="rId400" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259965" xr:uid="{A6DDC45B-7E8B-4447-B65A-2CBF77F51982}"/>
+    <hyperlink ref="D374" r:id="rId401" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259996" xr:uid="{9C09B2A2-7DB9-4DAA-9D64-B169AEC9BE0F}"/>
+    <hyperlink ref="D375" r:id="rId402" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259966" xr:uid="{9D1960A3-242D-4B51-BA60-8EB96DD22A81}"/>
+    <hyperlink ref="D376" r:id="rId403" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259985" xr:uid="{57936BAF-BC8C-4DD7-B304-BEB94917703C}"/>
+    <hyperlink ref="D377" r:id="rId404" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259995" xr:uid="{268F4A12-04A5-4C06-873A-5F2907080B89}"/>
+    <hyperlink ref="D378" r:id="rId405" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259978" xr:uid="{028D3A1A-553F-4DF1-985C-E9A118F8CCAD}"/>
+    <hyperlink ref="D379" r:id="rId406" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259970" xr:uid="{7D826A5F-D19B-48CA-84DD-BC1E29C86D24}"/>
+    <hyperlink ref="D380" r:id="rId407" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fozon.ru%2Fpoint%2F1259979" xr:uid="{FEE75DC7-C5D7-4863-B47B-E9589657C9F7}"/>
   </hyperlinks>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/map.xlsx
+++ b/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dostavka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A780AFB9-A6BB-4B42-886C-2E3ECAFE85D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1E5482-FF5D-4DF2-92F4-A9A721964388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="2353">
   <si>
     <t>широта</t>
   </si>
@@ -3048,13 +3048,4060 @@
   </si>
   <si>
     <t>https://ozon.ru/point/1230955</t>
+  </si>
+  <si>
+    <t>Донецк, улица Куйбышева, 246 А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ждановка, рынок </t>
+  </si>
+  <si>
+    <t>г. Донецк, Щетинина 23а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пгт Ирмино, ул. Кириченко, д. 17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Мариуполь, ул. Михаила Грушевского, 15А </t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Щорса, 38</t>
+  </si>
+  <si>
+    <t>Ровеньки, квартал Шахтерский, д. 4</t>
+  </si>
+  <si>
+    <t>Пгт. Петровское , ул. Ленина, д. 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с. Ботиево, Тараса Шевченко, 59 </t>
+  </si>
+  <si>
+    <t>пос. Мирный, Варшавская 26</t>
+  </si>
+  <si>
+    <t>пгт. Приазовское, ул. Горького, 101</t>
+  </si>
+  <si>
+    <t>пгт. Нововасильевка, ул. Кооперативная, 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> пгт. Веселое ул. Пушкина, 29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> пгт. Веселое ул. Московская улица, 21 </t>
+  </si>
+  <si>
+    <t>пгт. Акимовка, ул. Ленина, 54</t>
+  </si>
+  <si>
+    <t>г. Шахтерск, улица 50-летия СССР, 16</t>
+  </si>
+  <si>
+    <t>г. Мелитополь, ул. Фрунзе, 264</t>
+  </si>
+  <si>
+    <t>г. Мелитополь, проспект Богдана Хмельницкого, 15</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, ул. Азовстальская, 57</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, Левый берег, Владимирская 23/53</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, бул. Шевченко, 295а</t>
+  </si>
+  <si>
+    <t>г. Макеевка, проспект 250-летия Донбасса, 2</t>
+  </si>
+  <si>
+    <t>пгт. Мирное, ул. Олексенка (Победы), 14</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. 60-летия СССР, 32</t>
+  </si>
+  <si>
+    <t>г. Бердянск, ул. Мазина, 19а</t>
+  </si>
+  <si>
+    <t>с. Вознесенка, ул. Мира, 205</t>
+  </si>
+  <si>
+    <t>Снежное, ул. Советская, д. 73</t>
+  </si>
+  <si>
+    <t>Макеевка, мкрн Калининсий, д. 4 пом. 148а</t>
+  </si>
+  <si>
+    <t>Мариуполь, Пашковского 14</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, ул. Олимпийская, 175</t>
+  </si>
+  <si>
+    <t>с. Радивоновка, ул. Центральная, 137</t>
+  </si>
+  <si>
+    <t>г. Донецк, пр-кт Павших Коммунаров, 96</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Актюбинская, 5а</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Артема, 41</t>
+  </si>
+  <si>
+    <t>г. Кировское, ул. Донецкая, 4</t>
+  </si>
+  <si>
+    <t>г. Скадовск, ул. Гуманенко 10</t>
+  </si>
+  <si>
+    <t>г. Харцызск, ул. Маяковского, 44</t>
+  </si>
+  <si>
+    <t>г. Шахтерск, ул. Крупской, 4г</t>
+  </si>
+  <si>
+    <t>г.Горловка,ул.Ленина, 197</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Суходольская, д.6</t>
+  </si>
+  <si>
+    <t>Луганск, кв. Заречный. д,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Луганск, кв. Молодежный, д.6 </t>
+  </si>
+  <si>
+    <t>Луганск, ул. Почтовая, д.22</t>
+  </si>
+  <si>
+    <t>пгт Брилевка ул. Мелиораторов, 7</t>
+  </si>
+  <si>
+    <t>пгт Лазурное, ул. Металлургов, 8</t>
+  </si>
+  <si>
+    <t>пгт Новониколаевка, ул. Мира, 11</t>
+  </si>
+  <si>
+    <t>пгт. Кирилловка ул. Центральная, 2</t>
+  </si>
+  <si>
+    <t>с. Виноградово ул. Ларионова, 3а</t>
+  </si>
+  <si>
+    <t>с. Шелюги ул. Зои Космодемьянской, 13</t>
+  </si>
+  <si>
+    <t>с. Широкое, ул. Ладычука, 29</t>
+  </si>
+  <si>
+    <t>с.Новобогдановка, ул.Шевченко, 33</t>
+  </si>
+  <si>
+    <t>с.Терпение ул. Таврическая, 16</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Степана Щипачева 33</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, ул. Нахимова, 204</t>
+  </si>
+  <si>
+    <t>г. Антрацит, ул. Коммунальная 37 а</t>
+  </si>
+  <si>
+    <t>г. Волноваха, ул. Ленина, д. 64</t>
+  </si>
+  <si>
+    <t>г. Горловка, ул. Бессонова 13</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Куйбышева, 252</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Майская, 18Б</t>
+  </si>
+  <si>
+    <t>г. Кировское, микрорайон Молодежный, 9</t>
+  </si>
+  <si>
+    <t>Макеевка, Ул.Менделеева,31</t>
+  </si>
+  <si>
+    <t>г. Макеевка, ул. Коккинаки, 60</t>
+  </si>
+  <si>
+    <t>г. Мелитополь, ул. Гоголя, 103</t>
+  </si>
+  <si>
+    <t>г. Мелитополь, ул. Ивана Алексеева 10А</t>
+  </si>
+  <si>
+    <t>г. Мелитополь, ул. Шмидта, 66</t>
+  </si>
+  <si>
+    <t>г. Харцызск, микрорайон Юбилейный, 10</t>
+  </si>
+  <si>
+    <t>г.Алмазная, ул Серго, 2А</t>
+  </si>
+  <si>
+    <t>г.Первомайск, ул Кима, 20</t>
+  </si>
+  <si>
+    <t>пгт Еленовка ул. Ленина, 7</t>
+  </si>
+  <si>
+    <t>пгт Ялта, Мангушский р-н, ул.Матросова, д. 30</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Днепродзержинская, 5</t>
+  </si>
+  <si>
+    <t>с. Зеленовка, ул. Итальянская, 102А</t>
+  </si>
+  <si>
+    <t>пгт. Черниговка Соборная улица, 441</t>
+  </si>
+  <si>
+    <t>пгт Успенка ул. Советская 99</t>
+  </si>
+  <si>
+    <t>пгт. Мангуш, ул. Мира 107</t>
+  </si>
+  <si>
+    <t>г. Мариуполь,пр. Никопольский (бывший пр.Ильича), 50</t>
+  </si>
+  <si>
+    <t>г. Амвросиевка ул. Артема, 3</t>
+  </si>
+  <si>
+    <t>г. Бердянск, ул. Верещагина, 12</t>
+  </si>
+  <si>
+    <t>г. Мариуполь ул. Белякова, 24</t>
+  </si>
+  <si>
+    <t>г. Перевальск ул. Ленина, 34</t>
+  </si>
+  <si>
+    <t>г. Шахтерск, ул. Герцена, 7</t>
+  </si>
+  <si>
+    <t>г. Ясиноватая, ул. Ленинградская, 15</t>
+  </si>
+  <si>
+    <t>Зугрэс-2 , ул. 60 лет Октября, дом 13а, 70кв</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Прожекторная, 1А</t>
+  </si>
+  <si>
+    <t>г Старобельск, ул. Октябрьская( Гимнастическая), 49</t>
+  </si>
+  <si>
+    <t>г. Старобельск, ул. Пролетарская (Мира), 6</t>
+  </si>
+  <si>
+    <t>г. Луганск, ул.Кирова,50Г</t>
+  </si>
+  <si>
+    <t>г. Антрацит, ул. 9 мая 2а</t>
+  </si>
+  <si>
+    <t>г. Бердянск, ул. Лютеранская, 36</t>
+  </si>
+  <si>
+    <t>г. Луганск, кв. Обороны Луганска 3</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Бессарабская, 19</t>
+  </si>
+  <si>
+    <t>г. Луганск, улица 50-летия образования СССР, 22А</t>
+  </si>
+  <si>
+    <t>г. Макеевка, ул. Героев Сталинграда, 19</t>
+  </si>
+  <si>
+    <t>г. Макеевка, ул. Клубная,7</t>
+  </si>
+  <si>
+    <t>г. Макеевка, ул. Монтажная, 48/11</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, квартал Азовье, 1</t>
+  </si>
+  <si>
+    <t>г. Торез, пр-кт Гагарина 25</t>
+  </si>
+  <si>
+    <t>г. Торез, ул. Ильича 22</t>
+  </si>
+  <si>
+    <t>Пгт. Беловодск, Политотделовская 48</t>
+  </si>
+  <si>
+    <t>г. Ровеньки, Ленина 19</t>
+  </si>
+  <si>
+    <t>Горловка, ул. Уманская 33</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Очаковская,24</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Петровского 26а</t>
+  </si>
+  <si>
+    <t>Енакиево, ул. Магистральная 12</t>
+  </si>
+  <si>
+    <t>Харцызск, ул. Адамца 52</t>
+  </si>
+  <si>
+    <t>г. Геническ, ул. Вокзальная 9</t>
+  </si>
+  <si>
+    <t>Мелитополь, ул. Молодежная, 60</t>
+  </si>
+  <si>
+    <t>Бердянск, Софиевская улица, 40</t>
+  </si>
+  <si>
+    <t>пгт Булавинское ул. Октябрьская 53, 47</t>
+  </si>
+  <si>
+    <t>Горловка, ул. Битумная 8</t>
+  </si>
+  <si>
+    <t>Донецк, ул.Шутова, 12/1</t>
+  </si>
+  <si>
+    <t>Харцызск, ул. Патона 7</t>
+  </si>
+  <si>
+    <t>Геническая городская община, село Стрелковое, улица Центральная 105б</t>
+  </si>
+  <si>
+    <t>г. Алчевск, ул. Чапаева, 45</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Лавренева, 31</t>
+  </si>
+  <si>
+    <t>г. Макеевка, ул. Николаева, 14</t>
+  </si>
+  <si>
+    <t>г. Донецк, ул. Панфилова 21</t>
+  </si>
+  <si>
+    <t>Шахтёрск, ул. Вентиляционная 51</t>
+  </si>
+  <si>
+    <t>пгт Старобешево ул. Советская, 49Б</t>
+  </si>
+  <si>
+    <t>Мелитополь, ул. Довженко, д. 3</t>
+  </si>
+  <si>
+    <t>с. Малая Белозерка, ул. Первомайская</t>
+  </si>
+  <si>
+    <t>пгт. Тельманово, пер. Мира 9, кв32</t>
+  </si>
+  <si>
+    <t>Алчевск, пр. Металлургов, 41</t>
+  </si>
+  <si>
+    <t>Александровск, ул. Красная Площадь, 10</t>
+  </si>
+  <si>
+    <t>Луганск, кв. Луганский, д.12, кв. 4</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Артема, 183</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Ульянова, 34</t>
+  </si>
+  <si>
+    <t>Луганск, пгт Юбилейный, ул. Артема, 3</t>
+  </si>
+  <si>
+    <t>Луганск, пос. Тельмана, ул. Успенская, д. 66А</t>
+  </si>
+  <si>
+    <t>Счастье ул. Донецкая, 105</t>
+  </si>
+  <si>
+    <t>Счастье, ул. Донецкая, 30</t>
+  </si>
+  <si>
+    <t>пгт Новоайдар ул. Кирова, 2</t>
+  </si>
+  <si>
+    <t>пгт. Белое, ул. Ленина, 1Г</t>
+  </si>
+  <si>
+    <t>Геническая городская община, пгт Новоалексеевка, ул. Дружбы Народов, 22А</t>
+  </si>
+  <si>
+    <t>с. Михайловка, пер. Соборный 1</t>
+  </si>
+  <si>
+    <t>с. Осипенко ул. Соколова, 17В</t>
+  </si>
+  <si>
+    <t>Мелитополь, б-р 30-летия Победы, 3</t>
+  </si>
+  <si>
+    <t>Мелитополь, проспект 50-летия Победы, 17/1</t>
+  </si>
+  <si>
+    <t>Геническ, ул. Курасова, 5а</t>
+  </si>
+  <si>
+    <t>пгт Чкалово, ул. Почтовая, 36</t>
+  </si>
+  <si>
+    <t>Преображенка, ул. Таврическая, 25</t>
+  </si>
+  <si>
+    <t>пгт Крестовка, ул. Гагарина, 33</t>
+  </si>
+  <si>
+    <t>пгт Новогригоровка, ул. Пушкина, 13А</t>
+  </si>
+  <si>
+    <t>пгт Григоровка, ул. Пушкина, 20</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, ул. Нахимова, 190</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, пр-кт Металлургов 223, пом.4</t>
+  </si>
+  <si>
+    <t>Червонопартизанск , ул. Комсомольская 2</t>
+  </si>
+  <si>
+    <t>Ивановка, ул. Декабристов 1 Г</t>
+  </si>
+  <si>
+    <t>Новопсков, ул. Школьная, 1</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Даргомыжского, 2т</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Антипова, 1</t>
+  </si>
+  <si>
+    <t>пгт Новый Свет, ул. Промышленная, 4</t>
+  </si>
+  <si>
+    <t>Мариуполь, пр-кт Металлургов, 64</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Ковалевской, 14</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Кадиевская 12</t>
+  </si>
+  <si>
+    <t>Донецк, пр-кт Дзержинского, 41</t>
+  </si>
+  <si>
+    <t>Мариуполь, ул. Адмирала Лунина 31</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Московская, 18</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Кремлевская, 43</t>
+  </si>
+  <si>
+    <t>Макеевка, Генерала Данилова, 71Б</t>
+  </si>
+  <si>
+    <t>Волноваха, ул. Киевская 1</t>
+  </si>
+  <si>
+    <t>Докучаевск, ул. Центральная, 29</t>
+  </si>
+  <si>
+    <t>Енакиево, ул. Брайляна 16</t>
+  </si>
+  <si>
+    <t>Макеевка, мкрн Зеленый, 46</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Керченская, 11</t>
+  </si>
+  <si>
+    <t>Мариуполь пр. Строителей 114</t>
+  </si>
+  <si>
+    <t>Мариуполь, 18-й микрорайон (рынок Юмовилла)</t>
+  </si>
+  <si>
+    <t>Мариуполь, б-р Шевченко, 317</t>
+  </si>
+  <si>
+    <t>Углегорск, ул. Некрасова 26</t>
+  </si>
+  <si>
+    <t>Донецк, пр-кт Ильича, 7Б,</t>
+  </si>
+  <si>
+    <t>пгт Кутейниково, ул. Школьная, 12</t>
+  </si>
+  <si>
+    <t>Антрацит, ул. Кальницкой, 5</t>
+  </si>
+  <si>
+    <t>Антрацит, ул. Петровского, 30</t>
+  </si>
+  <si>
+    <t>Краснодон, п. Котова, 31</t>
+  </si>
+  <si>
+    <t>пгт Беловодск, ул. Ленина, 134</t>
+  </si>
+  <si>
+    <t>пгт Белокуракино, ул. Чапаева, 83</t>
+  </si>
+  <si>
+    <t>пос. Щетово, ул. Первомайская, 5</t>
+  </si>
+  <si>
+    <t>Геническ, ул. Центральная, 31а</t>
+  </si>
+  <si>
+    <t>Великие Копани, ул. Карла Маркса, 72</t>
+  </si>
+  <si>
+    <t>Малые Копани, ул. Гагарина, 19А</t>
+  </si>
+  <si>
+    <t>Раденск, ул. Мира, 24В</t>
+  </si>
+  <si>
+    <t>Таврийское, пер. Первомайский, 2</t>
+  </si>
+  <si>
+    <t>Александровск, ул. Октябрьская, д.41 А</t>
+  </si>
+  <si>
+    <t>пгт Новый Свет, ул. Энергетическая, 23</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, ул. Куприна 41А</t>
+  </si>
+  <si>
+    <t>г. Мариуполь, пр. Строителей, 69</t>
+  </si>
+  <si>
+    <t>пгт Новотроицкое, ул. Соборная 33</t>
+  </si>
+  <si>
+    <t>Свердловск,ул. Энгельса,15</t>
+  </si>
+  <si>
+    <t>Стаханов, ул. Карла Либкнехта, 6</t>
+  </si>
+  <si>
+    <t>пгт Марковка, ул. Ленина,25</t>
+  </si>
+  <si>
+    <t>пос. Ивановка, ул. Вокзальная, 47</t>
+  </si>
+  <si>
+    <t>Каховка, просп. Европейский, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каховка, ул. Большая Куликовская (К. Маркса), 91 </t>
+  </si>
+  <si>
+    <t>Новая Каховка, ул. Горького, 38</t>
+  </si>
+  <si>
+    <t>Таврийск, ул. Портовая, 42А</t>
+  </si>
+  <si>
+    <t>Северодонецк, ул. Науки, 13</t>
+  </si>
+  <si>
+    <t>Стаханов, ул. Ленина, 39</t>
+  </si>
+  <si>
+    <t>Перевальск, пос.Горняцкий, ул.Горняцкая 10а</t>
+  </si>
+  <si>
+    <t>Рубежное, ул. Менделеева 22а</t>
+  </si>
+  <si>
+    <t>Петровское, ул. Ленина, 16</t>
+  </si>
+  <si>
+    <t>Луганск, квартал Гагарина д.10. пом 82</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> с.Водяное ,ул.Мира, 144</t>
+  </si>
+  <si>
+    <t>Мелитополь, ул. Кирова, 54</t>
+  </si>
+  <si>
+    <t>Бердянск, ул. Владимира Довганюка, 91</t>
+  </si>
+  <si>
+    <t>Володарское, ул. Ленина, 95</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Уборевича 36</t>
+  </si>
+  <si>
+    <t>Иловайск, ул. Шевченко 80</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Петровского, 120</t>
+  </si>
+  <si>
+    <t>Горловка, проспект Победы 81а</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Куйбышева, 196</t>
+  </si>
+  <si>
+    <t>Макеевка, Советский район, м-р Магистральный, д.5</t>
+  </si>
+  <si>
+    <t>Макеевка, Центрально-городской район, ул. Ярошенко, 12\56</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Советская 192</t>
+  </si>
+  <si>
+    <t>Мариуполь, ЖК Невский, ул. Ленина 163</t>
+  </si>
+  <si>
+    <t>Мариуполь, ул. Гранитная 126</t>
+  </si>
+  <si>
+    <t>Мариуполь, ул. Киевская, 44а</t>
+  </si>
+  <si>
+    <t>Мариуполь, ул. Олимпийская 61а</t>
+  </si>
+  <si>
+    <t>Мариуполь, ул. Энгельса (Нильсена), 1</t>
+  </si>
+  <si>
+    <t>Шахтерск, ул. Кирова, 21</t>
+  </si>
+  <si>
+    <t>г. Краснодон, ул. Комсомольская 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алчевск, ул. Гмыри 20 </t>
+  </si>
+  <si>
+    <t>Амвросиевка, ул. Павших Коммунаров, 4</t>
+  </si>
+  <si>
+    <t>Донецк, пр-кт Ленинский, 26</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Стадионная, 6</t>
+  </si>
+  <si>
+    <t>Макеевка, квартал Химик 8</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Лазарева, 3</t>
+  </si>
+  <si>
+    <t>Мариуполь, пр-кт Ленина, 13</t>
+  </si>
+  <si>
+    <t>Мариуполь, ул. 130-й Таганрогской Дивизии, 5а</t>
+  </si>
+  <si>
+    <t>Старобешево, ул. Победы, 94Б</t>
+  </si>
+  <si>
+    <t>Луганск, кв. Героев Брестской крепости, д. 6, пом. 63</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Новосёлова д.2</t>
+  </si>
+  <si>
+    <t>Луганск, ул. В. Титова, д. 13, пом. 41, ком. 40</t>
+  </si>
+  <si>
+    <t>Луганск, кв. Южный д. 3А, пом. 109 А</t>
+  </si>
+  <si>
+    <t>Энергодар, ул. Молодежная, 69а</t>
+  </si>
+  <si>
+    <t>пгт Новопсков, ул. Ленина, 53</t>
+  </si>
+  <si>
+    <t>Лутугино, ул. Крупской, 18</t>
+  </si>
+  <si>
+    <t>Бехтеры, ул. Таврийская, 5</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Куйбышева, 15</t>
+  </si>
+  <si>
+    <t>Мелитополь, ул. Гвардейская, 52</t>
+  </si>
+  <si>
+    <t>Бильмакский р-н, с. Смирново</t>
+  </si>
+  <si>
+    <t>Зоринск, ул. Ленина, 2</t>
+  </si>
+  <si>
+    <t>Первомайск, Островского, 1А</t>
+  </si>
+  <si>
+    <t>Старобельск, кв. Ватутина, 53</t>
+  </si>
+  <si>
+    <t>пгт Брянка, пл. Ленина, 1А</t>
+  </si>
+  <si>
+    <t>пгт Троицкое, пр-кт Победы, 40</t>
+  </si>
+  <si>
+    <t>пгт Новая Маячка, ул. Соборная, 114</t>
+  </si>
+  <si>
+    <t>Михайловка, ул. Школьная, 59</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Генерала Данилова, 32</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Фонтанная, 43</t>
+  </si>
+  <si>
+    <t>пгт Безыменное, ул. Советская, 41А</t>
+  </si>
+  <si>
+    <t>пгт. Мангуш, ул. Титова, 111а</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Пухова, 24</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Политбойцов, 1А</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Куйбышева, 105а</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Ульянова д. 36</t>
+  </si>
+  <si>
+    <t>Меловое, ул. Дружбы народов, 103</t>
+  </si>
+  <si>
+    <t>Старобельск кв Ватутина 30а</t>
+  </si>
+  <si>
+    <t>Краснодон, ул. Артёма 1а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Токмак, ул. Центральная, 22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Днепрорудное, ул. Шахтерская, 24
+</t>
+  </si>
+  <si>
+    <t>Мангуш, ул.Ленина, 52а</t>
+  </si>
+  <si>
+    <t>Мариуполь, ул. Зелинского, 1</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Свободы, 3А</t>
+  </si>
+  <si>
+    <t>Макеевка Кировский район ул. Кирова 91</t>
+  </si>
+  <si>
+    <t>Донецк. ул. Коммунаров, 12А</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Кирова, 49</t>
+  </si>
+  <si>
+    <t>Донецк, пр-т Панфилова, 1а</t>
+  </si>
+  <si>
+    <t>Донецк, пр-кт Партизанский, 1а</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Большая Магистральная, 26</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Энгельса, 110в</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Петровского, 79</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Донецкая, 80</t>
+  </si>
+  <si>
+    <t>Мариуполь, ул. Азовстальская, 88</t>
+  </si>
+  <si>
+    <t>Заря, ул. Афинская, 2</t>
+  </si>
+  <si>
+    <t>Талаковка, ул. 40 лет Октября, 162</t>
+  </si>
+  <si>
+    <t>Ялта, ул. Гагарина, 58а</t>
+  </si>
+  <si>
+    <t>Крепенский, ул. Мира, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ровеньки, кв. Шахтерский, 12 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ровеньки, ул. 8-го марта, 6 
+</t>
+  </si>
+  <si>
+    <t>Новоайдар, ул. Ленина, 23а</t>
+  </si>
+  <si>
+    <t>Ясеновский, ул. Ленина, 11</t>
+  </si>
+  <si>
+    <t>Дзержинский, ул. Муравьева, 1а</t>
+  </si>
+  <si>
+    <t>пгт Бирюково , ул. Ленина, 126</t>
+  </si>
+  <si>
+    <t>Харцызск, Краснознаменская, 178</t>
+  </si>
+  <si>
+    <t>Урзуф, улица Горького 45</t>
+  </si>
+  <si>
+    <t>Амвросиевка, ул. Парижской Коммуны, 84</t>
+  </si>
+  <si>
+    <t>Горловка, бульвар Димитрова 48</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Артема, 98Д</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Щетинина, 14</t>
+  </si>
+  <si>
+    <t>Андреевка ул.Рудченкова 7</t>
+  </si>
+  <si>
+    <t>Антрацит , Петровского 27</t>
+  </si>
+  <si>
+    <t>Красный Луч, 3-й микрорайон, 66а</t>
+  </si>
+  <si>
+    <t>Красный Луч, ул. Ильича, 2</t>
+  </si>
+  <si>
+    <t>Красный Луч, ул. Интернациональная, 26</t>
+  </si>
+  <si>
+    <t>Свердловск, ул. Зои Космодемьянской , дом 3, помещение 1</t>
+  </si>
+  <si>
+    <t>Славяносербск, ул. Гагарина, 69</t>
+  </si>
+  <si>
+    <t>Дзержинский, ул. Муравьева, 1</t>
+  </si>
+  <si>
+    <t>Металлист, ул. Ленина 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Великая Лепетиха, ул. Чкалова, 11 </t>
+  </si>
+  <si>
+    <t>Верхний Рогачик, ул. Центральная, 77</t>
+  </si>
+  <si>
+    <t>Донецк, Александра Матросова 9</t>
+  </si>
+  <si>
+    <t>Торез, микрорайон 30 лет Победы, 35</t>
+  </si>
+  <si>
+    <t>Старобешево, ул. Чкалова, 52</t>
+  </si>
+  <si>
+    <t>Антрацит, Петровского 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Камыш-Заря, ул. Вокзальная, 69
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каменка, ул. Центральная 57
+</t>
+  </si>
+  <si>
+    <t>Бердянск ул.Мичурина,57</t>
+  </si>
+  <si>
+    <t>Мелитополь, ул. Розы Люксембург, 17/1</t>
+  </si>
+  <si>
+    <t>Горское, ул. Центральная, 17</t>
+  </si>
+  <si>
+    <t>Краснодон, кв. Шахтёр, 4Б</t>
+  </si>
+  <si>
+    <t>Новотроицкое, ул. Кошевого, 43</t>
+  </si>
+  <si>
+    <t>Мариуполь, пер. Ярослава Мудрого, 19</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Московская, 64</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. 50 лет образования СССР, площадь Привокзальная, павильон 4,5</t>
+  </si>
+  <si>
+    <t>Донецк, ул Октября 16а</t>
+  </si>
+  <si>
+    <t>Дебальцево, ул. Николая Щербины, 9</t>
+  </si>
+  <si>
+    <t>Волноваха, Ленина, 13</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Розы Люксембург, 30А</t>
+  </si>
+  <si>
+    <t>Мариуполь, ул. Дарвина, 1а</t>
+  </si>
+  <si>
+    <t>Шульгинка ул. Ленина 45</t>
+  </si>
+  <si>
+    <t>Красная Поляна ул. Первомайская 9</t>
+  </si>
+  <si>
+    <t>Фащевка ул. Комсомольская, д. 51 помещение 1</t>
+  </si>
+  <si>
+    <t>Свердловск, ул. Гагарина, 118/1</t>
+  </si>
+  <si>
+    <t>Луганск, ул. Советская, 51 пом. 2</t>
+  </si>
+  <si>
+    <t>Луганск, улица Героя России В.Н. Зозулина д. 7 пом. 68</t>
+  </si>
+  <si>
+    <t>Луганск, кв. Пролетариата Донбасса д. 12 А</t>
+  </si>
+  <si>
+    <t>Луганск, пос. Юбилейный, кв. Запорожченко д.3 пом 49</t>
+  </si>
+  <si>
+    <t>Краснодон, кв. Лютикова 40</t>
+  </si>
+  <si>
+    <t>Мелитополь, ул. Екатерины Великой, 141</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Черепановых, 119</t>
+  </si>
+  <si>
+    <t>Седово, ул. Калинина, 6</t>
+  </si>
+  <si>
+    <t>Новоамвросиевское, ул. Ленина, 4/1</t>
+  </si>
+  <si>
+    <t>Макеевка, ул. Смирнова, 9</t>
+  </si>
+  <si>
+    <t>Макеевка , пос. Красная звезда, ул.Высотная 3</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Якуба Коласа, 1Б</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Щетинина, 21</t>
+  </si>
+  <si>
+    <t>Донецк, ул. Кирова, 17</t>
+  </si>
+  <si>
+    <t>Луганск, кв. 50 лет Обороны Луганска, д.14 М</t>
+  </si>
+  <si>
+    <t>48.036883</t>
+  </si>
+  <si>
+    <t>37.7467960</t>
+  </si>
+  <si>
+    <t>48.155027</t>
+  </si>
+  <si>
+    <t>38.253381</t>
+  </si>
+  <si>
+    <t>48.601837</t>
+  </si>
+  <si>
+    <t>38.589403</t>
+  </si>
+  <si>
+    <t>47.120591</t>
+  </si>
+  <si>
+    <t>37.513979</t>
+  </si>
+  <si>
+    <t>48.011411</t>
+  </si>
+  <si>
+    <t>37.795304</t>
+  </si>
+  <si>
+    <t>48.070611</t>
+  </si>
+  <si>
+    <t>39.402336</t>
+  </si>
+  <si>
+    <t>48.291895</t>
+  </si>
+  <si>
+    <t>38.878148</t>
+  </si>
+  <si>
+    <t>46.682061</t>
+  </si>
+  <si>
+    <t>35.841576</t>
+  </si>
+  <si>
+    <t>47.172256</t>
+  </si>
+  <si>
+    <t>37.577651</t>
+  </si>
+  <si>
+    <t>46.730484</t>
+  </si>
+  <si>
+    <t>35.643785</t>
+  </si>
+  <si>
+    <t>46.849953</t>
+  </si>
+  <si>
+    <t>36.782427</t>
+  </si>
+  <si>
+    <t>47.011278</t>
+  </si>
+  <si>
+    <t>34.921980</t>
+  </si>
+  <si>
+    <t>47.021323</t>
+  </si>
+  <si>
+    <t>34.933459</t>
+  </si>
+  <si>
+    <t>46.700870</t>
+  </si>
+  <si>
+    <t>35.160438</t>
+  </si>
+  <si>
+    <t>48.037944</t>
+  </si>
+  <si>
+    <t>38.482848</t>
+  </si>
+  <si>
+    <t>46.867638</t>
+  </si>
+  <si>
+    <t>35.358480</t>
+  </si>
+  <si>
+    <t>46.844116</t>
+  </si>
+  <si>
+    <t>35.373383</t>
+  </si>
+  <si>
+    <t>47.101021</t>
+  </si>
+  <si>
+    <t>37.645097</t>
+  </si>
+  <si>
+    <t>47.106443</t>
+  </si>
+  <si>
+    <t>37.640947</t>
+  </si>
+  <si>
+    <t>47.11728</t>
+  </si>
+  <si>
+    <t>37.521381</t>
+  </si>
+  <si>
+    <t>48.037660</t>
+  </si>
+  <si>
+    <t>37.961578</t>
+  </si>
+  <si>
+    <t>46.950531</t>
+  </si>
+  <si>
+    <t>35.440442</t>
+  </si>
+  <si>
+    <t>46.749913</t>
+  </si>
+  <si>
+    <t>36.793934</t>
+  </si>
+  <si>
+    <t>46.865253</t>
+  </si>
+  <si>
+    <t>35.455507</t>
+  </si>
+  <si>
+    <t>48.043065</t>
+  </si>
+  <si>
+    <t>38.762637</t>
+  </si>
+  <si>
+    <t>48.032203</t>
+  </si>
+  <si>
+    <t>37.886393</t>
+  </si>
+  <si>
+    <t>47.109314</t>
+  </si>
+  <si>
+    <t>37.637695</t>
+  </si>
+  <si>
+    <t>47.123240</t>
+  </si>
+  <si>
+    <t>37.681182</t>
+  </si>
+  <si>
+    <t>46.662550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35.244969</t>
+  </si>
+  <si>
+    <t>47.991413</t>
+  </si>
+  <si>
+    <t>37.833752</t>
+  </si>
+  <si>
+    <t>47.957031</t>
+  </si>
+  <si>
+    <t>37.779979</t>
+  </si>
+  <si>
+    <t>47.990069</t>
+  </si>
+  <si>
+    <t>37.805042</t>
+  </si>
+  <si>
+    <t>48.148707</t>
+  </si>
+  <si>
+    <t>38.363111</t>
+  </si>
+  <si>
+    <t>46.113745</t>
+  </si>
+  <si>
+    <t>32.936353</t>
+  </si>
+  <si>
+    <t>48.051817</t>
+  </si>
+  <si>
+    <t>38.140291</t>
+  </si>
+  <si>
+    <t>48.043743</t>
+  </si>
+  <si>
+    <t>38.483689</t>
+  </si>
+  <si>
+    <t>48.3122018</t>
+  </si>
+  <si>
+    <t>37.9884592</t>
+  </si>
+  <si>
+    <t>48.586408</t>
+  </si>
+  <si>
+    <t>39.397557</t>
+  </si>
+  <si>
+    <t>48.528839</t>
+  </si>
+  <si>
+    <t>39.269089</t>
+  </si>
+  <si>
+    <t>48.570987</t>
+  </si>
+  <si>
+    <t>39.374857</t>
+  </si>
+  <si>
+    <t>48.577992</t>
+  </si>
+  <si>
+    <t>39.302228</t>
+  </si>
+  <si>
+    <t>46.419815</t>
+  </si>
+  <si>
+    <t>33.143345</t>
+  </si>
+  <si>
+    <t>46.080873</t>
+  </si>
+  <si>
+    <t>32.520118</t>
+  </si>
+  <si>
+    <t>46.229215</t>
+  </si>
+  <si>
+    <t>32.733762</t>
+  </si>
+  <si>
+    <t>46.372125</t>
+  </si>
+  <si>
+    <t>35.370724</t>
+  </si>
+  <si>
+    <t>46.370452</t>
+  </si>
+  <si>
+    <t>32.936191</t>
+  </si>
+  <si>
+    <t>46.555537</t>
+  </si>
+  <si>
+    <t>35.239822</t>
+  </si>
+  <si>
+    <t>46.199600</t>
+  </si>
+  <si>
+    <t>32.905954</t>
+  </si>
+  <si>
+    <t>47.081002</t>
+  </si>
+  <si>
+    <t>35.316690</t>
+  </si>
+  <si>
+    <t>46.974129</t>
+  </si>
+  <si>
+    <t>35.426977</t>
+  </si>
+  <si>
+    <t>47.941913</t>
+  </si>
+  <si>
+    <t>37.601412</t>
+  </si>
+  <si>
+    <t>47.095678</t>
+  </si>
+  <si>
+    <t>37.538260</t>
+  </si>
+  <si>
+    <t>48.105959</t>
+  </si>
+  <si>
+    <t>39.086758</t>
+  </si>
+  <si>
+    <t>47.599271</t>
+  </si>
+  <si>
+    <t>37.495425</t>
+  </si>
+  <si>
+    <t>48.334883</t>
+  </si>
+  <si>
+    <t>38.064113</t>
+  </si>
+  <si>
+    <t>48.038149</t>
+  </si>
+  <si>
+    <t>37.747280</t>
+  </si>
+  <si>
+    <t>47.978007</t>
+  </si>
+  <si>
+    <t>37.855374</t>
+  </si>
+  <si>
+    <t>48.157658</t>
+  </si>
+  <si>
+    <t>38.356194</t>
+  </si>
+  <si>
+    <t>48.057063</t>
+  </si>
+  <si>
+    <t>37.969227</t>
+  </si>
+  <si>
+    <t>48.071797</t>
+  </si>
+  <si>
+    <t>37.905976</t>
+  </si>
+  <si>
+    <t>46.862009</t>
+  </si>
+  <si>
+    <t>35.376075</t>
+  </si>
+  <si>
+    <t>46.835449</t>
+  </si>
+  <si>
+    <t>35.362756</t>
+  </si>
+  <si>
+    <t>46.838809</t>
+  </si>
+  <si>
+    <t>35.353566</t>
+  </si>
+  <si>
+    <t>48.055413</t>
+  </si>
+  <si>
+    <t>38.138074</t>
+  </si>
+  <si>
+    <t>48.521710</t>
+  </si>
+  <si>
+    <t>38.580980</t>
+  </si>
+  <si>
+    <t>48.628686</t>
+  </si>
+  <si>
+    <t>38.523389</t>
+  </si>
+  <si>
+    <t>47.833304</t>
+  </si>
+  <si>
+    <t>37.652912</t>
+  </si>
+  <si>
+    <t>46.943358</t>
+  </si>
+  <si>
+    <t>37.282501</t>
+  </si>
+  <si>
+    <t>47.966956</t>
+  </si>
+  <si>
+    <t>37.777041</t>
+  </si>
+  <si>
+    <t>46.970761</t>
+  </si>
+  <si>
+    <t>36.225971</t>
+  </si>
+  <si>
+    <t>47.187373</t>
+  </si>
+  <si>
+    <t>36.230897</t>
+  </si>
+  <si>
+    <t>48.390504</t>
+  </si>
+  <si>
+    <t>39.163914</t>
+  </si>
+  <si>
+    <t>47.055045</t>
+  </si>
+  <si>
+    <t>37.319035</t>
+  </si>
+  <si>
+    <t>47.135857</t>
+  </si>
+  <si>
+    <t>37.590479</t>
+  </si>
+  <si>
+    <t>47.801278</t>
+  </si>
+  <si>
+    <t>38.473667</t>
+  </si>
+  <si>
+    <t>46.789835</t>
+  </si>
+  <si>
+    <t>36.728851</t>
+  </si>
+  <si>
+    <t>47.157988</t>
+  </si>
+  <si>
+    <t>37.575504</t>
+  </si>
+  <si>
+    <t>48.435400</t>
+  </si>
+  <si>
+    <t>38.808738</t>
+  </si>
+  <si>
+    <t>48.043209</t>
+  </si>
+  <si>
+    <t>38.437743</t>
+  </si>
+  <si>
+    <t>48.129610</t>
+  </si>
+  <si>
+    <t>37.885100</t>
+  </si>
+  <si>
+    <t>48.019271</t>
+  </si>
+  <si>
+    <t>38.297022</t>
+  </si>
+  <si>
+    <t>47.976342</t>
+  </si>
+  <si>
+    <t>37.910729</t>
+  </si>
+  <si>
+    <t>49.280315</t>
+  </si>
+  <si>
+    <t>38.902945</t>
+  </si>
+  <si>
+    <t>49.282972</t>
+  </si>
+  <si>
+    <t>38.898759</t>
+  </si>
+  <si>
+    <t>48.572799</t>
+  </si>
+  <si>
+    <t>39.281971</t>
+  </si>
+  <si>
+    <t>48.108113</t>
+  </si>
+  <si>
+    <t>39.094430</t>
+  </si>
+  <si>
+    <t>46.751586</t>
+  </si>
+  <si>
+    <t>36.795299</t>
+  </si>
+  <si>
+    <t>48.514105</t>
+  </si>
+  <si>
+    <t>39.358714</t>
+  </si>
+  <si>
+    <t>47.981234</t>
+  </si>
+  <si>
+    <t>37.850371</t>
+  </si>
+  <si>
+    <t>48.568209</t>
+  </si>
+  <si>
+    <t>39.323725</t>
+  </si>
+  <si>
+    <t>48.067402</t>
+  </si>
+  <si>
+    <t>37.898197</t>
+  </si>
+  <si>
+    <t>48.018740</t>
+  </si>
+  <si>
+    <t>37.900533</t>
+  </si>
+  <si>
+    <t>48.085065</t>
+  </si>
+  <si>
+    <t>37.983923</t>
+  </si>
+  <si>
+    <t>47.065629</t>
+  </si>
+  <si>
+    <t>37.479151</t>
+  </si>
+  <si>
+    <t>48.023971</t>
+  </si>
+  <si>
+    <t>38.616131</t>
+  </si>
+  <si>
+    <t>48.023043</t>
+  </si>
+  <si>
+    <t>38.628042</t>
+  </si>
+  <si>
+    <t>49.218944</t>
+  </si>
+  <si>
+    <t>39.594881</t>
+  </si>
+  <si>
+    <t>48.089404</t>
+  </si>
+  <si>
+    <t>39.368371</t>
+  </si>
+  <si>
+    <t>48.317028</t>
+  </si>
+  <si>
+    <t>38.039394</t>
+  </si>
+  <si>
+    <t>48.042083</t>
+  </si>
+  <si>
+    <t>37.793669</t>
+  </si>
+  <si>
+    <t>47.958358</t>
+  </si>
+  <si>
+    <t>37.727921</t>
+  </si>
+  <si>
+    <t>48.2713716</t>
+  </si>
+  <si>
+    <t>38.144084</t>
+  </si>
+  <si>
+    <t>48.041691</t>
+  </si>
+  <si>
+    <t>38.159715</t>
+  </si>
+  <si>
+    <t>46.165513</t>
+  </si>
+  <si>
+    <t>34.810337</t>
+  </si>
+  <si>
+    <t>46.851875</t>
+  </si>
+  <si>
+    <t>35.328494</t>
+  </si>
+  <si>
+    <t>46.770026</t>
+  </si>
+  <si>
+    <t>36.790592</t>
+  </si>
+  <si>
+    <t>48.255078</t>
+  </si>
+  <si>
+    <t>38.333593</t>
+  </si>
+  <si>
+    <t>48.299027</t>
+  </si>
+  <si>
+    <t>38.193177</t>
+  </si>
+  <si>
+    <t>47.944296</t>
+  </si>
+  <si>
+    <t>37.769912</t>
+  </si>
+  <si>
+    <t>48.041023</t>
+  </si>
+  <si>
+    <t>38.127160</t>
+  </si>
+  <si>
+    <t>45.901119</t>
+  </si>
+  <si>
+    <t>34.875316</t>
+  </si>
+  <si>
+    <t>48.466228</t>
+  </si>
+  <si>
+    <t>38.806681</t>
+  </si>
+  <si>
+    <t>48.044143</t>
+  </si>
+  <si>
+    <t>37.795798</t>
+  </si>
+  <si>
+    <t>48.026767</t>
+  </si>
+  <si>
+    <t>37.931821</t>
+  </si>
+  <si>
+    <t>48.02090</t>
+  </si>
+  <si>
+    <t>37.782243</t>
+  </si>
+  <si>
+    <t>48.083547</t>
+  </si>
+  <si>
+    <t>38.422227</t>
+  </si>
+  <si>
+    <t>47.752970</t>
+  </si>
+  <si>
+    <t>38.036079</t>
+  </si>
+  <si>
+    <t>46.857588</t>
+  </si>
+  <si>
+    <t>35.393937</t>
+  </si>
+  <si>
+    <t>47.244101</t>
+  </si>
+  <si>
+    <t>34.930025</t>
+  </si>
+  <si>
+    <t>47.415169</t>
+  </si>
+  <si>
+    <t>38.015680</t>
+  </si>
+  <si>
+    <t>48.470846</t>
+  </si>
+  <si>
+    <t>38.839497</t>
+  </si>
+  <si>
+    <t>48.584643</t>
+  </si>
+  <si>
+    <t>39.187333</t>
+  </si>
+  <si>
+    <t>48.538462</t>
+  </si>
+  <si>
+    <t>39.277587</t>
+  </si>
+  <si>
+    <t>48.590633</t>
+  </si>
+  <si>
+    <t>39.306746</t>
+  </si>
+  <si>
+    <t>48.609890</t>
+  </si>
+  <si>
+    <t>39.383570</t>
+  </si>
+  <si>
+    <t>48.557924</t>
+  </si>
+  <si>
+    <t>39.187100</t>
+  </si>
+  <si>
+    <t>48.505426</t>
+  </si>
+  <si>
+    <t>39.296065</t>
+  </si>
+  <si>
+    <t>48.739790</t>
+  </si>
+  <si>
+    <t>39.226513</t>
+  </si>
+  <si>
+    <t>48.735871</t>
+  </si>
+  <si>
+    <t>39.234657</t>
+  </si>
+  <si>
+    <t>48.959417</t>
+  </si>
+  <si>
+    <t>38.994677</t>
+  </si>
+  <si>
+    <t>48.494650</t>
+  </si>
+  <si>
+    <t>39.048185</t>
+  </si>
+  <si>
+    <t>46.227200</t>
+  </si>
+  <si>
+    <t>34.644451</t>
+  </si>
+  <si>
+    <t>47.267835</t>
+  </si>
+  <si>
+    <t>35.221568</t>
+  </si>
+  <si>
+    <t>46.917617</t>
+  </si>
+  <si>
+    <t>36.819349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.870028 </t>
+  </si>
+  <si>
+    <t>35.379537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.857570 </t>
+  </si>
+  <si>
+    <t>35.376761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.186262 </t>
+  </si>
+  <si>
+    <t>34.811738</t>
+  </si>
+  <si>
+    <t>46.479819</t>
+  </si>
+  <si>
+    <t>34.182648</t>
+  </si>
+  <si>
+    <t>46.397675</t>
+  </si>
+  <si>
+    <t>33.477579</t>
+  </si>
+  <si>
+    <t>46.402566</t>
+  </si>
+  <si>
+    <t>33.717923</t>
+  </si>
+  <si>
+    <t>46.410526</t>
+  </si>
+  <si>
+    <t>34.981592</t>
+  </si>
+  <si>
+    <t>46.290066</t>
+  </si>
+  <si>
+    <t>33.735323</t>
+  </si>
+  <si>
+    <t>47.092770</t>
+  </si>
+  <si>
+    <t>37.532646</t>
+  </si>
+  <si>
+    <t>47.133546</t>
+  </si>
+  <si>
+    <t>37.566961</t>
+  </si>
+  <si>
+    <t>48.074338</t>
+  </si>
+  <si>
+    <t>39.800317</t>
+  </si>
+  <si>
+    <t>48.234269</t>
+  </si>
+  <si>
+    <t>38.934413</t>
+  </si>
+  <si>
+    <t>49.534973</t>
+  </si>
+  <si>
+    <t>39.108506</t>
+  </si>
+  <si>
+    <t>48.537263</t>
+  </si>
+  <si>
+    <t>39.298967</t>
+  </si>
+  <si>
+    <t>48.002929</t>
+  </si>
+  <si>
+    <t>37.844954</t>
+  </si>
+  <si>
+    <t>47.808632</t>
+  </si>
+  <si>
+    <t>38.025479</t>
+  </si>
+  <si>
+    <t>47.100942</t>
+  </si>
+  <si>
+    <t>37.545851</t>
+  </si>
+  <si>
+    <t>48.060483</t>
+  </si>
+  <si>
+    <t>37.914214</t>
+  </si>
+  <si>
+    <t>48.019156</t>
+  </si>
+  <si>
+    <t>37.860477</t>
+  </si>
+  <si>
+    <t>47.994012</t>
+  </si>
+  <si>
+    <t>37.825038</t>
+  </si>
+  <si>
+    <t>47.065616</t>
+  </si>
+  <si>
+    <t>37.508032</t>
+  </si>
+  <si>
+    <t>48.041770</t>
+  </si>
+  <si>
+    <t>37.960576</t>
+  </si>
+  <si>
+    <t>48.053919</t>
+  </si>
+  <si>
+    <t>37.917089</t>
+  </si>
+  <si>
+    <t>48.045444</t>
+  </si>
+  <si>
+    <t>38.026063</t>
+  </si>
+  <si>
+    <t>47.594365</t>
+  </si>
+  <si>
+    <t>37.490883</t>
+  </si>
+  <si>
+    <t>47.746524</t>
+  </si>
+  <si>
+    <t>37.674615</t>
+  </si>
+  <si>
+    <t>48.266960</t>
+  </si>
+  <si>
+    <t>38.215015</t>
+  </si>
+  <si>
+    <t>48.051889</t>
+  </si>
+  <si>
+    <t>38.031121</t>
+  </si>
+  <si>
+    <t>48.016402</t>
+  </si>
+  <si>
+    <t>37.996877</t>
+  </si>
+  <si>
+    <t>47.104312</t>
+  </si>
+  <si>
+    <t>37.524065</t>
+  </si>
+  <si>
+    <t>47.112251</t>
+  </si>
+  <si>
+    <t>37.514958</t>
+  </si>
+  <si>
+    <t>47.117955</t>
+  </si>
+  <si>
+    <t>37.516296</t>
+  </si>
+  <si>
+    <t>48.311887</t>
+  </si>
+  <si>
+    <t>38.261691</t>
+  </si>
+  <si>
+    <t>48.001730</t>
+  </si>
+  <si>
+    <t>37.809255</t>
+  </si>
+  <si>
+    <t>47.811911</t>
+  </si>
+  <si>
+    <t>38.288749</t>
+  </si>
+  <si>
+    <t>48.107270</t>
+  </si>
+  <si>
+    <t>39.101643</t>
+  </si>
+  <si>
+    <t>48.113894</t>
+  </si>
+  <si>
+    <t>39.089058</t>
+  </si>
+  <si>
+    <t>48.288349</t>
+  </si>
+  <si>
+    <t>39.739177</t>
+  </si>
+  <si>
+    <t>49.206609</t>
+  </si>
+  <si>
+    <t>39.577759</t>
+  </si>
+  <si>
+    <t>49.524899</t>
+  </si>
+  <si>
+    <t>38.736685</t>
+  </si>
+  <si>
+    <t>48.170395</t>
+  </si>
+  <si>
+    <t>39.118605</t>
+  </si>
+  <si>
+    <t>46.165756</t>
+  </si>
+  <si>
+    <t>34.801004</t>
+  </si>
+  <si>
+    <t>46.492943</t>
+  </si>
+  <si>
+    <t>32.958460</t>
+  </si>
+  <si>
+    <t>46.435636</t>
+  </si>
+  <si>
+    <t>32.728932</t>
+  </si>
+  <si>
+    <t>46.551689</t>
+  </si>
+  <si>
+    <t>32.927619</t>
+  </si>
+  <si>
+    <t>46.372075</t>
+  </si>
+  <si>
+    <t>32.558359</t>
+  </si>
+  <si>
+    <t>48.587570</t>
+  </si>
+  <si>
+    <t>39.182123</t>
+  </si>
+  <si>
+    <t>47.812604</t>
+  </si>
+  <si>
+    <t>38.021182</t>
+  </si>
+  <si>
+    <t>47.107600</t>
+  </si>
+  <si>
+    <t>37.510125</t>
+  </si>
+  <si>
+    <t>47.08848</t>
+  </si>
+  <si>
+    <t>37.520788</t>
+  </si>
+  <si>
+    <t>46.353667</t>
+  </si>
+  <si>
+    <t>34.342081</t>
+  </si>
+  <si>
+    <t>48.081297</t>
+  </si>
+  <si>
+    <t>39.642995</t>
+  </si>
+  <si>
+    <t>48.561478</t>
+  </si>
+  <si>
+    <t>38.649476</t>
+  </si>
+  <si>
+    <t>49.518795</t>
+  </si>
+  <si>
+    <t>39.571662</t>
+  </si>
+  <si>
+    <t>48.220028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38.958091</t>
+  </si>
+  <si>
+    <t>46.802532</t>
+  </si>
+  <si>
+    <t>33.469646</t>
+  </si>
+  <si>
+    <t>46.816773</t>
+  </si>
+  <si>
+    <t>33.482349</t>
+  </si>
+  <si>
+    <t>46.745368</t>
+  </si>
+  <si>
+    <t>33.359738</t>
+  </si>
+  <si>
+    <t>46.755865</t>
+  </si>
+  <si>
+    <t>33.421640</t>
+  </si>
+  <si>
+    <t>48.940037</t>
+  </si>
+  <si>
+    <t>38.50847</t>
+  </si>
+  <si>
+    <t>48.542471</t>
+  </si>
+  <si>
+    <t>38.613292</t>
+  </si>
+  <si>
+    <t>48.453263</t>
+  </si>
+  <si>
+    <t>38.82242</t>
+  </si>
+  <si>
+    <t>49.027861</t>
+  </si>
+  <si>
+    <t>38.367019</t>
+  </si>
+  <si>
+    <t>48.291784</t>
+  </si>
+  <si>
+    <t>38.886964</t>
+  </si>
+  <si>
+    <t>48.572954</t>
+  </si>
+  <si>
+    <t>39.402094</t>
+  </si>
+  <si>
+    <t>47.487739</t>
+  </si>
+  <si>
+    <t>34.492208</t>
+  </si>
+  <si>
+    <t>46.843666</t>
+  </si>
+  <si>
+    <t>35.359756</t>
+  </si>
+  <si>
+    <t>46.768625</t>
+  </si>
+  <si>
+    <t>36.791778</t>
+  </si>
+  <si>
+    <t>47.202762</t>
+  </si>
+  <si>
+    <t>37.318593</t>
+  </si>
+  <si>
+    <t>47.940313</t>
+  </si>
+  <si>
+    <t>37.631335</t>
+  </si>
+  <si>
+    <t>47.923627</t>
+  </si>
+  <si>
+    <t>38.199070</t>
+  </si>
+  <si>
+    <t>47.953742</t>
+  </si>
+  <si>
+    <t>37.703397</t>
+  </si>
+  <si>
+    <t>48.307943</t>
+  </si>
+  <si>
+    <t>37.985909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.022292 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.756651 </t>
+  </si>
+  <si>
+    <t>48.082591</t>
+  </si>
+  <si>
+    <t>38.074779</t>
+  </si>
+  <si>
+    <t>48.086570</t>
+  </si>
+  <si>
+    <t>37.981839</t>
+  </si>
+  <si>
+    <t>48.090722</t>
+  </si>
+  <si>
+    <t>37.946149</t>
+  </si>
+  <si>
+    <t>47.101859</t>
+  </si>
+  <si>
+    <t>37.498838</t>
+  </si>
+  <si>
+    <t>47.125975</t>
+  </si>
+  <si>
+    <t>37.516575</t>
+  </si>
+  <si>
+    <t>47.116881</t>
+  </si>
+  <si>
+    <t>37.684551</t>
+  </si>
+  <si>
+    <t>47.109295</t>
+  </si>
+  <si>
+    <t>37.671094</t>
+  </si>
+  <si>
+    <t>47.090218</t>
+  </si>
+  <si>
+    <t>37.545671</t>
+  </si>
+  <si>
+    <t>48.050112</t>
+  </si>
+  <si>
+    <t>38.475535</t>
+  </si>
+  <si>
+    <t>48.296538</t>
+  </si>
+  <si>
+    <t>39.738746</t>
+  </si>
+  <si>
+    <t>48.468068</t>
+  </si>
+  <si>
+    <t>38.832175</t>
+  </si>
+  <si>
+    <t>47.795002</t>
+  </si>
+  <si>
+    <t>38.474305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.980245	</t>
+  </si>
+  <si>
+    <t>37.775963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.990648 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.788854 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.092666 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.956102 </t>
+  </si>
+  <si>
+    <t>48.046679</t>
+  </si>
+  <si>
+    <t>37.999949</t>
+  </si>
+  <si>
+    <t>47.094175</t>
+  </si>
+  <si>
+    <t>37.559029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.106468	</t>
+  </si>
+  <si>
+    <t>37.669073</t>
+  </si>
+  <si>
+    <t>47.751643</t>
+  </si>
+  <si>
+    <t>38.020350</t>
+  </si>
+  <si>
+    <t>46.870028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.857570	</t>
+  </si>
+  <si>
+    <t>48.557912</t>
+  </si>
+  <si>
+    <t>39.328558</t>
+  </si>
+  <si>
+    <t>48.549235</t>
+  </si>
+  <si>
+    <t>39.326249</t>
+  </si>
+  <si>
+    <t>48.573652</t>
+  </si>
+  <si>
+    <t>39.306468</t>
+  </si>
+  <si>
+    <t>48.529245</t>
+  </si>
+  <si>
+    <t>39.249371</t>
+  </si>
+  <si>
+    <t>47.487441</t>
+  </si>
+  <si>
+    <t>34.656069</t>
+  </si>
+  <si>
+    <t>49.543649</t>
+  </si>
+  <si>
+    <t>39.095741</t>
+  </si>
+  <si>
+    <t>48.398311</t>
+  </si>
+  <si>
+    <t>39.200781</t>
+  </si>
+  <si>
+    <t>46.248638</t>
+  </si>
+  <si>
+    <t>32.292467</t>
+  </si>
+  <si>
+    <t>47.973917</t>
+  </si>
+  <si>
+    <t>37.802769</t>
+  </si>
+  <si>
+    <t>46.886875</t>
+  </si>
+  <si>
+    <t>35.343074</t>
+  </si>
+  <si>
+    <t>47.220021</t>
+  </si>
+  <si>
+    <t>36.541428</t>
+  </si>
+  <si>
+    <t>48.416063</t>
+  </si>
+  <si>
+    <t>38.618673</t>
+  </si>
+  <si>
+    <t>48.631128</t>
+  </si>
+  <si>
+    <t>38.528536</t>
+  </si>
+  <si>
+    <t>49.270705</t>
+  </si>
+  <si>
+    <t>38.912198</t>
+  </si>
+  <si>
+    <t>48.504626</t>
+  </si>
+  <si>
+    <t>38.667514</t>
+  </si>
+  <si>
+    <t>49.907418</t>
+  </si>
+  <si>
+    <t>38.285874</t>
+  </si>
+  <si>
+    <t>46.603363</t>
+  </si>
+  <si>
+    <t>33.228305</t>
+  </si>
+  <si>
+    <t>46.281092</t>
+  </si>
+  <si>
+    <t>32.652880</t>
+  </si>
+  <si>
+    <t>48.044553</t>
+  </si>
+  <si>
+    <t>38.011340</t>
+  </si>
+  <si>
+    <t>48.020506</t>
+  </si>
+  <si>
+    <t>37.892798</t>
+  </si>
+  <si>
+    <t>47.107572</t>
+  </si>
+  <si>
+    <t>37.940229</t>
+  </si>
+  <si>
+    <t>47.050402</t>
+  </si>
+  <si>
+    <t>37.309319</t>
+  </si>
+  <si>
+    <t>47.957304</t>
+  </si>
+  <si>
+    <t>37.810993</t>
+  </si>
+  <si>
+    <t>48.048324</t>
+  </si>
+  <si>
+    <t>37.775290</t>
+  </si>
+  <si>
+    <t>47.998824</t>
+  </si>
+  <si>
+    <t>37.762093</t>
+  </si>
+  <si>
+    <t>48.609884</t>
+  </si>
+  <si>
+    <t>39.383301</t>
+  </si>
+  <si>
+    <t>49.376346</t>
+  </si>
+  <si>
+    <t>40.145629</t>
+  </si>
+  <si>
+    <t>49.272234</t>
+  </si>
+  <si>
+    <t>38.912553</t>
+  </si>
+  <si>
+    <t>48.285556</t>
+  </si>
+  <si>
+    <t>39.746157</t>
+  </si>
+  <si>
+    <t>47.258522</t>
+  </si>
+  <si>
+    <t>35.709407</t>
+  </si>
+  <si>
+    <t>47.388064</t>
+  </si>
+  <si>
+    <t>34.996252</t>
+  </si>
+  <si>
+    <t>47.056436</t>
+  </si>
+  <si>
+    <t>37.305834</t>
+  </si>
+  <si>
+    <t>47.086390</t>
+  </si>
+  <si>
+    <t>37.513790</t>
+  </si>
+  <si>
+    <t>48.038878</t>
+  </si>
+  <si>
+    <t>37.866496</t>
+  </si>
+  <si>
+    <t>48.065740</t>
+  </si>
+  <si>
+    <t>37.940256</t>
+  </si>
+  <si>
+    <t>47.968916</t>
+  </si>
+  <si>
+    <t>37.725496</t>
+  </si>
+  <si>
+    <t>47.972626</t>
+  </si>
+  <si>
+    <t>37.774319</t>
+  </si>
+  <si>
+    <t>48.024797</t>
+  </si>
+  <si>
+    <t>37.792888</t>
+  </si>
+  <si>
+    <t>48.057454</t>
+  </si>
+  <si>
+    <t>37.795026</t>
+  </si>
+  <si>
+    <t>47.968766</t>
+  </si>
+  <si>
+    <t>37.928695</t>
+  </si>
+  <si>
+    <t>48.041932</t>
+  </si>
+  <si>
+    <t>37.725649</t>
+  </si>
+  <si>
+    <t>47.958002</t>
+  </si>
+  <si>
+    <t>37.721337</t>
+  </si>
+  <si>
+    <t>48.046336</t>
+  </si>
+  <si>
+    <t>37.962256</t>
+  </si>
+  <si>
+    <t>47.101555</t>
+  </si>
+  <si>
+    <t>37.651520</t>
+  </si>
+  <si>
+    <t>47.297255</t>
+  </si>
+  <si>
+    <t>37.613366</t>
+  </si>
+  <si>
+    <t>47.185474</t>
+  </si>
+  <si>
+    <t>37.721894</t>
+  </si>
+  <si>
+    <t>46.964001</t>
+  </si>
+  <si>
+    <t>37.272556</t>
+  </si>
+  <si>
+    <t>48.080587</t>
+  </si>
+  <si>
+    <t>39.063923</t>
+  </si>
+  <si>
+    <t>48.072207</t>
+  </si>
+  <si>
+    <t>39.403944</t>
+  </si>
+  <si>
+    <t>48.084505</t>
+  </si>
+  <si>
+    <t>39.373581</t>
+  </si>
+  <si>
+    <t>48.95980</t>
+  </si>
+  <si>
+    <t>38.992651</t>
+  </si>
+  <si>
+    <t>48.167874</t>
+  </si>
+  <si>
+    <t>39.217400</t>
+  </si>
+  <si>
+    <t>48.049034</t>
+  </si>
+  <si>
+    <t>39.427220</t>
+  </si>
+  <si>
+    <t>47.953869</t>
+  </si>
+  <si>
+    <t>39.744621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.045221 </t>
+  </si>
+  <si>
+    <t>38.144120</t>
+  </si>
+  <si>
+    <t>46.915013</t>
+  </si>
+  <si>
+    <t>37.099545</t>
+  </si>
+  <si>
+    <t>47.778844</t>
+  </si>
+  <si>
+    <t>38.478967</t>
+  </si>
+  <si>
+    <t>48.309403</t>
+  </si>
+  <si>
+    <t>38.005547</t>
+  </si>
+  <si>
+    <t>48.013015</t>
+  </si>
+  <si>
+    <t>37.802652</t>
+  </si>
+  <si>
+    <t>47.980848</t>
+  </si>
+  <si>
+    <t>37.915373</t>
+  </si>
+  <si>
+    <t>47.460496</t>
+  </si>
+  <si>
+    <t>37.649193</t>
+  </si>
+  <si>
+    <t>48.115175</t>
+  </si>
+  <si>
+    <t>39.088222</t>
+  </si>
+  <si>
+    <t>48.161227</t>
+  </si>
+  <si>
+    <t>38.933640</t>
+  </si>
+  <si>
+    <t>48.121046</t>
+  </si>
+  <si>
+    <t>38.943683</t>
+  </si>
+  <si>
+    <t>48.139803</t>
+  </si>
+  <si>
+    <t>38.928933</t>
+  </si>
+  <si>
+    <t>48.078829</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39.645007</t>
+  </si>
+  <si>
+    <t>48.704909</t>
+  </si>
+  <si>
+    <t>38.974019</t>
+  </si>
+  <si>
+    <t>48.047360</t>
+  </si>
+  <si>
+    <t>39.433175</t>
+  </si>
+  <si>
+    <t>48.623708</t>
+  </si>
+  <si>
+    <t>39.277659</t>
+  </si>
+  <si>
+    <t>47.158472</t>
+  </si>
+  <si>
+    <t>33.931533</t>
+  </si>
+  <si>
+    <t>47.241475</t>
+  </si>
+  <si>
+    <t>34.360012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.010507 </t>
+  </si>
+  <si>
+    <t>37.765696</t>
+  </si>
+  <si>
+    <t>48.083835</t>
+  </si>
+  <si>
+    <t>38.612711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.755381 </t>
+  </si>
+  <si>
+    <t>38.025614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.123001 </t>
+  </si>
+  <si>
+    <t>39.089938</t>
+  </si>
+  <si>
+    <t>47.327126</t>
+  </si>
+  <si>
+    <t>36.693170</t>
+  </si>
+  <si>
+    <t>47.360152</t>
+  </si>
+  <si>
+    <t>36.650796</t>
+  </si>
+  <si>
+    <t>46.752691</t>
+  </si>
+  <si>
+    <t>36.813131</t>
+  </si>
+  <si>
+    <t>46.840399</t>
+  </si>
+  <si>
+    <t>35.356001</t>
+  </si>
+  <si>
+    <t>48.739394</t>
+  </si>
+  <si>
+    <t>38.492918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.318082 </t>
+  </si>
+  <si>
+    <t>39.724966</t>
+  </si>
+  <si>
+    <t>47.717179</t>
+  </si>
+  <si>
+    <t>37.576160</t>
+  </si>
+  <si>
+    <t>47.148667</t>
+  </si>
+  <si>
+    <t>37.605679</t>
+  </si>
+  <si>
+    <t>48.043023</t>
+  </si>
+  <si>
+    <t>37.973557</t>
+  </si>
+  <si>
+    <t>48.100252</t>
+  </si>
+  <si>
+    <t>37.951127</t>
+  </si>
+  <si>
+    <t>47.961968</t>
+  </si>
+  <si>
+    <t>37.881412</t>
+  </si>
+  <si>
+    <t>48.341387</t>
+  </si>
+  <si>
+    <t>38.402676</t>
+  </si>
+  <si>
+    <t>47.595610</t>
+  </si>
+  <si>
+    <t>37.498447</t>
+  </si>
+  <si>
+    <t>48.009030</t>
+  </si>
+  <si>
+    <t>37.792879</t>
+  </si>
+  <si>
+    <t>47.077222</t>
+  </si>
+  <si>
+    <t>37.502911</t>
+  </si>
+  <si>
+    <t>49.143431</t>
+  </si>
+  <si>
+    <t>38.922219</t>
+  </si>
+  <si>
+    <t>48.241512</t>
+  </si>
+  <si>
+    <t>39.107213</t>
+  </si>
+  <si>
+    <t>48.277089</t>
+  </si>
+  <si>
+    <t>38.609510</t>
+  </si>
+  <si>
+    <t>48.080123</t>
+  </si>
+  <si>
+    <t>39.695483</t>
+  </si>
+  <si>
+    <t>48.567953</t>
+  </si>
+  <si>
+    <t>39.298599</t>
+  </si>
+  <si>
+    <t>48.574165</t>
+  </si>
+  <si>
+    <t>39.313654</t>
+  </si>
+  <si>
+    <t>48.540097</t>
+  </si>
+  <si>
+    <t>39.344296</t>
+  </si>
+  <si>
+    <t>48.555997</t>
+  </si>
+  <si>
+    <t>39.190442</t>
+  </si>
+  <si>
+    <t>48.313732</t>
+  </si>
+  <si>
+    <t>39.720951</t>
+  </si>
+  <si>
+    <t>46.848615</t>
+  </si>
+  <si>
+    <t>35.363663</t>
+  </si>
+  <si>
+    <t>48.052004</t>
+  </si>
+  <si>
+    <t>37.841702</t>
+  </si>
+  <si>
+    <t>47.069673</t>
+  </si>
+  <si>
+    <t>38.159849</t>
+  </si>
+  <si>
+    <t>47.834634</t>
+  </si>
+  <si>
+    <t>38.498586</t>
+  </si>
+  <si>
+    <t>48.053646</t>
+  </si>
+  <si>
+    <t>37.837373</t>
+  </si>
+  <si>
+    <t>48.033908</t>
+  </si>
+  <si>
+    <t>38.034912</t>
+  </si>
+  <si>
+    <t>47.984340</t>
+  </si>
+  <si>
+    <t>37.686150</t>
+  </si>
+  <si>
+    <t>47.979871</t>
+  </si>
+  <si>
+    <t>37.920287</t>
+  </si>
+  <si>
+    <t>37.785054</t>
+  </si>
+  <si>
+    <t>48.512225</t>
+  </si>
+  <si>
+    <t>39.357340</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1224454</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229361</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229371</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229565</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229562</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229561</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1229564</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1231128</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230858</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230984</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230981</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230986</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230980</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230987</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230995</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230985</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230988</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230963</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230993</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230962</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230965</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230982</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230958</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1230983</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233421</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233424</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233435</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233402</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233439</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233432</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233413</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233419</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233441</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233427</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233412</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233405</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233430</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233401</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233440</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233404</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233426</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233422</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233420</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233400</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233411</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233403</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233416</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233425</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233444</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233418</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233442</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1233436</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236303</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236307</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236297</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236300</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236293</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236294</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236269</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236281</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236267</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236274</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236278</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236318</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236301</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236187</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236181</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236177</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1236298</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244316</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243356</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244257</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244315</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244308</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243366</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244320</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244318</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244312</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244321</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244311</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243374</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244309</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244313</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243372</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255461</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255265</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255503</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255469</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255353</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255466</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255360</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255463</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255364</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255473</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255363</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255354</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255361</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258322</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258317</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258316</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258310</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258323</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258313</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258318</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258320</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258314</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258311</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258315</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258312</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258324</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258319</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1258309</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244314</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243408</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1255309</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259977</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1260205</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259988</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259969</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259998</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259997</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259976</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259983</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259989</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259965</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259996</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259966</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259985</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259995</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259978</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259970</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1259979</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262343</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264145</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264141</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1263961</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1263966</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266661</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266257</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266660</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266222</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266658</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1243410</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262353</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266249</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266238</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266659</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266211</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266648</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266657</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266640</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266213</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266647</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266628</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266656</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266215</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266639</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266650</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266630</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1266645</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268378</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268385</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268379</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268377</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268403</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268416</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268407</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268406</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268384</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268411</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268382</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268374</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268394</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268413</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268415</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268401</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268386</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268402</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268387</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268409</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1268405</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264108</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1254095</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1244319</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270261</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270244</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1276193</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270255</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270657</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270670</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270267</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270658</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270656</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270673</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270240</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270256</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270257</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270674</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270667</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270661</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270242</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270253</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270666</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270243</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270269</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270671</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1270660</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264142</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262298</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262325</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262333</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262310</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262301</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262309</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262345</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262311</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262302</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1262328</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264128</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1263963</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264146</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264106</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264118</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264138</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264116</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264149</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1263965</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1263962</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1263964</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264124</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1263967</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1264636</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277559</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277325</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277558</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277628</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277585</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277579</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277616</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277623</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277589</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277591</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277570</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277634</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277632</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277557</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277606</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277571</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277618</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277583</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277614</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1277568</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1278567</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279921</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279720</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279696</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279707</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279943</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279904</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279938</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279703</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279710</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279690</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279997</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279546</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279545</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279905</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279693</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279917</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279686</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279706</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279934</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279899</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279999</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279708</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279722</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279908</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279942</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279927</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1279916</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1276892</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1253673</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281990</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281980</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1282005</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1282001</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281968</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281983</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281988</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281989</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1282088</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281789</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281805</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281788</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1282009</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281973</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281972</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1281984</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1282545</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1282542</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1282548</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1282549</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284108</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284112</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284377</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284105</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284376</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284372</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284374</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284375</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284371</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284369</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284370</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1284368</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1287000</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286988</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286993</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286984</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286921</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286964</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1287004</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1287006</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286936</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1287001</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286949</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286953</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286960</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286942</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286947</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286935</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286955</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286966</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286975</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1287005</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286928</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/point/1286968</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -3083,16 +7130,47 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3115,12 +7193,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3146,6 +7237,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3339,10 +7465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK245"/>
+  <dimension ref="A1:AMK591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D230" sqref="D230:D245"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -7059,6 +11185,4850 @@
       </c>
       <c r="D245" s="10" t="s">
         <v>1005</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="20" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B246" s="20" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="20" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B247" s="20" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="20" t="s">
+        <v>950</v>
+      </c>
+      <c r="B248" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="20" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B249" s="20" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="20" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B250" s="20" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="20" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B251" s="20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="21" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B252" s="20" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="20" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B253" s="20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B254" s="20" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="20" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B255" s="20" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="20" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B256" s="20" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="20" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B257" s="20" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="20" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B258" s="20" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="20" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B259" s="20" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="20" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B260" s="20" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="20" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B261" s="20" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="20" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B262" s="20" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="20" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B263" s="20" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B264" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="20" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B265" s="20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B266" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="20" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B267" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="20" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B268" s="20" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="20" t="s">
+        <v>968</v>
+      </c>
+      <c r="B269" s="20" t="s">
+        <v>969</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="20" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B270" s="20" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="20" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B271" s="20" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="21" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B272" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="20" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B273" s="20" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="20" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B274" s="20" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="21" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B275" s="20" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="20" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B276" s="20" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="20" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B277" s="20" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="20" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B278" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="20" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B279" s="20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="20" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B280" s="20" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="20" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B281" s="20" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="20" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B282" s="20" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="20" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B283" s="20" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="20" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B284" s="20" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="20" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B285" s="20" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="20" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B286" s="20" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="20" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B287" s="20" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="20" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B288" s="20" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="20" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B289" s="20" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="20" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B290" s="20" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="20" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B291" s="20" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="20" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B292" s="20" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="20" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B294" s="20" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="20" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B295" s="20" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="20" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B296" s="20" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="20" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B297" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="20" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B298" s="20" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="20" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B299" s="20" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="20" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B300" s="20" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="20" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B301" s="20" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="20" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B302" s="20" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="20" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B303" s="20" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="20" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B304" s="20" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="20" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B305" s="20" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="20" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B306" s="20" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="20" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B307" s="20" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="20" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B308" s="20" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="20" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B309" s="20" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B310" s="20" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="20" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B311" s="20" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="20" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B312" s="20" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="20" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B313" s="20" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C313" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="20" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B314" s="20" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="20" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B315" s="20" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C315" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="20" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B316" s="20" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="20" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B317" s="20" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="20" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B318" s="20" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="20" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B319" s="20" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="20" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B320" s="20" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="20" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B321" s="20" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="20" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B322" s="20" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="20" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B323" s="20" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="20" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B324" s="20" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="20" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B325" s="20" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="20" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B326" s="20" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="20" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B327" s="20" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="20" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B328" s="20" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="20" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B329" s="20" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C329" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="20" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B330" s="20" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="20" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B331" s="20" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="20" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B332" s="20" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="20" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B333" s="20" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C333" s="12" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="20" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B334" s="20" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C334" s="12" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="20" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B335" s="20" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="20" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B336" s="20" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C336" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B337" s="20" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C337" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="20" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B338" s="20" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="20" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B339" s="20" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="20" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B340" s="20" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="20" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B341" s="20" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C341" s="12" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="20" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B342" s="20" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="20" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B343" s="20" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="20" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B344" s="20" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="22" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B345" s="20" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C345" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="22" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B346" s="20" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C346" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="22" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B347" s="20" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C347" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="22" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B348" s="20" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C348" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="22" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B349" s="20" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C349" s="13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="22" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B350" s="20" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C350" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="22" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B351" s="20" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C351" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="22" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B352" s="20" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C352" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="22" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B353" s="20" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C353" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="22" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B354" s="20" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C354" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="22" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B355" s="20" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C355" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="22" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B356" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C356" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="22" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B357" s="20" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C357" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A358" s="22" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B358" s="20" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C358" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="22" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B359" s="20" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C359" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="22" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B360" s="20" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C360" s="13" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="22" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B361" s="20" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C361" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A362" s="22" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B362" s="20" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C362" s="14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="22" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B363" s="20" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C363" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="22" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B364" s="20" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C364" s="13" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="22" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B365" s="20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C365" s="13" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="22" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B366" s="20" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C366" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="22" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B367" s="20" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C367" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="22" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B368" s="20" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C368" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="22" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B369" s="20" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C369" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="22" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B370" s="20" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C370" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="22" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B371" s="20" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C371" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="22" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B372" s="20" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C372" s="13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="22" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B373" s="20" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C373" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="22" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C374" s="13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="22" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C375" s="13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="22" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B376" s="20" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C376" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="22" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B377" s="20" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C377" s="13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="22" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B378" s="20" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C378" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A379" s="22" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B379" s="20" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C379" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="22" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B380" s="20" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C380" s="13" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A381" s="22" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B381" s="20" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C381" s="14" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A382" s="22" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B382" s="20" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C382" s="14" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A383" s="22" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B383" s="20" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C383" s="14" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A384" s="22" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B384" s="20" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C384" s="14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A385" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="B385" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C385" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A386" s="22" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B386" s="20" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C386" s="14" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A387" s="22" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B387" s="20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C387" s="14" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A388" s="22" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B388" s="20" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C388" s="14" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A389" s="22" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B389" s="20" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C389" s="14" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A390" s="22" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B390" s="20" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C390" s="14" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A391" s="21" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B391" s="20" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C391" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A392" s="21" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B392" s="20" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C392" s="15" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A393" s="22" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B393" s="20" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C393" s="14" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A394" s="22" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B394" s="20" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C394" s="14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A395" s="22" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B395" s="20" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C395" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A396" s="22" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B396" s="20" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C396" s="14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A397" s="22" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B397" s="20" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C397" s="14" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A398" s="22" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B398" s="20" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C398" s="14" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A399" s="22" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B399" s="20" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C399" s="14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A400" s="22" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B400" s="20" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C400" s="14" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A401" s="22" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B401" s="20" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C401" s="14" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A402" s="22" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B402" s="20" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C402" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A403" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="B403" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C403" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A404" s="22" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B404" s="20" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C404" s="14" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A405" s="22" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B405" s="20" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C405" s="14" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A406" s="22" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B406" s="20" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C406" s="14" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A407" s="22" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B407" s="20" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C407" s="14" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A408" s="22" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B408" s="20" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C408" s="14" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A409" s="22" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B409" s="20" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C409" s="14" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A410" s="22" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B410" s="20" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C410" s="16" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A411" s="22" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B411" s="20" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C411" s="16" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A412" s="22" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B412" s="20" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C412" s="16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A413" s="22" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B413" s="20" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C413" s="16" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A414" s="22" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B414" s="20" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C414" s="16" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A415" s="22" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B415" s="20" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C415" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A416" s="22" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B416" s="20" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C416" s="16" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A417" s="22" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B417" s="20" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C417" s="16" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A418" s="22" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B418" s="20" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C418" s="16" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A419" s="22" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B419" s="20" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C419" s="16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A420" s="22" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B420" s="20" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C420" s="16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A421" s="22" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B421" s="20" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C421" s="16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A422" s="22" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B422" s="20" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C422" s="16" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A423" s="22" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B423" s="20" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C423" s="16" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A424" s="22" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B424" s="20" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C424" s="16" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A425" s="22" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B425" s="20" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C425" s="16" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A426" s="22" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B426" s="20" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C426" s="16" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A427" s="22" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B427" s="20" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C427" s="16" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A428" s="22" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B428" s="20" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C428" s="16" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A429" s="22" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B429" s="20" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C429" s="16" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A430" s="22" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B430" s="20" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C430" s="16" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A431" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B431" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="C431" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A432" s="20" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B432" s="20" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C432" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A433" s="20" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B433" s="20" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C433" s="17" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="20" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B434" s="20" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="20" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B435" s="20" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C435" s="12" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="20" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B436" s="20" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="23" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B437" s="23" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C437" s="12" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="23" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B438" s="23" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C438" s="12" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="23" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B439" s="23" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C439" s="18" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="23" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B440" s="23" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C440" s="18" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="23" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B441" s="23" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C441" s="18" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="23" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B442" s="23" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C442" s="18" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="23" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B443" s="23" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C443" s="18" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="23" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B444" s="23" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C444" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="23" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B445" s="23" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C445" s="18" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="23" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B446" s="23" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C446" s="18" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="23" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B447" s="23" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C447" s="18" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B448" s="23" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C448" s="18" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="23" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B449" s="23" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C449" s="18" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B450" s="23" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C450" s="18" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="23" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B451" s="23" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C451" s="18" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="23" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B452" s="23" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C452" s="18" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="23" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B453" s="23" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C453" s="18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="23" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B454" s="23" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C454" s="18" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="23" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B455" s="23" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C455" s="18" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="23" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B456" s="23" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C456" s="18" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="23" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B457" s="23" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C457" s="18" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="23" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B458" s="23" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C458" s="18" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="23" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B459" s="23" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C459" s="18" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B460" s="23" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C460" s="18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A461" s="23" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B461" s="23" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C461" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="23" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B462" s="23" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C462" s="18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="23" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B463" s="23" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C463" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="23" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B464" s="23" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C464" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="23" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B465" s="23" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C465" s="18" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="20" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B466" s="20" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C466" s="12" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="20" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B467" s="20" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C467" s="12" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="20" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B468" s="20" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C468" s="12" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="20" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B469" s="20" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C469" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="20" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B470" s="20" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C470" s="12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="20" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B471" s="20" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C471" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="24" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B472" s="20" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C472" s="12" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="20" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B473" s="20" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C473" s="12" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="20" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B474" s="20" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C474" s="12" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="20" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B475" s="20" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C475" s="12" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="20" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B476" s="20" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C476" s="12" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="24" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B477" s="20" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C477" s="12" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="24" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B478" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C478" s="12" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="20" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B479" s="20" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C479" s="12" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="20" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B480" s="20" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C480" s="12" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="24" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B481" s="20" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C481" s="12" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="20" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B482" s="20" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C482" s="12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="24" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B483" s="20" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C483" s="12" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="24" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B484" s="20" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C484" s="12" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="20" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B485" s="20" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C485" s="12" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="20" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B486" s="20" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C486" s="12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="20" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B487" s="20" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C487" s="12" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="20" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B488" s="20" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C488" s="12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="20" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B489" s="20" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C489" s="12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="20" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B490" s="20" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C490" s="12" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" s="20" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B491" s="20" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C491" s="12" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="20" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B492" s="20" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C492" s="12" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="20" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B493" s="20" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C493" s="12" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" s="20" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B494" s="20" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C494" s="12" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" s="20" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B495" s="20" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C495" s="12" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" s="20" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B496" s="20" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C496" s="12" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" s="20" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B497" s="20" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C497" s="12" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" s="20" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B498" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C498" s="12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B499" s="20" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C499" s="12" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B500" s="20" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C500" s="12" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" s="20" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B501" s="20" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C501" s="12" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502" s="20" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B502" s="20" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C502" s="12" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" s="20" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B503" s="20" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C503" s="12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" s="20" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B504" s="20" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C504" s="12" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" s="20" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B505" s="20" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C505" s="12" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B506" s="20" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C506" s="12" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" s="20" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B507" s="20" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C507" s="12" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" s="20" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B508" s="20" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C508" s="12" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B509" s="20" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C509" s="12" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" s="20" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B510" s="20" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C510" s="12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" s="20" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B511" s="20" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C511" s="12" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A512" s="20" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B512" s="20" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C512" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A513" s="20" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B513" s="20" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C513" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" s="20" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B514" s="20" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C514" s="12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B515" s="20" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C515" s="12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" s="20" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B516" s="20" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C516" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" s="20" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B517" s="20" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C517" s="12" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" s="20" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B518" s="20" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C518" s="12" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" s="20" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B519" s="20" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C519" s="12" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" s="20" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B520" s="20" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C520" s="12" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" s="20" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B521" s="20" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C521" s="12" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" s="20" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B522" s="20" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C522" s="12" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" s="20" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B523" s="20" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C523" s="12" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" s="20" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B524" s="20" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C524" s="12" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" s="20" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B525" s="20" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C525" s="12" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" s="20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B526" s="20" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C526" s="12" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" s="20" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B527" s="20" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C527" s="12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528" s="20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B528" s="20" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C528" s="12" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529" s="24" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B529" s="20" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C529" s="12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530" s="20" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B530" s="20" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C530" s="12" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A531" s="20" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B531" s="20" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C531" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A532" s="20" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B532" s="20" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C532" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533" s="20" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B533" s="20" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C533" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534" s="20" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B534" s="20" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C534" s="12" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535" s="20" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B535" s="20" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C535" s="12" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536" s="20" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B536" s="20" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C536" s="12" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537" s="20" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B537" s="20" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C537" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538" s="20" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B538" s="20" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C538" s="12" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539" s="20" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B539" s="20" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C539" s="12" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540" s="20" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B540" s="20" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C540" s="12" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541" s="20" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B541" s="20" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C541" s="12" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542" s="20" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B542" s="20" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C542" s="12" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543" s="20" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B543" s="20" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C543" s="12" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544" s="20" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B544" s="20" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C544" s="12" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" s="20" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B545" s="20" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C545" s="12" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546" s="20" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B546" s="20" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C546" s="12" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547" s="20" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B547" s="20" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C547" s="12" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" s="20" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B548" s="20" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C548" s="12" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" s="20" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B549" s="20" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C549" s="12" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550" s="20" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B550" s="20" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C550" s="12" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" s="20" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B551" s="20" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C551" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552" s="20" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B552" s="20" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C552" s="12" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553" s="20" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B553" s="20" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C553" s="12" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" s="24" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B554" s="20" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C554" s="12" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555" s="24" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B555" s="20" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C555" s="12" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556" s="24" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B556" s="20" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C556" s="12" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557" s="24" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B557" s="20" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C557" s="12" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A558" s="24" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B558" s="20" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C558" s="13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A559" s="20" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B559" s="20" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C559" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B560" s="20" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C560" s="12" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561" s="20" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B561" s="20" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C561" s="12" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562" s="24" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B562" s="20" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C562" s="12" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563" s="20" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B563" s="20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C563" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564" s="20" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B564" s="20" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C564" s="12" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565" s="20" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B565" s="20" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C565" s="12" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566" s="20" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B566" s="20" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C566" s="12" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567" s="20" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B567" s="20" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C567" s="12" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568" s="24" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B568" s="20" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C568" s="12" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569" s="20" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B569" s="20" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C569" s="19" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570" s="25" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B570" s="26" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C570" s="19" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571" s="25" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B571" s="26" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C571" s="19" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572" s="25" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B572" s="26" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C572" s="19" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573" s="25" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B573" s="26" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C573" s="19" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574" s="25" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B574" s="26" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C574" s="19" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575" s="25" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B575" s="26" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C575" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576" s="25" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B576" s="26" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C576" s="19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B577" s="26" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C577" s="19" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578" s="25" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B578" s="26" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C578" s="19" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579" s="25" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B579" s="26" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C579" s="19" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580" s="25" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B580" s="26" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C580" s="19" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581" s="25" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B581" s="26" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C581" s="19" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582" s="25" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B582" s="26" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C582" s="19" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583" s="25" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B583" s="26" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C583" s="19" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A584" s="25" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B584" s="26" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C584" s="19" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A585" s="25" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B585" s="26" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C585" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A586" s="25" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B586" s="26" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C586" s="19" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A587" s="25" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B587" s="26" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C587" s="19" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A588" s="25" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B588" s="26" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C588" s="19" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A589" s="25" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B589" s="26" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C589" s="19" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A590" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B590" s="26" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C590" s="19" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A591" s="25" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B591" s="26" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C591" s="19" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>2352</v>
       </c>
     </row>
   </sheetData>
